--- a/data/infrastructure/Supplementary table overview infra types.xlsx
+++ b/data/infrastructure/Supplementary table overview infra types.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\gmhcira\data\infrastructure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD245E2E-05D6-44AD-8ED6-024A151D5BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085D7FF9-F0D0-49C0-BD19-C7D4CBC09789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="158">
   <si>
     <t>Key</t>
   </si>
@@ -496,7 +496,10 @@
     <t>education</t>
   </si>
   <si>
-    <t>Contains column 'amenity' and 'building' which are combined into one column. Drop original columns. Decide on reclassification.</t>
+    <t>Contains column 'amenity' and 'building' which are combined into one column. Dropped original columns. Still need to decide on reclassification.</t>
+  </si>
+  <si>
+    <t>Contains column 'amenity', 'building' and 'healthcare' which are combined into one column. Dropped original columns. Still need to decide on reclassification.</t>
   </si>
 </sst>
 </file>
@@ -812,6 +815,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -821,7 +825,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1105,8 +1108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1274,7 +1277,7 @@
       <c r="C17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="78"/>
+      <c r="D17" s="75"/>
       <c r="E17" t="s">
         <v>36</v>
       </c>
@@ -1296,7 +1299,7 @@
       <c r="C18" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="78"/>
+      <c r="D18" s="75"/>
       <c r="E18" t="s">
         <v>56</v>
       </c>
@@ -1310,7 +1313,7 @@
       <c r="C19" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="78"/>
+      <c r="D19" s="75"/>
       <c r="E19" t="s">
         <v>56</v>
       </c>
@@ -1324,7 +1327,7 @@
       <c r="C20" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="78"/>
+      <c r="D20" s="75"/>
       <c r="E20" t="s">
         <v>56</v>
       </c>
@@ -1338,7 +1341,7 @@
       <c r="C21" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="78"/>
+      <c r="D21" s="75"/>
       <c r="E21" t="s">
         <v>56</v>
       </c>
@@ -1352,7 +1355,7 @@
       <c r="C22" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="78"/>
+      <c r="D22" s="75"/>
       <c r="E22" t="s">
         <v>56</v>
       </c>
@@ -1366,7 +1369,7 @@
       <c r="C23" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D23" s="78"/>
+      <c r="D23" s="75"/>
       <c r="E23" t="s">
         <v>56</v>
       </c>
@@ -1382,7 +1385,7 @@
       <c r="C24" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D24" s="78"/>
+      <c r="D24" s="75"/>
       <c r="E24" t="s">
         <v>149</v>
       </c>
@@ -1424,6 +1427,13 @@
       <c r="C27" s="20" t="s">
         <v>91</v>
       </c>
+      <c r="D27" s="75"/>
+      <c r="E27" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="18"/>
@@ -1431,6 +1441,13 @@
       <c r="C28" s="20" t="s">
         <v>68</v>
       </c>
+      <c r="D28" s="75"/>
+      <c r="E28" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="18"/>
@@ -1438,6 +1455,13 @@
       <c r="C29" s="20" t="s">
         <v>69</v>
       </c>
+      <c r="D29" s="75"/>
+      <c r="E29" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="18"/>
@@ -1445,6 +1469,13 @@
       <c r="C30" s="20" t="s">
         <v>70</v>
       </c>
+      <c r="D30" s="75"/>
+      <c r="E30" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="18"/>
@@ -1452,6 +1483,13 @@
       <c r="C31" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="D31" s="75"/>
+      <c r="E31" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="26"/>
@@ -1459,6 +1497,13 @@
       <c r="C32" s="20" t="s">
         <v>75</v>
       </c>
+      <c r="D32" s="75"/>
+      <c r="E32" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="26"/>
@@ -1466,6 +1511,13 @@
       <c r="C33" s="20" t="s">
         <v>76</v>
       </c>
+      <c r="D33" s="75"/>
+      <c r="E33" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="18"/>
@@ -1473,6 +1525,13 @@
       <c r="C34" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="D34" s="75"/>
+      <c r="E34" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="18"/>
@@ -1480,6 +1539,13 @@
       <c r="C35" s="20" t="s">
         <v>78</v>
       </c>
+      <c r="D35" s="75"/>
+      <c r="E35" t="s">
+        <v>72</v>
+      </c>
+      <c r="F35" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="18"/>
@@ -1487,6 +1553,13 @@
       <c r="C36" s="20" t="s">
         <v>79</v>
       </c>
+      <c r="D36" s="75"/>
+      <c r="E36" t="s">
+        <v>72</v>
+      </c>
+      <c r="F36" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="18"/>
@@ -1494,6 +1567,13 @@
       <c r="C37" s="20" t="s">
         <v>89</v>
       </c>
+      <c r="D37" s="75"/>
+      <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="71"/>
@@ -1501,6 +1581,13 @@
       <c r="C38" s="20" t="s">
         <v>90</v>
       </c>
+      <c r="D38" s="75"/>
+      <c r="E38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="21" t="s">
@@ -1512,7 +1599,7 @@
       <c r="C39" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="D39" s="78"/>
+      <c r="D39" s="75"/>
       <c r="E39" t="s">
         <v>155</v>
       </c>
@@ -1526,9 +1613,12 @@
       <c r="C40" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="D40" s="78"/>
+      <c r="D40" s="75"/>
       <c r="E40" t="s">
         <v>155</v>
+      </c>
+      <c r="F40" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
@@ -1537,9 +1627,12 @@
       <c r="C41" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="D41" s="78"/>
+      <c r="D41" s="75"/>
       <c r="E41" t="s">
         <v>155</v>
+      </c>
+      <c r="F41" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
@@ -1548,9 +1641,12 @@
       <c r="C42" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D42" s="78"/>
+      <c r="D42" s="75"/>
       <c r="E42" t="s">
         <v>155</v>
+      </c>
+      <c r="F42" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
@@ -1559,9 +1655,12 @@
       <c r="C43" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="D43" s="78"/>
+      <c r="D43" s="75"/>
       <c r="E43" t="s">
         <v>155</v>
+      </c>
+      <c r="F43" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2546,7 +2645,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="38"/>
-      <c r="B56" s="75" t="s">
+      <c r="B56" s="76" t="s">
         <v>59</v>
       </c>
       <c r="C56" s="5" t="s">
@@ -2565,7 +2664,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="38"/>
-      <c r="B57" s="76"/>
+      <c r="B57" s="77"/>
       <c r="C57" s="5" t="s">
         <v>60</v>
       </c>
@@ -2582,7 +2681,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="10"/>
-      <c r="B58" s="77"/>
+      <c r="B58" s="78"/>
       <c r="C58" s="5" t="s">
         <v>60</v>
       </c>

--- a/data/infrastructure/Supplementary table overview infra types.xlsx
+++ b/data/infrastructure/Supplementary table overview infra types.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\gmhcira\data\infrastructure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085D7FF9-F0D0-49C0-BD19-C7D4CBC09789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4889E9-4453-481E-A892-6C242C0A463D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Infrastructure categorization" sheetId="1" r:id="rId1"/>
-    <sheet name="Key-value &amp; reclassification" sheetId="2" r:id="rId2"/>
+    <sheet name="Key-value &amp; reclassification 1" sheetId="3" r:id="rId2"/>
+    <sheet name="Key-value &amp; reclassification" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="182">
   <si>
     <t>Key</t>
   </si>
@@ -500,13 +501,85 @@
   </si>
   <si>
     <t>Contains column 'amenity', 'building' and 'healthcare' which are combined into one column. Dropped original columns. Still need to decide on reclassification.</t>
+  </si>
+  <si>
+    <t>telecom</t>
+  </si>
+  <si>
+    <t>Contains column 'man_made', 'tower_type', 'telecom' and 'communication_mobile_phone' which are combined into one column. Dropped original columns. Dropped line elements. Filtered towers and masts that are tower_type 'communication'</t>
+  </si>
+  <si>
+    <t>not included in OSM flex</t>
+  </si>
+  <si>
+    <t>not included in OSM flex - also not really interested in including this; discuss with Elco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wastewater </t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>storage tanks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">storage tanks for liquids or compressed gases can be accessed through man_made=storage_tank (https://wiki.openstreetmap.org/wiki/Tag:man_made%3Dstorage_tank). OSM flex aready specified that these tanks should contain water. </t>
+  </si>
+  <si>
+    <t>OSM describes this as a large man-made tank for holding water. Reclassify as storage tank?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete fire hydrant from config file? </t>
+  </si>
+  <si>
+    <t>Add pipes to assessment</t>
+  </si>
+  <si>
+    <t>&lt; add key value combination man_made x communications_tower? Or is this already included? Consider to adjust extracting code: delete telecom linestrings</t>
+  </si>
+  <si>
+    <t>water storage tank at altitude - reclassify? Check whether it's always elevated structures or not? If not, then it can be reclassified as storage tanks</t>
+  </si>
+  <si>
+    <t>water treatment plant where water is treated to make it suitable for human consumption before being sent to the water network (drinking water)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Include this in risk assesement? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check whether I'd like to do something with the voltage </t>
+  </si>
+  <si>
+    <t>portal</t>
+  </si>
+  <si>
+    <t>https://wiki.openstreetmap.org/wiki/Tag%3Apower%3Dportal</t>
+  </si>
+  <si>
+    <t>A tower type having two (or more) vertical structures connected by a horizontal cross-beam. All conductors are supported between the vertical structures (unlike the h-frame tower). This design is mostly used as termination tower at substations. It can also be used if a line intersects with other power lines.</t>
+  </si>
+  <si>
+    <t>or is it better to also extract design type? (https://wiki.openstreetmap.org/wiki/Tag:power%3Dtower)</t>
+  </si>
+  <si>
+    <t>Also include generator (may be part of a power plant, but can also be assets such as solar panels or wind turbines in combination with generator:source tag), transformer (= typically locatd inside substation), terminal (a point of connection where an overhead power line end on a building or wall), switch (found in substations or along the grid to power up en ndown lines), catenary mast (supplies energy to powered vehicles such as trams, trains)) to research? That is now also being extracted. Otherwise adjust code in OSM flex</t>
+  </si>
+  <si>
+    <t>Include construction material?</t>
+  </si>
+  <si>
+    <t>Reclassify to overhead line?</t>
+  </si>
+  <si>
+    <t>Use voltage?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -550,8 +623,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -609,6 +705,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,7 +841,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -816,6 +924,11 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -825,6 +938,68 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1106,20 +1281,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.453125" customWidth="1"/>
-    <col min="2" max="2" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1148,7 +1323,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
@@ -1158,174 +1333,300 @@
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D2" s="75"/>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>173</v>
+      </c>
+      <c r="I2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="14"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D3" s="75"/>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="14"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D4" s="75"/>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>180</v>
+      </c>
+      <c r="H4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="14"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D5" s="75"/>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="14"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D6" s="75"/>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="14"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D7" s="75"/>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="14"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="80" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="75"/>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>176</v>
+      </c>
+      <c r="J8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="14"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+      <c r="D9" s="75"/>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="12"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D10" s="75"/>
+      <c r="E10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F10" t="s">
+        <v>170</v>
+      </c>
+      <c r="G10" t="s">
+        <v>167</v>
+      </c>
+      <c r="I10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="12"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+      <c r="D11" s="79"/>
+      <c r="E11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G11" t="s">
+        <v>167</v>
+      </c>
+      <c r="I11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="12"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+      <c r="D12" s="75"/>
+      <c r="E12" t="s">
+        <v>163</v>
+      </c>
+      <c r="F12" t="s">
+        <v>166</v>
+      </c>
+      <c r="G12" t="s">
+        <v>167</v>
+      </c>
+      <c r="I12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="12"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="73" t="s">
+      <c r="C13" s="78" t="s">
+        <v>164</v>
+      </c>
+      <c r="D13" s="77"/>
+      <c r="E13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" t="s">
+        <v>165</v>
+      </c>
+      <c r="G13" t="s">
+        <v>167</v>
+      </c>
+      <c r="I13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="12"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="75"/>
+      <c r="E14" t="s">
+        <v>163</v>
+      </c>
+      <c r="F14" t="s">
+        <v>171</v>
+      </c>
+      <c r="G14" t="s">
+        <v>167</v>
+      </c>
+      <c r="H14" t="s">
+        <v>172</v>
+      </c>
+      <c r="I14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="12"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="73" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
+      <c r="D15" s="76"/>
+      <c r="E15" t="s">
+        <v>161</v>
+      </c>
+      <c r="I15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="74" t="s">
+      <c r="C16" s="74" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="11"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4" t="s">
+      <c r="D16" s="76"/>
+      <c r="E16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="11"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="11"/>
-      <c r="B16" s="4" t="s">
+      <c r="D17" s="76"/>
+      <c r="E17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="11"/>
+      <c r="B18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="9" t="s">
+      <c r="D18" s="77"/>
+      <c r="E18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B19" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="D17" s="75"/>
-      <c r="E17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" t="s">
-        <v>153</v>
-      </c>
-      <c r="G17" t="s">
-        <v>145</v>
-      </c>
-      <c r="I17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="10"/>
-      <c r="B18" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="75"/>
-      <c r="E18" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="10"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="D19" s="75"/>
       <c r="E19" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="F19" t="s">
-        <v>144</v>
+        <v>153</v>
+      </c>
+      <c r="G19" t="s">
+        <v>145</v>
+      </c>
+      <c r="I19" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="10"/>
-      <c r="B20" s="5"/>
+      <c r="B20" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="C20" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="75"/>
       <c r="E20" t="s">
@@ -1339,7 +1640,7 @@
       <c r="A21" s="10"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D21" s="75"/>
       <c r="E21" t="s">
@@ -1353,7 +1654,7 @@
       <c r="A22" s="10"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D22" s="75"/>
       <c r="E22" t="s">
@@ -1367,7 +1668,7 @@
       <c r="A23" s="10"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="D23" s="75"/>
       <c r="E23" t="s">
@@ -1379,81 +1680,101 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="10"/>
-      <c r="B24" s="5" t="s">
-        <v>59</v>
-      </c>
+      <c r="B24" s="5"/>
       <c r="C24" s="5" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="D24" s="75"/>
       <c r="E24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="10"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" s="75"/>
+      <c r="E25" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="10"/>
+      <c r="B26" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" s="75"/>
+      <c r="E26" t="s">
         <v>149</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F26" t="s">
         <v>150</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G26" t="s">
         <v>151</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H26" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="16" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B27" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C27" s="15" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="28"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>91</v>
       </c>
       <c r="D27" s="75"/>
       <c r="E27" t="s">
-        <v>72</v>
+        <v>158</v>
       </c>
       <c r="F27" t="s">
-        <v>157</v>
+        <v>159</v>
+      </c>
+      <c r="G27" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="18"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20" t="s">
-        <v>68</v>
+      <c r="A28" s="28"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15" t="s">
+        <v>99</v>
       </c>
       <c r="D28" s="75"/>
       <c r="E28" t="s">
-        <v>72</v>
+        <v>158</v>
       </c>
       <c r="F28" t="s">
-        <v>157</v>
+        <v>159</v>
+      </c>
+      <c r="G28" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="18"/>
-      <c r="B29" s="20"/>
+      <c r="A29" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>116</v>
+      </c>
       <c r="C29" s="20" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="D29" s="75"/>
       <c r="E29" t="s">
@@ -1467,7 +1788,7 @@
       <c r="A30" s="18"/>
       <c r="B30" s="20"/>
       <c r="C30" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D30" s="75"/>
       <c r="E30" t="s">
@@ -1481,7 +1802,7 @@
       <c r="A31" s="18"/>
       <c r="B31" s="20"/>
       <c r="C31" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D31" s="75"/>
       <c r="E31" t="s">
@@ -1492,10 +1813,10 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="26"/>
+      <c r="A32" s="18"/>
       <c r="B32" s="20"/>
       <c r="C32" s="20" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D32" s="75"/>
       <c r="E32" t="s">
@@ -1506,10 +1827,10 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="26"/>
+      <c r="A33" s="18"/>
       <c r="B33" s="20"/>
       <c r="C33" s="20" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D33" s="75"/>
       <c r="E33" t="s">
@@ -1520,10 +1841,10 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="18"/>
+      <c r="A34" s="26"/>
       <c r="B34" s="20"/>
       <c r="C34" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D34" s="75"/>
       <c r="E34" t="s">
@@ -1534,10 +1855,10 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="18"/>
+      <c r="A35" s="26"/>
       <c r="B35" s="20"/>
       <c r="C35" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D35" s="75"/>
       <c r="E35" t="s">
@@ -1551,7 +1872,7 @@
       <c r="A36" s="18"/>
       <c r="B36" s="20"/>
       <c r="C36" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D36" s="75"/>
       <c r="E36" t="s">
@@ -1565,7 +1886,7 @@
       <c r="A37" s="18"/>
       <c r="B37" s="20"/>
       <c r="C37" s="20" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D37" s="75"/>
       <c r="E37" t="s">
@@ -1576,10 +1897,10 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="71"/>
+      <c r="A38" s="18"/>
       <c r="B38" s="20"/>
       <c r="C38" s="20" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D38" s="75"/>
       <c r="E38" t="s">
@@ -1590,42 +1911,42 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B39" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C39" s="23" t="s">
-        <v>83</v>
+      <c r="A39" s="18"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20" t="s">
+        <v>89</v>
       </c>
       <c r="D39" s="75"/>
       <c r="E39" t="s">
-        <v>155</v>
+        <v>72</v>
       </c>
       <c r="F39" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="24"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="23" t="s">
-        <v>84</v>
+      <c r="A40" s="71"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20" t="s">
+        <v>90</v>
       </c>
       <c r="D40" s="75"/>
       <c r="E40" t="s">
-        <v>155</v>
+        <v>72</v>
       </c>
       <c r="F40" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="24"/>
-      <c r="B41" s="22"/>
+      <c r="A41" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>82</v>
+      </c>
       <c r="C41" s="23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D41" s="75"/>
       <c r="E41" t="s">
@@ -1639,7 +1960,7 @@
       <c r="A42" s="24"/>
       <c r="B42" s="22"/>
       <c r="C42" s="23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D42" s="75"/>
       <c r="E42" t="s">
@@ -1650,16 +1971,44 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="36"/>
+      <c r="A43" s="24"/>
       <c r="B43" s="22"/>
       <c r="C43" s="23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D43" s="75"/>
       <c r="E43" t="s">
         <v>155</v>
       </c>
       <c r="F43" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="24"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" s="75"/>
+      <c r="E44" t="s">
+        <v>155</v>
+      </c>
+      <c r="F44" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="36"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D45" s="75"/>
+      <c r="E45" t="s">
+        <v>155</v>
+      </c>
+      <c r="F45" t="s">
         <v>156</v>
       </c>
     </row>
@@ -1670,21 +2019,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E2940CB-9910-40F3-B196-B478C6ED3C8D}">
   <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.08984375" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" customWidth="1"/>
     <col min="2" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="21.6328125" customWidth="1"/>
-    <col min="5" max="5" width="26.08984375" customWidth="1"/>
+    <col min="4" max="4" width="21.54296875" customWidth="1"/>
+    <col min="5" max="5" width="26.1796875" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="9.08984375" style="32"/>
+    <col min="7" max="7" width="8.7265625" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -1708,6 +2057,1783 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="84" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="85"/>
+      <c r="C2" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="87" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="72"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="84"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="89" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="90" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="90" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="72"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="84"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="89" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="90" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="90" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="90" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="72"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="84"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="89" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="90" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="90" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="90" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="72"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="84"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="89" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="72"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="84"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="89" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="90" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="90" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="72"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="84"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="89" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="90" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" s="90" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8" s="90" t="s">
+        <v>119</v>
+      </c>
+      <c r="G8" s="72"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="84"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="89" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="90" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="90" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" s="90" t="s">
+        <v>119</v>
+      </c>
+      <c r="G9" s="72"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="93" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="73" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="72"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="94"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="93" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="72"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="94"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="93" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="72"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="94"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="93" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="72"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="94"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="93" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="72"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="96" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="97" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="98" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="72"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="99"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="98" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="72"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="101"/>
+      <c r="B17" s="97" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="72"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="102" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="103" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="104" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="105" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="105" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="105" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="72"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="106"/>
+      <c r="B19" s="107"/>
+      <c r="C19" s="104" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="105" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="105" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="105" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="72"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="106"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="104" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="105" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="105" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="105" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="72"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="106"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="104" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="105" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="105" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="105" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="72"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="106"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="104" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="105" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="105" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="105" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="72"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="106"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="104" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="105" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="105" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="105" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="72"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="106"/>
+      <c r="B24" s="107"/>
+      <c r="C24" s="104" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="105" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="105" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="105" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="72"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="106"/>
+      <c r="B25" s="133" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="134" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="135" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="135" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="135" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="72"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="106"/>
+      <c r="B26" s="136"/>
+      <c r="C26" s="134" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="135" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="135" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="135" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="72"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="106"/>
+      <c r="B27" s="136"/>
+      <c r="C27" s="134" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="135" t="s">
+        <v>123</v>
+      </c>
+      <c r="E27" s="135" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="135" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="72"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="106"/>
+      <c r="B28" s="136"/>
+      <c r="C28" s="134" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="135" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="135" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="135" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="72"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="106"/>
+      <c r="B29" s="136"/>
+      <c r="C29" s="134" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="135" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="135" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="135" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="72"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="106"/>
+      <c r="B30" s="136"/>
+      <c r="C30" s="134" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="135" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="135" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="135" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="72"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="106"/>
+      <c r="B31" s="136"/>
+      <c r="C31" s="134" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="135" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="135" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="135" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="72"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="106"/>
+      <c r="B32" s="136"/>
+      <c r="C32" s="134" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="135" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="135" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" s="135" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="72"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="106"/>
+      <c r="B33" s="136"/>
+      <c r="C33" s="134" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="135" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="135" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" s="135" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="72"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="106"/>
+      <c r="B34" s="136"/>
+      <c r="C34" s="134" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="135" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="135" t="s">
+        <v>53</v>
+      </c>
+      <c r="F34" s="135" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="72"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="106"/>
+      <c r="B35" s="136"/>
+      <c r="C35" s="134" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="135" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="135" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35" s="135" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="72"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="106"/>
+      <c r="B36" s="136"/>
+      <c r="C36" s="134" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="135" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="135" t="s">
+        <v>122</v>
+      </c>
+      <c r="F36" s="135" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="72"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="106"/>
+      <c r="B37" s="136"/>
+      <c r="C37" s="134" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="135" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="135" t="s">
+        <v>122</v>
+      </c>
+      <c r="F37" s="135" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" s="72"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="106"/>
+      <c r="B38" s="136"/>
+      <c r="C38" s="134" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="135" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" s="135" t="s">
+        <v>122</v>
+      </c>
+      <c r="F38" s="135" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="72"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="106"/>
+      <c r="B39" s="136"/>
+      <c r="C39" s="134" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="135" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="135" t="s">
+        <v>122</v>
+      </c>
+      <c r="F39" s="135" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" s="72"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="106"/>
+      <c r="B40" s="136"/>
+      <c r="C40" s="134" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="135" t="s">
+        <v>124</v>
+      </c>
+      <c r="E40" s="135" t="s">
+        <v>122</v>
+      </c>
+      <c r="F40" s="135" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" s="72"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="106"/>
+      <c r="B41" s="136"/>
+      <c r="C41" s="134" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="135" t="s">
+        <v>125</v>
+      </c>
+      <c r="E41" s="135" t="s">
+        <v>122</v>
+      </c>
+      <c r="F41" s="135" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" s="72"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="106"/>
+      <c r="B42" s="136"/>
+      <c r="C42" s="134" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" s="135" t="s">
+        <v>126</v>
+      </c>
+      <c r="E42" s="135" t="s">
+        <v>122</v>
+      </c>
+      <c r="F42" s="135" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="72"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="106"/>
+      <c r="B43" s="136"/>
+      <c r="C43" s="134" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" s="135" t="s">
+        <v>127</v>
+      </c>
+      <c r="E43" s="135" t="s">
+        <v>122</v>
+      </c>
+      <c r="F43" s="135" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="72"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="106"/>
+      <c r="B44" s="136"/>
+      <c r="C44" s="134" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44" s="135" t="s">
+        <v>128</v>
+      </c>
+      <c r="E44" s="135" t="s">
+        <v>122</v>
+      </c>
+      <c r="F44" s="135" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" s="72"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="106"/>
+      <c r="B45" s="136"/>
+      <c r="C45" s="134" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="135" t="s">
+        <v>39</v>
+      </c>
+      <c r="E45" s="135" t="s">
+        <v>122</v>
+      </c>
+      <c r="F45" s="135" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="72"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="106"/>
+      <c r="B46" s="136"/>
+      <c r="C46" s="134" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" s="135" t="s">
+        <v>129</v>
+      </c>
+      <c r="E46" s="135" t="s">
+        <v>122</v>
+      </c>
+      <c r="F46" s="135" t="s">
+        <v>7</v>
+      </c>
+      <c r="G46" s="72"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="106"/>
+      <c r="B47" s="136"/>
+      <c r="C47" s="134" t="s">
+        <v>44</v>
+      </c>
+      <c r="D47" s="135" t="s">
+        <v>130</v>
+      </c>
+      <c r="E47" s="135" t="s">
+        <v>122</v>
+      </c>
+      <c r="F47" s="135" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="72"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="106"/>
+      <c r="B48" s="136"/>
+      <c r="C48" s="134" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" s="135" t="s">
+        <v>131</v>
+      </c>
+      <c r="E48" s="135" t="s">
+        <v>122</v>
+      </c>
+      <c r="F48" s="135" t="s">
+        <v>7</v>
+      </c>
+      <c r="G48" s="72"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="106"/>
+      <c r="B49" s="136"/>
+      <c r="C49" s="134" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49" s="135" t="s">
+        <v>132</v>
+      </c>
+      <c r="E49" s="135" t="s">
+        <v>122</v>
+      </c>
+      <c r="F49" s="135" t="s">
+        <v>7</v>
+      </c>
+      <c r="G49" s="72"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="106"/>
+      <c r="B50" s="136"/>
+      <c r="C50" s="134" t="s">
+        <v>44</v>
+      </c>
+      <c r="D50" s="135" t="s">
+        <v>133</v>
+      </c>
+      <c r="E50" s="135" t="s">
+        <v>122</v>
+      </c>
+      <c r="F50" s="135" t="s">
+        <v>7</v>
+      </c>
+      <c r="G50" s="72"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="106"/>
+      <c r="B51" s="136"/>
+      <c r="C51" s="134" t="s">
+        <v>44</v>
+      </c>
+      <c r="D51" s="135" t="s">
+        <v>134</v>
+      </c>
+      <c r="E51" s="135" t="s">
+        <v>122</v>
+      </c>
+      <c r="F51" s="135" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" s="72"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="106"/>
+      <c r="B52" s="136"/>
+      <c r="C52" s="134" t="s">
+        <v>44</v>
+      </c>
+      <c r="D52" s="135" t="s">
+        <v>135</v>
+      </c>
+      <c r="E52" s="135" t="s">
+        <v>122</v>
+      </c>
+      <c r="F52" s="135" t="s">
+        <v>7</v>
+      </c>
+      <c r="G52" s="72"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="106"/>
+      <c r="B53" s="136"/>
+      <c r="C53" s="134" t="s">
+        <v>44</v>
+      </c>
+      <c r="D53" s="135" t="s">
+        <v>136</v>
+      </c>
+      <c r="E53" s="135" t="s">
+        <v>122</v>
+      </c>
+      <c r="F53" s="135" t="s">
+        <v>7</v>
+      </c>
+      <c r="G53" s="72"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="106"/>
+      <c r="B54" s="136"/>
+      <c r="C54" s="134" t="s">
+        <v>44</v>
+      </c>
+      <c r="D54" s="135" t="s">
+        <v>137</v>
+      </c>
+      <c r="E54" s="135" t="s">
+        <v>122</v>
+      </c>
+      <c r="F54" s="135" t="s">
+        <v>7</v>
+      </c>
+      <c r="G54" s="72"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="106"/>
+      <c r="B55" s="137"/>
+      <c r="C55" s="134" t="s">
+        <v>44</v>
+      </c>
+      <c r="D55" s="135" t="s">
+        <v>93</v>
+      </c>
+      <c r="E55" s="135" t="s">
+        <v>122</v>
+      </c>
+      <c r="F55" s="135" t="s">
+        <v>7</v>
+      </c>
+      <c r="G55" s="72"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="106"/>
+      <c r="B56" s="108" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56" s="105" t="s">
+        <v>60</v>
+      </c>
+      <c r="D56" s="105" t="s">
+        <v>61</v>
+      </c>
+      <c r="E56" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="F56" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" s="72"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="106"/>
+      <c r="B57" s="109"/>
+      <c r="C57" s="105" t="s">
+        <v>60</v>
+      </c>
+      <c r="D57" s="105" t="s">
+        <v>138</v>
+      </c>
+      <c r="E57" s="105" t="s">
+        <v>138</v>
+      </c>
+      <c r="F57" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="72"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="110"/>
+      <c r="B58" s="111"/>
+      <c r="C58" s="105" t="s">
+        <v>60</v>
+      </c>
+      <c r="D58" s="105" t="s">
+        <v>139</v>
+      </c>
+      <c r="E58" s="105" t="s">
+        <v>139</v>
+      </c>
+      <c r="F58" s="105" t="s">
+        <v>7</v>
+      </c>
+      <c r="G58" s="72"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="112" t="s">
+        <v>95</v>
+      </c>
+      <c r="B59" s="113" t="s">
+        <v>97</v>
+      </c>
+      <c r="C59" s="114" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="115" t="s">
+        <v>63</v>
+      </c>
+      <c r="E59" s="115" t="s">
+        <v>98</v>
+      </c>
+      <c r="F59" s="115" t="s">
+        <v>67</v>
+      </c>
+      <c r="G59" s="72"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" s="116"/>
+      <c r="B60" s="113"/>
+      <c r="C60" s="114" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="115" t="s">
+        <v>64</v>
+      </c>
+      <c r="E60" s="115" t="s">
+        <v>64</v>
+      </c>
+      <c r="F60" s="115" t="s">
+        <v>67</v>
+      </c>
+      <c r="G60" s="72"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" s="116"/>
+      <c r="B61" s="117"/>
+      <c r="C61" s="114" t="s">
+        <v>65</v>
+      </c>
+      <c r="D61" s="115" t="s">
+        <v>96</v>
+      </c>
+      <c r="E61" s="115" t="s">
+        <v>98</v>
+      </c>
+      <c r="F61" s="115" t="s">
+        <v>67</v>
+      </c>
+      <c r="G61" s="72"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" s="118" t="s">
+        <v>112</v>
+      </c>
+      <c r="B62" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="C62" s="120" t="s">
+        <v>27</v>
+      </c>
+      <c r="D62" s="121" t="s">
+        <v>66</v>
+      </c>
+      <c r="E62" s="121" t="s">
+        <v>66</v>
+      </c>
+      <c r="F62" s="121" t="s">
+        <v>67</v>
+      </c>
+      <c r="G62" s="72"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" s="122"/>
+      <c r="B63" s="119"/>
+      <c r="C63" s="120" t="s">
+        <v>27</v>
+      </c>
+      <c r="D63" s="121" t="s">
+        <v>66</v>
+      </c>
+      <c r="E63" s="121" t="s">
+        <v>66</v>
+      </c>
+      <c r="F63" s="121" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="72"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" s="122"/>
+      <c r="B64" s="119"/>
+      <c r="C64" s="120" t="s">
+        <v>27</v>
+      </c>
+      <c r="D64" s="121" t="s">
+        <v>68</v>
+      </c>
+      <c r="E64" s="121" t="s">
+        <v>68</v>
+      </c>
+      <c r="F64" s="121" t="s">
+        <v>67</v>
+      </c>
+      <c r="G64" s="72"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" s="122"/>
+      <c r="B65" s="119"/>
+      <c r="C65" s="120" t="s">
+        <v>27</v>
+      </c>
+      <c r="D65" s="121" t="s">
+        <v>68</v>
+      </c>
+      <c r="E65" s="121" t="s">
+        <v>68</v>
+      </c>
+      <c r="F65" s="121" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="72"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" s="122"/>
+      <c r="B66" s="119"/>
+      <c r="C66" s="120" t="s">
+        <v>27</v>
+      </c>
+      <c r="D66" s="121" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="121" t="s">
+        <v>69</v>
+      </c>
+      <c r="F66" s="121" t="s">
+        <v>67</v>
+      </c>
+      <c r="G66" s="72"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" s="123"/>
+      <c r="B67" s="119"/>
+      <c r="C67" s="120" t="s">
+        <v>27</v>
+      </c>
+      <c r="D67" s="121" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="121" t="s">
+        <v>69</v>
+      </c>
+      <c r="F67" s="121" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="72"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" s="123"/>
+      <c r="B68" s="119"/>
+      <c r="C68" s="120" t="s">
+        <v>27</v>
+      </c>
+      <c r="D68" s="121" t="s">
+        <v>70</v>
+      </c>
+      <c r="E68" s="121" t="s">
+        <v>70</v>
+      </c>
+      <c r="F68" s="121" t="s">
+        <v>67</v>
+      </c>
+      <c r="G68" s="72"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" s="122"/>
+      <c r="B69" s="119"/>
+      <c r="C69" s="120" t="s">
+        <v>27</v>
+      </c>
+      <c r="D69" s="121" t="s">
+        <v>70</v>
+      </c>
+      <c r="E69" s="121" t="s">
+        <v>70</v>
+      </c>
+      <c r="F69" s="121" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" s="72"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" s="122"/>
+      <c r="B70" s="119"/>
+      <c r="C70" s="120" t="s">
+        <v>27</v>
+      </c>
+      <c r="D70" s="121" t="s">
+        <v>71</v>
+      </c>
+      <c r="E70" s="121" t="s">
+        <v>71</v>
+      </c>
+      <c r="F70" s="121" t="s">
+        <v>67</v>
+      </c>
+      <c r="G70" s="72"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" s="122"/>
+      <c r="B71" s="119"/>
+      <c r="C71" s="120" t="s">
+        <v>27</v>
+      </c>
+      <c r="D71" s="121" t="s">
+        <v>71</v>
+      </c>
+      <c r="E71" s="121" t="s">
+        <v>71</v>
+      </c>
+      <c r="F71" s="121" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" s="72"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72" s="122"/>
+      <c r="B72" s="119"/>
+      <c r="C72" s="120" t="s">
+        <v>72</v>
+      </c>
+      <c r="D72" s="121" t="s">
+        <v>73</v>
+      </c>
+      <c r="E72" s="121" t="s">
+        <v>68</v>
+      </c>
+      <c r="F72" s="121" t="s">
+        <v>67</v>
+      </c>
+      <c r="G72" s="72"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" s="122"/>
+      <c r="B73" s="119"/>
+      <c r="C73" s="120" t="s">
+        <v>72</v>
+      </c>
+      <c r="D73" s="121" t="s">
+        <v>73</v>
+      </c>
+      <c r="E73" s="121" t="s">
+        <v>68</v>
+      </c>
+      <c r="F73" s="121" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" s="72"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" s="122"/>
+      <c r="B74" s="119"/>
+      <c r="C74" s="120" t="s">
+        <v>72</v>
+      </c>
+      <c r="D74" s="121" t="s">
+        <v>74</v>
+      </c>
+      <c r="E74" s="121" t="s">
+        <v>74</v>
+      </c>
+      <c r="F74" s="121" t="s">
+        <v>67</v>
+      </c>
+      <c r="G74" s="72"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75" s="122"/>
+      <c r="B75" s="119"/>
+      <c r="C75" s="120" t="s">
+        <v>72</v>
+      </c>
+      <c r="D75" s="121" t="s">
+        <v>74</v>
+      </c>
+      <c r="E75" s="121" t="s">
+        <v>74</v>
+      </c>
+      <c r="F75" s="121" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" s="72"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76" s="122"/>
+      <c r="B76" s="119"/>
+      <c r="C76" s="120" t="s">
+        <v>72</v>
+      </c>
+      <c r="D76" s="121" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="121" t="s">
+        <v>69</v>
+      </c>
+      <c r="F76" s="121" t="s">
+        <v>67</v>
+      </c>
+      <c r="G76" s="72"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77" s="122"/>
+      <c r="B77" s="119"/>
+      <c r="C77" s="120" t="s">
+        <v>72</v>
+      </c>
+      <c r="D77" s="121" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="121" t="s">
+        <v>69</v>
+      </c>
+      <c r="F77" s="121" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" s="72"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78" s="122"/>
+      <c r="B78" s="119"/>
+      <c r="C78" s="120" t="s">
+        <v>72</v>
+      </c>
+      <c r="D78" s="121" t="s">
+        <v>66</v>
+      </c>
+      <c r="E78" s="121" t="s">
+        <v>66</v>
+      </c>
+      <c r="F78" s="121" t="s">
+        <v>67</v>
+      </c>
+      <c r="G78" s="72"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79" s="122"/>
+      <c r="B79" s="119"/>
+      <c r="C79" s="120" t="s">
+        <v>72</v>
+      </c>
+      <c r="D79" s="121" t="s">
+        <v>66</v>
+      </c>
+      <c r="E79" s="121" t="s">
+        <v>66</v>
+      </c>
+      <c r="F79" s="121" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="72"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80" s="122"/>
+      <c r="B80" s="119"/>
+      <c r="C80" s="120" t="s">
+        <v>72</v>
+      </c>
+      <c r="D80" s="121" t="s">
+        <v>70</v>
+      </c>
+      <c r="E80" s="121" t="s">
+        <v>70</v>
+      </c>
+      <c r="F80" s="121" t="s">
+        <v>67</v>
+      </c>
+      <c r="G80" s="72"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" s="122"/>
+      <c r="B81" s="119"/>
+      <c r="C81" s="120" t="s">
+        <v>72</v>
+      </c>
+      <c r="D81" s="121" t="s">
+        <v>70</v>
+      </c>
+      <c r="E81" s="121" t="s">
+        <v>70</v>
+      </c>
+      <c r="F81" s="121" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="72"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" s="122"/>
+      <c r="B82" s="119"/>
+      <c r="C82" s="120" t="s">
+        <v>72</v>
+      </c>
+      <c r="D82" s="121" t="s">
+        <v>75</v>
+      </c>
+      <c r="E82" s="121" t="s">
+        <v>75</v>
+      </c>
+      <c r="F82" s="121" t="s">
+        <v>67</v>
+      </c>
+      <c r="G82" s="72"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83" s="122"/>
+      <c r="B83" s="119"/>
+      <c r="C83" s="120" t="s">
+        <v>72</v>
+      </c>
+      <c r="D83" s="121" t="s">
+        <v>75</v>
+      </c>
+      <c r="E83" s="121" t="s">
+        <v>75</v>
+      </c>
+      <c r="F83" s="121" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="72"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84" s="122"/>
+      <c r="B84" s="119"/>
+      <c r="C84" s="120" t="s">
+        <v>72</v>
+      </c>
+      <c r="D84" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="E84" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="F84" s="121" t="s">
+        <v>67</v>
+      </c>
+      <c r="G84" s="72"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85" s="122"/>
+      <c r="B85" s="119"/>
+      <c r="C85" s="120" t="s">
+        <v>72</v>
+      </c>
+      <c r="D85" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="E85" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="F85" s="121" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="72"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86" s="122"/>
+      <c r="B86" s="119"/>
+      <c r="C86" s="120" t="s">
+        <v>72</v>
+      </c>
+      <c r="D86" s="121" t="s">
+        <v>77</v>
+      </c>
+      <c r="E86" s="121" t="s">
+        <v>77</v>
+      </c>
+      <c r="F86" s="121" t="s">
+        <v>67</v>
+      </c>
+      <c r="G86" s="72"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87" s="122"/>
+      <c r="B87" s="119"/>
+      <c r="C87" s="120" t="s">
+        <v>72</v>
+      </c>
+      <c r="D87" s="121" t="s">
+        <v>77</v>
+      </c>
+      <c r="E87" s="121" t="s">
+        <v>77</v>
+      </c>
+      <c r="F87" s="121" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="72"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88" s="122"/>
+      <c r="B88" s="119"/>
+      <c r="C88" s="120" t="s">
+        <v>72</v>
+      </c>
+      <c r="D88" s="121" t="s">
+        <v>78</v>
+      </c>
+      <c r="E88" s="121" t="s">
+        <v>78</v>
+      </c>
+      <c r="F88" s="121" t="s">
+        <v>67</v>
+      </c>
+      <c r="G88" s="72"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89" s="122"/>
+      <c r="B89" s="119"/>
+      <c r="C89" s="120" t="s">
+        <v>72</v>
+      </c>
+      <c r="D89" s="121" t="s">
+        <v>78</v>
+      </c>
+      <c r="E89" s="121" t="s">
+        <v>78</v>
+      </c>
+      <c r="F89" s="121" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="72"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90" s="122"/>
+      <c r="B90" s="119"/>
+      <c r="C90" s="120" t="s">
+        <v>72</v>
+      </c>
+      <c r="D90" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="E90" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="F90" s="121" t="s">
+        <v>67</v>
+      </c>
+      <c r="G90" s="72"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91" s="122"/>
+      <c r="B91" s="119"/>
+      <c r="C91" s="120" t="s">
+        <v>72</v>
+      </c>
+      <c r="D91" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="E91" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="F91" s="121" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="72"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A92" s="122"/>
+      <c r="B92" s="119"/>
+      <c r="C92" s="120" t="s">
+        <v>72</v>
+      </c>
+      <c r="D92" s="121" t="s">
+        <v>80</v>
+      </c>
+      <c r="E92" s="121" t="s">
+        <v>89</v>
+      </c>
+      <c r="F92" s="121" t="s">
+        <v>67</v>
+      </c>
+      <c r="G92" s="72"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A93" s="122"/>
+      <c r="B93" s="119"/>
+      <c r="C93" s="120" t="s">
+        <v>72</v>
+      </c>
+      <c r="D93" s="121" t="s">
+        <v>80</v>
+      </c>
+      <c r="E93" s="121" t="s">
+        <v>89</v>
+      </c>
+      <c r="F93" s="121" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="72"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A94" s="122"/>
+      <c r="B94" s="119"/>
+      <c r="C94" s="120" t="s">
+        <v>72</v>
+      </c>
+      <c r="D94" s="121" t="s">
+        <v>81</v>
+      </c>
+      <c r="E94" s="121" t="s">
+        <v>90</v>
+      </c>
+      <c r="F94" s="121" t="s">
+        <v>67</v>
+      </c>
+      <c r="G94" s="72"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A95" s="122"/>
+      <c r="B95" s="119"/>
+      <c r="C95" s="120" t="s">
+        <v>72</v>
+      </c>
+      <c r="D95" s="121" t="s">
+        <v>81</v>
+      </c>
+      <c r="E95" s="121" t="s">
+        <v>90</v>
+      </c>
+      <c r="F95" s="121" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="72"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A96" s="124" t="s">
+        <v>82</v>
+      </c>
+      <c r="B96" s="125" t="s">
+        <v>82</v>
+      </c>
+      <c r="C96" s="126" t="s">
+        <v>27</v>
+      </c>
+      <c r="D96" s="127" t="s">
+        <v>83</v>
+      </c>
+      <c r="E96" s="127" t="s">
+        <v>83</v>
+      </c>
+      <c r="F96" s="128" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="72"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A97" s="129"/>
+      <c r="B97" s="130"/>
+      <c r="C97" s="126" t="s">
+        <v>27</v>
+      </c>
+      <c r="D97" s="127" t="s">
+        <v>84</v>
+      </c>
+      <c r="E97" s="127" t="s">
+        <v>84</v>
+      </c>
+      <c r="F97" s="128" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="72"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A98" s="129"/>
+      <c r="B98" s="130"/>
+      <c r="C98" s="126" t="s">
+        <v>27</v>
+      </c>
+      <c r="D98" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="E98" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="F98" s="128" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="72"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A99" s="129"/>
+      <c r="B99" s="130"/>
+      <c r="C99" s="126" t="s">
+        <v>27</v>
+      </c>
+      <c r="D99" s="127" t="s">
+        <v>86</v>
+      </c>
+      <c r="E99" s="127" t="s">
+        <v>86</v>
+      </c>
+      <c r="F99" s="128" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="72"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A100" s="131"/>
+      <c r="B100" s="132"/>
+      <c r="C100" s="126" t="s">
+        <v>27</v>
+      </c>
+      <c r="D100" s="127" t="s">
+        <v>87</v>
+      </c>
+      <c r="E100" s="127" t="s">
+        <v>87</v>
+      </c>
+      <c r="F100" s="128" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="72"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106" s="33" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B56:B58"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G106"/>
+  <sheetViews>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.1796875" customWidth="1"/>
+    <col min="2" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="21.54296875" customWidth="1"/>
+    <col min="5" max="5" width="26.1796875" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="54" t="s">
         <v>4</v>
       </c>
@@ -2645,7 +4771,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="38"/>
-      <c r="B56" s="76" t="s">
+      <c r="B56" s="81" t="s">
         <v>59</v>
       </c>
       <c r="C56" s="5" t="s">
@@ -2664,7 +4790,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="38"/>
-      <c r="B57" s="77"/>
+      <c r="B57" s="82"/>
       <c r="C57" s="5" t="s">
         <v>60</v>
       </c>
@@ -2681,7 +4807,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="10"/>
-      <c r="B58" s="78"/>
+      <c r="B58" s="83"/>
       <c r="C58" s="5" t="s">
         <v>60</v>
       </c>

--- a/data/infrastructure/Supplementary table overview infra types.xlsx
+++ b/data/infrastructure/Supplementary table overview infra types.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\gmhcira\data\infrastructure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4889E9-4453-481E-A892-6C242C0A463D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8B3293-1F57-44C7-91E3-B223F5C13EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Infrastructure categorization" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="183">
   <si>
     <t>Key</t>
   </si>
@@ -464,9 +464,6 @@
     <t>reclassify as desired</t>
   </si>
   <si>
-    <t>&lt; check with Evelyn whether this is correct</t>
-  </si>
-  <si>
     <t>Vulnerability curves</t>
   </si>
   <si>
@@ -488,9 +485,6 @@
     <t>Check with Evelyn</t>
   </si>
   <si>
-    <t>does not contain other linestrings such as subways, trams, monorails etc. Only rails that are defined as 'Full sized passenger or freight train tracks in the standard gauge for the country or state.' Or does it contain everyhting 'railway'?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Do we want to consider airports (=aerodromes) or specific elements of airport such as runways and terminals (such as done in the storyline pape/RECEIPT deliverables)? </t>
   </si>
   <si>
@@ -573,6 +567,15 @@
   </si>
   <si>
     <t>Use voltage?</t>
+  </si>
+  <si>
+    <t>contains rail', tram, subway, narrow_gauge, light_rail, station, platform, stop, tram_stop, signal, switch</t>
+  </si>
+  <si>
+    <t>Discuss with Elco</t>
+  </si>
+  <si>
+    <t>Might be interesting to include light_rail, funicular, monorail (assume no damage), narrow_gauge, subway (look for vulnerability curves!), tram. Or just stick to national freight and passenger lines for now?</t>
   </si>
 </sst>
 </file>
@@ -841,7 +844,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -929,15 +932,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -964,16 +958,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -995,11 +980,25 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1283,8 +1282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1314,13 +1313,16 @@
         <v>142</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>147</v>
+      <c r="J1" s="1" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -1338,10 +1340,10 @@
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -1366,10 +1368,10 @@
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -1405,24 +1407,24 @@
         <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="14"/>
       <c r="B8" s="2"/>
       <c r="C8" s="80" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D8" s="75"/>
       <c r="E8" t="s">
         <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -1436,7 +1438,7 @@
         <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -1451,16 +1453,16 @@
       </c>
       <c r="D10" s="75"/>
       <c r="E10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -1471,13 +1473,13 @@
       </c>
       <c r="D11" s="79"/>
       <c r="E11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
@@ -1488,36 +1490,36 @@
       </c>
       <c r="D12" s="75"/>
       <c r="E12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F12" t="s">
+        <v>164</v>
+      </c>
+      <c r="G12" t="s">
+        <v>165</v>
+      </c>
+      <c r="I12" t="s">
         <v>166</v>
-      </c>
-      <c r="G12" t="s">
-        <v>167</v>
-      </c>
-      <c r="I12" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="12"/>
       <c r="B13" s="3"/>
       <c r="C13" s="78" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D13" s="77"/>
       <c r="E13" t="s">
+        <v>161</v>
+      </c>
+      <c r="F13" t="s">
         <v>163</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>165</v>
       </c>
-      <c r="G13" t="s">
-        <v>167</v>
-      </c>
       <c r="I13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -1528,19 +1530,19 @@
       </c>
       <c r="D14" s="75"/>
       <c r="E14" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G14" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
@@ -1550,11 +1552,11 @@
         <v>23</v>
       </c>
       <c r="D15" s="76"/>
-      <c r="E15" t="s">
-        <v>161</v>
-      </c>
       <c r="I15" t="s">
-        <v>168</v>
+        <v>166</v>
+      </c>
+      <c r="J15" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
@@ -1568,22 +1570,22 @@
         <v>26</v>
       </c>
       <c r="D16" s="76"/>
-      <c r="E16" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="11"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
         <v>103</v>
       </c>
       <c r="D17" s="76"/>
-      <c r="E17" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="11"/>
       <c r="B18" s="4" t="s">
         <v>30</v>
@@ -1593,10 +1595,10 @@
       </c>
       <c r="D18" s="77"/>
       <c r="E18" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>33</v>
       </c>
@@ -1610,17 +1612,17 @@
       <c r="E19" t="s">
         <v>36</v>
       </c>
-      <c r="F19" t="s">
-        <v>153</v>
-      </c>
-      <c r="G19" t="s">
-        <v>145</v>
+      <c r="F19" s="133" t="s">
+        <v>180</v>
       </c>
       <c r="I19" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+        <v>147</v>
+      </c>
+      <c r="J19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="10"/>
       <c r="B20" s="5" t="s">
         <v>140</v>
@@ -1628,85 +1630,91 @@
       <c r="C20" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="75"/>
-      <c r="E20" t="s">
+      <c r="D20" s="77"/>
+      <c r="E20" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="77" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G20" s="77"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="75"/>
-      <c r="E21" t="s">
+      <c r="D21" s="77"/>
+      <c r="E21" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="77" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G21" s="77"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="10"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="75"/>
-      <c r="E22" t="s">
+      <c r="D22" s="77"/>
+      <c r="E22" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="77" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G22" s="77"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="10"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="75"/>
-      <c r="E23" t="s">
+      <c r="D23" s="77"/>
+      <c r="E23" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="77" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G23" s="77"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="10"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="75"/>
-      <c r="E24" t="s">
+      <c r="D24" s="77"/>
+      <c r="E24" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="77" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G24" s="77"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="10"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D25" s="75"/>
-      <c r="E25" t="s">
+      <c r="D25" s="77"/>
+      <c r="E25" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="77" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G25" s="77"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="10"/>
       <c r="B26" s="5" t="s">
         <v>59</v>
@@ -1716,19 +1724,19 @@
       </c>
       <c r="D26" s="75"/>
       <c r="E26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F26" t="s">
         <v>149</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>150</v>
       </c>
-      <c r="G26" t="s">
-        <v>151</v>
-      </c>
       <c r="H26" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="16" t="s">
         <v>95</v>
       </c>
@@ -1740,16 +1748,16 @@
       </c>
       <c r="D27" s="75"/>
       <c r="E27" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F27" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G27" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="28"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15" t="s">
@@ -1757,16 +1765,16 @@
       </c>
       <c r="D28" s="75"/>
       <c r="E28" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F28" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G28" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="17" t="s">
         <v>102</v>
       </c>
@@ -1781,10 +1789,10 @@
         <v>72</v>
       </c>
       <c r="F29" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="18"/>
       <c r="B30" s="20"/>
       <c r="C30" s="20" t="s">
@@ -1795,10 +1803,10 @@
         <v>72</v>
       </c>
       <c r="F30" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="18"/>
       <c r="B31" s="20"/>
       <c r="C31" s="20" t="s">
@@ -1809,10 +1817,10 @@
         <v>72</v>
       </c>
       <c r="F31" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="18"/>
       <c r="B32" s="20"/>
       <c r="C32" s="20" t="s">
@@ -1823,7 +1831,7 @@
         <v>72</v>
       </c>
       <c r="F32" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
@@ -1837,7 +1845,7 @@
         <v>72</v>
       </c>
       <c r="F33" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
@@ -1851,7 +1859,7 @@
         <v>72</v>
       </c>
       <c r="F34" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
@@ -1865,7 +1873,7 @@
         <v>72</v>
       </c>
       <c r="F35" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
@@ -1879,7 +1887,7 @@
         <v>72</v>
       </c>
       <c r="F36" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
@@ -1893,7 +1901,7 @@
         <v>72</v>
       </c>
       <c r="F37" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
@@ -1907,7 +1915,7 @@
         <v>72</v>
       </c>
       <c r="F38" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
@@ -1921,7 +1929,7 @@
         <v>72</v>
       </c>
       <c r="F39" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
@@ -1935,7 +1943,7 @@
         <v>72</v>
       </c>
       <c r="F40" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
@@ -1950,10 +1958,10 @@
       </c>
       <c r="D41" s="75"/>
       <c r="E41" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F41" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
@@ -1964,10 +1972,10 @@
       </c>
       <c r="D42" s="75"/>
       <c r="E42" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F42" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
@@ -1978,10 +1986,10 @@
       </c>
       <c r="D43" s="75"/>
       <c r="E43" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F43" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
@@ -1992,10 +2000,10 @@
       </c>
       <c r="D44" s="75"/>
       <c r="E44" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F44" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
@@ -2006,10 +2014,10 @@
       </c>
       <c r="D45" s="75"/>
       <c r="E45" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F45" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2022,8 +2030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E2940CB-9910-40F3-B196-B478C6ED3C8D}">
   <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2057,151 +2065,151 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="86" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="87" t="s">
+      <c r="D2" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="87" t="s">
+      <c r="E2" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="87" t="s">
+      <c r="F2" s="84" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="72"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="84"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="89" t="s">
+      <c r="A3" s="81"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="90" t="s">
+      <c r="D3" s="87" t="s">
         <v>111</v>
       </c>
-      <c r="E3" s="90" t="s">
+      <c r="E3" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="90" t="s">
+      <c r="F3" s="87" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="72"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="84"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="89" t="s">
+      <c r="A4" s="81"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="90" t="s">
+      <c r="D4" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="90" t="s">
+      <c r="E4" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="90" t="s">
+      <c r="F4" s="87" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="72"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="84"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="89" t="s">
+      <c r="A5" s="81"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="90" t="s">
+      <c r="D5" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="90" t="s">
+      <c r="E5" s="87" t="s">
         <v>110</v>
       </c>
-      <c r="F5" s="90" t="s">
+      <c r="F5" s="87" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="72"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="84"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="89" t="s">
+      <c r="A6" s="81"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="90" t="s">
+      <c r="D6" s="87" t="s">
         <v>108</v>
       </c>
-      <c r="E6" s="90" t="s">
+      <c r="E6" s="87" t="s">
         <v>108</v>
       </c>
-      <c r="F6" s="90" t="s">
+      <c r="F6" s="87" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="72"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="84"/>
-      <c r="B7" s="88"/>
-      <c r="C7" s="89" t="s">
+      <c r="A7" s="81"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="90" t="s">
+      <c r="D7" s="87" t="s">
         <v>109</v>
       </c>
-      <c r="E7" s="90" t="s">
+      <c r="E7" s="87" t="s">
         <v>109</v>
       </c>
-      <c r="F7" s="90" t="s">
+      <c r="F7" s="87" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="72"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="84"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="89" t="s">
+      <c r="A8" s="81"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="90" t="s">
+      <c r="D8" s="87" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="90" t="s">
+      <c r="E8" s="87" t="s">
         <v>117</v>
       </c>
-      <c r="F8" s="90" t="s">
+      <c r="F8" s="87" t="s">
         <v>119</v>
       </c>
       <c r="G8" s="72"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="84"/>
-      <c r="B9" s="87"/>
-      <c r="C9" s="89" t="s">
+      <c r="A9" s="81"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="90" t="s">
+      <c r="D9" s="87" t="s">
         <v>120</v>
       </c>
-      <c r="E9" s="90" t="s">
+      <c r="E9" s="87" t="s">
         <v>118</v>
       </c>
-      <c r="F9" s="90" t="s">
+      <c r="F9" s="87" t="s">
         <v>119</v>
       </c>
       <c r="G9" s="72"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="91" t="s">
+      <c r="A10" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="92" t="s">
+      <c r="B10" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="93" t="s">
+      <c r="C10" s="90" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="73" t="s">
@@ -2216,9 +2224,9 @@
       <c r="G10" s="72"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="94"/>
-      <c r="B11" s="92"/>
-      <c r="C11" s="93" t="s">
+      <c r="A11" s="91"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="90" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="73" t="s">
@@ -2233,9 +2241,9 @@
       <c r="G11" s="72"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="94"/>
-      <c r="B12" s="92"/>
-      <c r="C12" s="93" t="s">
+      <c r="A12" s="91"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="90" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="73" t="s">
@@ -2250,9 +2258,9 @@
       <c r="G12" s="72"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="94"/>
-      <c r="B13" s="92"/>
-      <c r="C13" s="93" t="s">
+      <c r="A13" s="91"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="90" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="73" t="s">
@@ -2267,9 +2275,9 @@
       <c r="G13" s="72"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="94"/>
-      <c r="B14" s="95"/>
-      <c r="C14" s="93" t="s">
+      <c r="A14" s="91"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="90" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="73" t="s">
@@ -2284,13 +2292,13 @@
       <c r="G14" s="72"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="96" t="s">
+      <c r="A15" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="97" t="s">
+      <c r="B15" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="98" t="s">
+      <c r="C15" s="95" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="74" t="s">
@@ -2305,9 +2313,9 @@
       <c r="G15" s="72"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="99"/>
-      <c r="B16" s="100"/>
-      <c r="C16" s="98" t="s">
+      <c r="A16" s="96"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="95" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="74" t="s">
@@ -2322,8 +2330,8 @@
       <c r="G16" s="72"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="101"/>
-      <c r="B17" s="97" t="s">
+      <c r="A17" s="98"/>
+      <c r="B17" s="94" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="74" t="s">
@@ -2341,1432 +2349,1432 @@
       <c r="G17" s="72"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="102" t="s">
+      <c r="A18" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="103" t="s">
+      <c r="B18" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="104" t="s">
+      <c r="C18" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="105" t="s">
+      <c r="D18" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="105" t="s">
+      <c r="E18" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="105" t="s">
+      <c r="F18" s="102" t="s">
         <v>7</v>
       </c>
       <c r="G18" s="72"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="106"/>
-      <c r="B19" s="107"/>
-      <c r="C19" s="104" t="s">
+      <c r="A19" s="103"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="105" t="s">
+      <c r="D19" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="105" t="s">
+      <c r="E19" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="105" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="72"/>
+      <c r="F19" s="102" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="133"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="106"/>
-      <c r="B20" s="107"/>
-      <c r="C20" s="104" t="s">
+      <c r="A20" s="103"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="105" t="s">
+      <c r="D20" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="105" t="s">
+      <c r="E20" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="105" t="s">
+      <c r="F20" s="102" t="s">
         <v>7</v>
       </c>
       <c r="G20" s="72"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="106"/>
-      <c r="B21" s="107"/>
-      <c r="C21" s="104" t="s">
+      <c r="A21" s="103"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="105" t="s">
+      <c r="D21" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="105" t="s">
+      <c r="E21" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="105" t="s">
+      <c r="F21" s="102" t="s">
         <v>7</v>
       </c>
       <c r="G21" s="72"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="106"/>
-      <c r="B22" s="107"/>
-      <c r="C22" s="104" t="s">
+      <c r="A22" s="103"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="105" t="s">
+      <c r="D22" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="105" t="s">
+      <c r="E22" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="F22" s="105" t="s">
+      <c r="F22" s="102" t="s">
         <v>7</v>
       </c>
       <c r="G22" s="72"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="106"/>
-      <c r="B23" s="107"/>
-      <c r="C23" s="104" t="s">
+      <c r="A23" s="103"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="105" t="s">
+      <c r="D23" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="105" t="s">
+      <c r="E23" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="F23" s="105" t="s">
+      <c r="F23" s="102" t="s">
         <v>7</v>
       </c>
       <c r="G23" s="72"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="106"/>
-      <c r="B24" s="107"/>
-      <c r="C24" s="104" t="s">
+      <c r="A24" s="103"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="105" t="s">
+      <c r="D24" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="105" t="s">
+      <c r="E24" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="F24" s="105" t="s">
+      <c r="F24" s="102" t="s">
         <v>7</v>
       </c>
       <c r="G24" s="72"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="106"/>
-      <c r="B25" s="133" t="s">
+      <c r="A25" s="103"/>
+      <c r="B25" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="134" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="135" t="s">
+      <c r="C25" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="135" t="s">
+      <c r="E25" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="135" t="s">
+      <c r="F25" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G25" s="72"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="106"/>
-      <c r="B26" s="136"/>
-      <c r="C26" s="134" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="135" t="s">
+      <c r="A26" s="103"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="135" t="s">
+      <c r="E26" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F26" s="135" t="s">
+      <c r="F26" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G26" s="72"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="106"/>
-      <c r="B27" s="136"/>
-      <c r="C27" s="134" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="135" t="s">
+      <c r="A27" s="103"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="E27" s="135" t="s">
+      <c r="E27" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F27" s="135" t="s">
+      <c r="F27" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G27" s="72"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="106"/>
-      <c r="B28" s="136"/>
-      <c r="C28" s="134" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="135" t="s">
+      <c r="A28" s="103"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="135" t="s">
+      <c r="E28" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="135" t="s">
+      <c r="F28" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G28" s="72"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="106"/>
-      <c r="B29" s="136"/>
-      <c r="C29" s="134" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="135" t="s">
+      <c r="A29" s="103"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="135" t="s">
+      <c r="E29" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F29" s="135" t="s">
+      <c r="F29" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G29" s="72"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="106"/>
-      <c r="B30" s="136"/>
-      <c r="C30" s="134" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="135" t="s">
+      <c r="A30" s="103"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E30" s="135" t="s">
+      <c r="E30" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F30" s="135" t="s">
+      <c r="F30" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G30" s="72"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="106"/>
-      <c r="B31" s="136"/>
-      <c r="C31" s="134" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" s="135" t="s">
+      <c r="A31" s="103"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E31" s="135" t="s">
+      <c r="E31" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F31" s="135" t="s">
+      <c r="F31" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G31" s="72"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="106"/>
-      <c r="B32" s="136"/>
-      <c r="C32" s="134" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="135" t="s">
+      <c r="A32" s="103"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E32" s="135" t="s">
+      <c r="E32" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F32" s="135" t="s">
+      <c r="F32" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G32" s="72"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="106"/>
-      <c r="B33" s="136"/>
-      <c r="C33" s="134" t="s">
-        <v>44</v>
-      </c>
-      <c r="D33" s="135" t="s">
+      <c r="A33" s="103"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E33" s="135" t="s">
+      <c r="E33" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F33" s="135" t="s">
+      <c r="F33" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G33" s="72"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="106"/>
-      <c r="B34" s="136"/>
-      <c r="C34" s="134" t="s">
-        <v>44</v>
-      </c>
-      <c r="D34" s="135" t="s">
+      <c r="A34" s="103"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="135" t="s">
+      <c r="E34" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F34" s="135" t="s">
+      <c r="F34" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G34" s="72"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="106"/>
-      <c r="B35" s="136"/>
-      <c r="C35" s="134" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35" s="135" t="s">
+      <c r="A35" s="103"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E35" s="135" t="s">
+      <c r="E35" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F35" s="135" t="s">
+      <c r="F35" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G35" s="72"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="106"/>
-      <c r="B36" s="136"/>
-      <c r="C36" s="134" t="s">
-        <v>44</v>
-      </c>
-      <c r="D36" s="135" t="s">
+      <c r="A36" s="103"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E36" s="135" t="s">
+      <c r="E36" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F36" s="135" t="s">
+      <c r="F36" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G36" s="72"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="106"/>
-      <c r="B37" s="136"/>
-      <c r="C37" s="134" t="s">
-        <v>44</v>
-      </c>
-      <c r="D37" s="135" t="s">
+      <c r="A37" s="103"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E37" s="135" t="s">
+      <c r="E37" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F37" s="135" t="s">
+      <c r="F37" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G37" s="72"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="106"/>
-      <c r="B38" s="136"/>
-      <c r="C38" s="134" t="s">
-        <v>44</v>
-      </c>
-      <c r="D38" s="135" t="s">
+      <c r="A38" s="103"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E38" s="135" t="s">
+      <c r="E38" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F38" s="135" t="s">
+      <c r="F38" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G38" s="72"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="106"/>
-      <c r="B39" s="136"/>
-      <c r="C39" s="134" t="s">
-        <v>44</v>
-      </c>
-      <c r="D39" s="135" t="s">
+      <c r="A39" s="103"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E39" s="135" t="s">
+      <c r="E39" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F39" s="135" t="s">
+      <c r="F39" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G39" s="72"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="106"/>
-      <c r="B40" s="136"/>
-      <c r="C40" s="134" t="s">
-        <v>44</v>
-      </c>
-      <c r="D40" s="135" t="s">
+      <c r="A40" s="103"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E40" s="135" t="s">
+      <c r="E40" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F40" s="135" t="s">
+      <c r="F40" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G40" s="72"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="106"/>
-      <c r="B41" s="136"/>
-      <c r="C41" s="134" t="s">
-        <v>44</v>
-      </c>
-      <c r="D41" s="135" t="s">
+      <c r="A41" s="103"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E41" s="135" t="s">
+      <c r="E41" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F41" s="135" t="s">
+      <c r="F41" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G41" s="72"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="106"/>
-      <c r="B42" s="136"/>
-      <c r="C42" s="134" t="s">
-        <v>44</v>
-      </c>
-      <c r="D42" s="135" t="s">
+      <c r="A42" s="103"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="E42" s="135" t="s">
+      <c r="E42" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F42" s="135" t="s">
+      <c r="F42" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G42" s="72"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="106"/>
-      <c r="B43" s="136"/>
-      <c r="C43" s="134" t="s">
-        <v>44</v>
-      </c>
-      <c r="D43" s="135" t="s">
+      <c r="A43" s="103"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="E43" s="135" t="s">
+      <c r="E43" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F43" s="135" t="s">
+      <c r="F43" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G43" s="72"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="106"/>
-      <c r="B44" s="136"/>
-      <c r="C44" s="134" t="s">
-        <v>44</v>
-      </c>
-      <c r="D44" s="135" t="s">
+      <c r="A44" s="103"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E44" s="135" t="s">
+      <c r="E44" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F44" s="135" t="s">
+      <c r="F44" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G44" s="72"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="106"/>
-      <c r="B45" s="136"/>
-      <c r="C45" s="134" t="s">
-        <v>44</v>
-      </c>
-      <c r="D45" s="135" t="s">
+      <c r="A45" s="103"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E45" s="135" t="s">
+      <c r="E45" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F45" s="135" t="s">
+      <c r="F45" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G45" s="72"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="106"/>
-      <c r="B46" s="136"/>
-      <c r="C46" s="134" t="s">
-        <v>44</v>
-      </c>
-      <c r="D46" s="135" t="s">
+      <c r="A46" s="103"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E46" s="135" t="s">
+      <c r="E46" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F46" s="135" t="s">
+      <c r="F46" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G46" s="72"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" s="106"/>
-      <c r="B47" s="136"/>
-      <c r="C47" s="134" t="s">
-        <v>44</v>
-      </c>
-      <c r="D47" s="135" t="s">
+      <c r="A47" s="103"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="E47" s="135" t="s">
+      <c r="E47" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F47" s="135" t="s">
+      <c r="F47" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G47" s="72"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="106"/>
-      <c r="B48" s="136"/>
-      <c r="C48" s="134" t="s">
-        <v>44</v>
-      </c>
-      <c r="D48" s="135" t="s">
+      <c r="A48" s="103"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="E48" s="135" t="s">
+      <c r="E48" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F48" s="135" t="s">
+      <c r="F48" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G48" s="72"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" s="106"/>
-      <c r="B49" s="136"/>
-      <c r="C49" s="134" t="s">
-        <v>44</v>
-      </c>
-      <c r="D49" s="135" t="s">
+      <c r="A49" s="103"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="E49" s="135" t="s">
+      <c r="E49" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F49" s="135" t="s">
+      <c r="F49" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G49" s="72"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" s="106"/>
-      <c r="B50" s="136"/>
-      <c r="C50" s="134" t="s">
-        <v>44</v>
-      </c>
-      <c r="D50" s="135" t="s">
+      <c r="A50" s="103"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="E50" s="135" t="s">
+      <c r="E50" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F50" s="135" t="s">
+      <c r="F50" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G50" s="72"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" s="106"/>
-      <c r="B51" s="136"/>
-      <c r="C51" s="134" t="s">
-        <v>44</v>
-      </c>
-      <c r="D51" s="135" t="s">
+      <c r="A51" s="103"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="E51" s="135" t="s">
+      <c r="E51" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F51" s="135" t="s">
+      <c r="F51" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G51" s="72"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" s="106"/>
-      <c r="B52" s="136"/>
-      <c r="C52" s="134" t="s">
-        <v>44</v>
-      </c>
-      <c r="D52" s="135" t="s">
+      <c r="A52" s="103"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="E52" s="135" t="s">
+      <c r="E52" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F52" s="135" t="s">
+      <c r="F52" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G52" s="72"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53" s="106"/>
-      <c r="B53" s="136"/>
-      <c r="C53" s="134" t="s">
-        <v>44</v>
-      </c>
-      <c r="D53" s="135" t="s">
+      <c r="A53" s="103"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="E53" s="135" t="s">
+      <c r="E53" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F53" s="135" t="s">
+      <c r="F53" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G53" s="72"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" s="106"/>
-      <c r="B54" s="136"/>
-      <c r="C54" s="134" t="s">
-        <v>44</v>
-      </c>
-      <c r="D54" s="135" t="s">
+      <c r="A54" s="103"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E54" s="135" t="s">
+      <c r="E54" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F54" s="135" t="s">
+      <c r="F54" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G54" s="72"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" s="106"/>
-      <c r="B55" s="137"/>
-      <c r="C55" s="134" t="s">
-        <v>44</v>
-      </c>
-      <c r="D55" s="135" t="s">
+      <c r="A55" s="103"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D55" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E55" s="135" t="s">
+      <c r="E55" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F55" s="135" t="s">
+      <c r="F55" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G55" s="72"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" s="106"/>
-      <c r="B56" s="108" t="s">
+      <c r="A56" s="103"/>
+      <c r="B56" s="127" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="105" t="s">
+      <c r="C56" s="102" t="s">
         <v>60</v>
       </c>
-      <c r="D56" s="105" t="s">
+      <c r="D56" s="102" t="s">
         <v>61</v>
       </c>
-      <c r="E56" s="105" t="s">
+      <c r="E56" s="102" t="s">
         <v>62</v>
       </c>
-      <c r="F56" s="105" t="s">
+      <c r="F56" s="102" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="72"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57" s="106"/>
-      <c r="B57" s="109"/>
-      <c r="C57" s="105" t="s">
+      <c r="A57" s="103"/>
+      <c r="B57" s="128"/>
+      <c r="C57" s="102" t="s">
         <v>60</v>
       </c>
-      <c r="D57" s="105" t="s">
+      <c r="D57" s="102" t="s">
         <v>138</v>
       </c>
-      <c r="E57" s="105" t="s">
+      <c r="E57" s="102" t="s">
         <v>138</v>
       </c>
-      <c r="F57" s="105" t="s">
+      <c r="F57" s="102" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="72"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" s="110"/>
-      <c r="B58" s="111"/>
-      <c r="C58" s="105" t="s">
+      <c r="A58" s="105"/>
+      <c r="B58" s="129"/>
+      <c r="C58" s="102" t="s">
         <v>60</v>
       </c>
-      <c r="D58" s="105" t="s">
+      <c r="D58" s="102" t="s">
         <v>139</v>
       </c>
-      <c r="E58" s="105" t="s">
+      <c r="E58" s="102" t="s">
         <v>139</v>
       </c>
-      <c r="F58" s="105" t="s">
+      <c r="F58" s="102" t="s">
         <v>7</v>
       </c>
       <c r="G58" s="72"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" s="112" t="s">
+      <c r="A59" s="106" t="s">
         <v>95</v>
       </c>
-      <c r="B59" s="113" t="s">
+      <c r="B59" s="107" t="s">
         <v>97</v>
       </c>
-      <c r="C59" s="114" t="s">
+      <c r="C59" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="D59" s="115" t="s">
+      <c r="D59" s="109" t="s">
         <v>63</v>
       </c>
-      <c r="E59" s="115" t="s">
+      <c r="E59" s="109" t="s">
         <v>98</v>
       </c>
-      <c r="F59" s="115" t="s">
+      <c r="F59" s="109" t="s">
         <v>67</v>
       </c>
       <c r="G59" s="72"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60" s="116"/>
-      <c r="B60" s="113"/>
-      <c r="C60" s="114" t="s">
+      <c r="A60" s="110"/>
+      <c r="B60" s="107"/>
+      <c r="C60" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="D60" s="115" t="s">
+      <c r="D60" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="E60" s="115" t="s">
+      <c r="E60" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="F60" s="115" t="s">
+      <c r="F60" s="109" t="s">
         <v>67</v>
       </c>
       <c r="G60" s="72"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61" s="116"/>
-      <c r="B61" s="117"/>
-      <c r="C61" s="114" t="s">
+      <c r="A61" s="110"/>
+      <c r="B61" s="111"/>
+      <c r="C61" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="D61" s="115" t="s">
+      <c r="D61" s="109" t="s">
         <v>96</v>
       </c>
-      <c r="E61" s="115" t="s">
+      <c r="E61" s="109" t="s">
         <v>98</v>
       </c>
-      <c r="F61" s="115" t="s">
+      <c r="F61" s="109" t="s">
         <v>67</v>
       </c>
       <c r="G61" s="72"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" s="118" t="s">
+      <c r="A62" s="112" t="s">
         <v>112</v>
       </c>
-      <c r="B62" s="119" t="s">
+      <c r="B62" s="113" t="s">
         <v>116</v>
       </c>
-      <c r="C62" s="120" t="s">
+      <c r="C62" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="D62" s="121" t="s">
+      <c r="D62" s="115" t="s">
         <v>66</v>
       </c>
-      <c r="E62" s="121" t="s">
+      <c r="E62" s="115" t="s">
         <v>66</v>
       </c>
-      <c r="F62" s="121" t="s">
+      <c r="F62" s="115" t="s">
         <v>67</v>
       </c>
       <c r="G62" s="72"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A63" s="122"/>
-      <c r="B63" s="119"/>
-      <c r="C63" s="120" t="s">
+      <c r="A63" s="116"/>
+      <c r="B63" s="113"/>
+      <c r="C63" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="D63" s="121" t="s">
+      <c r="D63" s="115" t="s">
         <v>66</v>
       </c>
-      <c r="E63" s="121" t="s">
+      <c r="E63" s="115" t="s">
         <v>66</v>
       </c>
-      <c r="F63" s="121" t="s">
+      <c r="F63" s="115" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="72"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A64" s="122"/>
-      <c r="B64" s="119"/>
-      <c r="C64" s="120" t="s">
+      <c r="A64" s="116"/>
+      <c r="B64" s="113"/>
+      <c r="C64" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="D64" s="121" t="s">
+      <c r="D64" s="115" t="s">
         <v>68</v>
       </c>
-      <c r="E64" s="121" t="s">
+      <c r="E64" s="115" t="s">
         <v>68</v>
       </c>
-      <c r="F64" s="121" t="s">
+      <c r="F64" s="115" t="s">
         <v>67</v>
       </c>
       <c r="G64" s="72"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" s="122"/>
-      <c r="B65" s="119"/>
-      <c r="C65" s="120" t="s">
+      <c r="A65" s="116"/>
+      <c r="B65" s="113"/>
+      <c r="C65" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="D65" s="121" t="s">
+      <c r="D65" s="115" t="s">
         <v>68</v>
       </c>
-      <c r="E65" s="121" t="s">
+      <c r="E65" s="115" t="s">
         <v>68</v>
       </c>
-      <c r="F65" s="121" t="s">
+      <c r="F65" s="115" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="72"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" s="122"/>
-      <c r="B66" s="119"/>
-      <c r="C66" s="120" t="s">
+      <c r="A66" s="116"/>
+      <c r="B66" s="113"/>
+      <c r="C66" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="121" t="s">
+      <c r="D66" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="E66" s="121" t="s">
+      <c r="E66" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="F66" s="121" t="s">
+      <c r="F66" s="115" t="s">
         <v>67</v>
       </c>
       <c r="G66" s="72"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" s="123"/>
-      <c r="B67" s="119"/>
-      <c r="C67" s="120" t="s">
+      <c r="A67" s="117"/>
+      <c r="B67" s="113"/>
+      <c r="C67" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="D67" s="121" t="s">
+      <c r="D67" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="E67" s="121" t="s">
+      <c r="E67" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="F67" s="121" t="s">
+      <c r="F67" s="115" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="72"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" s="123"/>
-      <c r="B68" s="119"/>
-      <c r="C68" s="120" t="s">
+      <c r="A68" s="117"/>
+      <c r="B68" s="113"/>
+      <c r="C68" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="D68" s="121" t="s">
+      <c r="D68" s="115" t="s">
         <v>70</v>
       </c>
-      <c r="E68" s="121" t="s">
+      <c r="E68" s="115" t="s">
         <v>70</v>
       </c>
-      <c r="F68" s="121" t="s">
+      <c r="F68" s="115" t="s">
         <v>67</v>
       </c>
       <c r="G68" s="72"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A69" s="122"/>
-      <c r="B69" s="119"/>
-      <c r="C69" s="120" t="s">
+      <c r="A69" s="116"/>
+      <c r="B69" s="113"/>
+      <c r="C69" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="D69" s="121" t="s">
+      <c r="D69" s="115" t="s">
         <v>70</v>
       </c>
-      <c r="E69" s="121" t="s">
+      <c r="E69" s="115" t="s">
         <v>70</v>
       </c>
-      <c r="F69" s="121" t="s">
+      <c r="F69" s="115" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="72"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70" s="122"/>
-      <c r="B70" s="119"/>
-      <c r="C70" s="120" t="s">
+      <c r="A70" s="116"/>
+      <c r="B70" s="113"/>
+      <c r="C70" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="D70" s="121" t="s">
+      <c r="D70" s="115" t="s">
         <v>71</v>
       </c>
-      <c r="E70" s="121" t="s">
+      <c r="E70" s="115" t="s">
         <v>71</v>
       </c>
-      <c r="F70" s="121" t="s">
+      <c r="F70" s="115" t="s">
         <v>67</v>
       </c>
       <c r="G70" s="72"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A71" s="122"/>
-      <c r="B71" s="119"/>
-      <c r="C71" s="120" t="s">
+      <c r="A71" s="116"/>
+      <c r="B71" s="113"/>
+      <c r="C71" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="D71" s="121" t="s">
+      <c r="D71" s="115" t="s">
         <v>71</v>
       </c>
-      <c r="E71" s="121" t="s">
+      <c r="E71" s="115" t="s">
         <v>71</v>
       </c>
-      <c r="F71" s="121" t="s">
+      <c r="F71" s="115" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="72"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A72" s="122"/>
-      <c r="B72" s="119"/>
-      <c r="C72" s="120" t="s">
-        <v>72</v>
-      </c>
-      <c r="D72" s="121" t="s">
+      <c r="A72" s="116"/>
+      <c r="B72" s="113"/>
+      <c r="C72" s="114" t="s">
+        <v>72</v>
+      </c>
+      <c r="D72" s="115" t="s">
         <v>73</v>
       </c>
-      <c r="E72" s="121" t="s">
+      <c r="E72" s="115" t="s">
         <v>68</v>
       </c>
-      <c r="F72" s="121" t="s">
+      <c r="F72" s="115" t="s">
         <v>67</v>
       </c>
       <c r="G72" s="72"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A73" s="122"/>
-      <c r="B73" s="119"/>
-      <c r="C73" s="120" t="s">
-        <v>72</v>
-      </c>
-      <c r="D73" s="121" t="s">
+      <c r="A73" s="116"/>
+      <c r="B73" s="113"/>
+      <c r="C73" s="114" t="s">
+        <v>72</v>
+      </c>
+      <c r="D73" s="115" t="s">
         <v>73</v>
       </c>
-      <c r="E73" s="121" t="s">
+      <c r="E73" s="115" t="s">
         <v>68</v>
       </c>
-      <c r="F73" s="121" t="s">
+      <c r="F73" s="115" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="72"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" s="122"/>
-      <c r="B74" s="119"/>
-      <c r="C74" s="120" t="s">
-        <v>72</v>
-      </c>
-      <c r="D74" s="121" t="s">
+      <c r="A74" s="116"/>
+      <c r="B74" s="113"/>
+      <c r="C74" s="114" t="s">
+        <v>72</v>
+      </c>
+      <c r="D74" s="115" t="s">
         <v>74</v>
       </c>
-      <c r="E74" s="121" t="s">
+      <c r="E74" s="115" t="s">
         <v>74</v>
       </c>
-      <c r="F74" s="121" t="s">
+      <c r="F74" s="115" t="s">
         <v>67</v>
       </c>
       <c r="G74" s="72"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A75" s="122"/>
-      <c r="B75" s="119"/>
-      <c r="C75" s="120" t="s">
-        <v>72</v>
-      </c>
-      <c r="D75" s="121" t="s">
+      <c r="A75" s="116"/>
+      <c r="B75" s="113"/>
+      <c r="C75" s="114" t="s">
+        <v>72</v>
+      </c>
+      <c r="D75" s="115" t="s">
         <v>74</v>
       </c>
-      <c r="E75" s="121" t="s">
+      <c r="E75" s="115" t="s">
         <v>74</v>
       </c>
-      <c r="F75" s="121" t="s">
+      <c r="F75" s="115" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="72"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A76" s="122"/>
-      <c r="B76" s="119"/>
-      <c r="C76" s="120" t="s">
-        <v>72</v>
-      </c>
-      <c r="D76" s="121" t="s">
+      <c r="A76" s="116"/>
+      <c r="B76" s="113"/>
+      <c r="C76" s="114" t="s">
+        <v>72</v>
+      </c>
+      <c r="D76" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="E76" s="121" t="s">
+      <c r="E76" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="F76" s="121" t="s">
+      <c r="F76" s="115" t="s">
         <v>67</v>
       </c>
       <c r="G76" s="72"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A77" s="122"/>
-      <c r="B77" s="119"/>
-      <c r="C77" s="120" t="s">
-        <v>72</v>
-      </c>
-      <c r="D77" s="121" t="s">
+      <c r="A77" s="116"/>
+      <c r="B77" s="113"/>
+      <c r="C77" s="114" t="s">
+        <v>72</v>
+      </c>
+      <c r="D77" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="E77" s="121" t="s">
+      <c r="E77" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="F77" s="121" t="s">
+      <c r="F77" s="115" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="72"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" s="122"/>
-      <c r="B78" s="119"/>
-      <c r="C78" s="120" t="s">
-        <v>72</v>
-      </c>
-      <c r="D78" s="121" t="s">
+      <c r="A78" s="116"/>
+      <c r="B78" s="113"/>
+      <c r="C78" s="114" t="s">
+        <v>72</v>
+      </c>
+      <c r="D78" s="115" t="s">
         <v>66</v>
       </c>
-      <c r="E78" s="121" t="s">
+      <c r="E78" s="115" t="s">
         <v>66</v>
       </c>
-      <c r="F78" s="121" t="s">
+      <c r="F78" s="115" t="s">
         <v>67</v>
       </c>
       <c r="G78" s="72"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" s="122"/>
-      <c r="B79" s="119"/>
-      <c r="C79" s="120" t="s">
-        <v>72</v>
-      </c>
-      <c r="D79" s="121" t="s">
+      <c r="A79" s="116"/>
+      <c r="B79" s="113"/>
+      <c r="C79" s="114" t="s">
+        <v>72</v>
+      </c>
+      <c r="D79" s="115" t="s">
         <v>66</v>
       </c>
-      <c r="E79" s="121" t="s">
+      <c r="E79" s="115" t="s">
         <v>66</v>
       </c>
-      <c r="F79" s="121" t="s">
+      <c r="F79" s="115" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="72"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80" s="122"/>
-      <c r="B80" s="119"/>
-      <c r="C80" s="120" t="s">
-        <v>72</v>
-      </c>
-      <c r="D80" s="121" t="s">
+      <c r="A80" s="116"/>
+      <c r="B80" s="113"/>
+      <c r="C80" s="114" t="s">
+        <v>72</v>
+      </c>
+      <c r="D80" s="115" t="s">
         <v>70</v>
       </c>
-      <c r="E80" s="121" t="s">
+      <c r="E80" s="115" t="s">
         <v>70</v>
       </c>
-      <c r="F80" s="121" t="s">
+      <c r="F80" s="115" t="s">
         <v>67</v>
       </c>
       <c r="G80" s="72"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" s="122"/>
-      <c r="B81" s="119"/>
-      <c r="C81" s="120" t="s">
-        <v>72</v>
-      </c>
-      <c r="D81" s="121" t="s">
+      <c r="A81" s="116"/>
+      <c r="B81" s="113"/>
+      <c r="C81" s="114" t="s">
+        <v>72</v>
+      </c>
+      <c r="D81" s="115" t="s">
         <v>70</v>
       </c>
-      <c r="E81" s="121" t="s">
+      <c r="E81" s="115" t="s">
         <v>70</v>
       </c>
-      <c r="F81" s="121" t="s">
+      <c r="F81" s="115" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="72"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" s="122"/>
-      <c r="B82" s="119"/>
-      <c r="C82" s="120" t="s">
-        <v>72</v>
-      </c>
-      <c r="D82" s="121" t="s">
+      <c r="A82" s="116"/>
+      <c r="B82" s="113"/>
+      <c r="C82" s="114" t="s">
+        <v>72</v>
+      </c>
+      <c r="D82" s="115" t="s">
         <v>75</v>
       </c>
-      <c r="E82" s="121" t="s">
+      <c r="E82" s="115" t="s">
         <v>75</v>
       </c>
-      <c r="F82" s="121" t="s">
+      <c r="F82" s="115" t="s">
         <v>67</v>
       </c>
       <c r="G82" s="72"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A83" s="122"/>
-      <c r="B83" s="119"/>
-      <c r="C83" s="120" t="s">
-        <v>72</v>
-      </c>
-      <c r="D83" s="121" t="s">
+      <c r="A83" s="116"/>
+      <c r="B83" s="113"/>
+      <c r="C83" s="114" t="s">
+        <v>72</v>
+      </c>
+      <c r="D83" s="115" t="s">
         <v>75</v>
       </c>
-      <c r="E83" s="121" t="s">
+      <c r="E83" s="115" t="s">
         <v>75</v>
       </c>
-      <c r="F83" s="121" t="s">
+      <c r="F83" s="115" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="72"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A84" s="122"/>
-      <c r="B84" s="119"/>
-      <c r="C84" s="120" t="s">
-        <v>72</v>
-      </c>
-      <c r="D84" s="121" t="s">
+      <c r="A84" s="116"/>
+      <c r="B84" s="113"/>
+      <c r="C84" s="114" t="s">
+        <v>72</v>
+      </c>
+      <c r="D84" s="115" t="s">
         <v>76</v>
       </c>
-      <c r="E84" s="121" t="s">
+      <c r="E84" s="115" t="s">
         <v>76</v>
       </c>
-      <c r="F84" s="121" t="s">
+      <c r="F84" s="115" t="s">
         <v>67</v>
       </c>
       <c r="G84" s="72"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A85" s="122"/>
-      <c r="B85" s="119"/>
-      <c r="C85" s="120" t="s">
-        <v>72</v>
-      </c>
-      <c r="D85" s="121" t="s">
+      <c r="A85" s="116"/>
+      <c r="B85" s="113"/>
+      <c r="C85" s="114" t="s">
+        <v>72</v>
+      </c>
+      <c r="D85" s="115" t="s">
         <v>76</v>
       </c>
-      <c r="E85" s="121" t="s">
+      <c r="E85" s="115" t="s">
         <v>76</v>
       </c>
-      <c r="F85" s="121" t="s">
+      <c r="F85" s="115" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="72"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A86" s="122"/>
-      <c r="B86" s="119"/>
-      <c r="C86" s="120" t="s">
-        <v>72</v>
-      </c>
-      <c r="D86" s="121" t="s">
+      <c r="A86" s="116"/>
+      <c r="B86" s="113"/>
+      <c r="C86" s="114" t="s">
+        <v>72</v>
+      </c>
+      <c r="D86" s="115" t="s">
         <v>77</v>
       </c>
-      <c r="E86" s="121" t="s">
+      <c r="E86" s="115" t="s">
         <v>77</v>
       </c>
-      <c r="F86" s="121" t="s">
+      <c r="F86" s="115" t="s">
         <v>67</v>
       </c>
       <c r="G86" s="72"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A87" s="122"/>
-      <c r="B87" s="119"/>
-      <c r="C87" s="120" t="s">
-        <v>72</v>
-      </c>
-      <c r="D87" s="121" t="s">
+      <c r="A87" s="116"/>
+      <c r="B87" s="113"/>
+      <c r="C87" s="114" t="s">
+        <v>72</v>
+      </c>
+      <c r="D87" s="115" t="s">
         <v>77</v>
       </c>
-      <c r="E87" s="121" t="s">
+      <c r="E87" s="115" t="s">
         <v>77</v>
       </c>
-      <c r="F87" s="121" t="s">
+      <c r="F87" s="115" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="72"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A88" s="122"/>
-      <c r="B88" s="119"/>
-      <c r="C88" s="120" t="s">
-        <v>72</v>
-      </c>
-      <c r="D88" s="121" t="s">
+      <c r="A88" s="116"/>
+      <c r="B88" s="113"/>
+      <c r="C88" s="114" t="s">
+        <v>72</v>
+      </c>
+      <c r="D88" s="115" t="s">
         <v>78</v>
       </c>
-      <c r="E88" s="121" t="s">
+      <c r="E88" s="115" t="s">
         <v>78</v>
       </c>
-      <c r="F88" s="121" t="s">
+      <c r="F88" s="115" t="s">
         <v>67</v>
       </c>
       <c r="G88" s="72"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A89" s="122"/>
-      <c r="B89" s="119"/>
-      <c r="C89" s="120" t="s">
-        <v>72</v>
-      </c>
-      <c r="D89" s="121" t="s">
+      <c r="A89" s="116"/>
+      <c r="B89" s="113"/>
+      <c r="C89" s="114" t="s">
+        <v>72</v>
+      </c>
+      <c r="D89" s="115" t="s">
         <v>78</v>
       </c>
-      <c r="E89" s="121" t="s">
+      <c r="E89" s="115" t="s">
         <v>78</v>
       </c>
-      <c r="F89" s="121" t="s">
+      <c r="F89" s="115" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="72"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A90" s="122"/>
-      <c r="B90" s="119"/>
-      <c r="C90" s="120" t="s">
-        <v>72</v>
-      </c>
-      <c r="D90" s="121" t="s">
+      <c r="A90" s="116"/>
+      <c r="B90" s="113"/>
+      <c r="C90" s="114" t="s">
+        <v>72</v>
+      </c>
+      <c r="D90" s="115" t="s">
         <v>79</v>
       </c>
-      <c r="E90" s="121" t="s">
+      <c r="E90" s="115" t="s">
         <v>79</v>
       </c>
-      <c r="F90" s="121" t="s">
+      <c r="F90" s="115" t="s">
         <v>67</v>
       </c>
       <c r="G90" s="72"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A91" s="122"/>
-      <c r="B91" s="119"/>
-      <c r="C91" s="120" t="s">
-        <v>72</v>
-      </c>
-      <c r="D91" s="121" t="s">
+      <c r="A91" s="116"/>
+      <c r="B91" s="113"/>
+      <c r="C91" s="114" t="s">
+        <v>72</v>
+      </c>
+      <c r="D91" s="115" t="s">
         <v>79</v>
       </c>
-      <c r="E91" s="121" t="s">
+      <c r="E91" s="115" t="s">
         <v>79</v>
       </c>
-      <c r="F91" s="121" t="s">
+      <c r="F91" s="115" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="72"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A92" s="122"/>
-      <c r="B92" s="119"/>
-      <c r="C92" s="120" t="s">
-        <v>72</v>
-      </c>
-      <c r="D92" s="121" t="s">
+      <c r="A92" s="116"/>
+      <c r="B92" s="113"/>
+      <c r="C92" s="114" t="s">
+        <v>72</v>
+      </c>
+      <c r="D92" s="115" t="s">
         <v>80</v>
       </c>
-      <c r="E92" s="121" t="s">
+      <c r="E92" s="115" t="s">
         <v>89</v>
       </c>
-      <c r="F92" s="121" t="s">
+      <c r="F92" s="115" t="s">
         <v>67</v>
       </c>
       <c r="G92" s="72"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A93" s="122"/>
-      <c r="B93" s="119"/>
-      <c r="C93" s="120" t="s">
-        <v>72</v>
-      </c>
-      <c r="D93" s="121" t="s">
+      <c r="A93" s="116"/>
+      <c r="B93" s="113"/>
+      <c r="C93" s="114" t="s">
+        <v>72</v>
+      </c>
+      <c r="D93" s="115" t="s">
         <v>80</v>
       </c>
-      <c r="E93" s="121" t="s">
+      <c r="E93" s="115" t="s">
         <v>89</v>
       </c>
-      <c r="F93" s="121" t="s">
+      <c r="F93" s="115" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="72"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A94" s="122"/>
-      <c r="B94" s="119"/>
-      <c r="C94" s="120" t="s">
-        <v>72</v>
-      </c>
-      <c r="D94" s="121" t="s">
+      <c r="A94" s="116"/>
+      <c r="B94" s="113"/>
+      <c r="C94" s="114" t="s">
+        <v>72</v>
+      </c>
+      <c r="D94" s="115" t="s">
         <v>81</v>
       </c>
-      <c r="E94" s="121" t="s">
+      <c r="E94" s="115" t="s">
         <v>90</v>
       </c>
-      <c r="F94" s="121" t="s">
+      <c r="F94" s="115" t="s">
         <v>67</v>
       </c>
       <c r="G94" s="72"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A95" s="122"/>
-      <c r="B95" s="119"/>
-      <c r="C95" s="120" t="s">
-        <v>72</v>
-      </c>
-      <c r="D95" s="121" t="s">
+      <c r="A95" s="116"/>
+      <c r="B95" s="113"/>
+      <c r="C95" s="114" t="s">
+        <v>72</v>
+      </c>
+      <c r="D95" s="115" t="s">
         <v>81</v>
       </c>
-      <c r="E95" s="121" t="s">
+      <c r="E95" s="115" t="s">
         <v>90</v>
       </c>
-      <c r="F95" s="121" t="s">
+      <c r="F95" s="115" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="72"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A96" s="124" t="s">
+      <c r="A96" s="118" t="s">
         <v>82</v>
       </c>
-      <c r="B96" s="125" t="s">
+      <c r="B96" s="119" t="s">
         <v>82</v>
       </c>
-      <c r="C96" s="126" t="s">
+      <c r="C96" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="D96" s="127" t="s">
+      <c r="D96" s="121" t="s">
         <v>83</v>
       </c>
-      <c r="E96" s="127" t="s">
+      <c r="E96" s="121" t="s">
         <v>83</v>
       </c>
-      <c r="F96" s="128" t="s">
+      <c r="F96" s="122" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="72"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A97" s="129"/>
-      <c r="B97" s="130"/>
-      <c r="C97" s="126" t="s">
+      <c r="A97" s="123"/>
+      <c r="B97" s="124"/>
+      <c r="C97" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="D97" s="127" t="s">
+      <c r="D97" s="121" t="s">
         <v>84</v>
       </c>
-      <c r="E97" s="127" t="s">
+      <c r="E97" s="121" t="s">
         <v>84</v>
       </c>
-      <c r="F97" s="128" t="s">
+      <c r="F97" s="122" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="72"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A98" s="129"/>
-      <c r="B98" s="130"/>
-      <c r="C98" s="126" t="s">
+      <c r="A98" s="123"/>
+      <c r="B98" s="124"/>
+      <c r="C98" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="D98" s="127" t="s">
+      <c r="D98" s="121" t="s">
         <v>85</v>
       </c>
-      <c r="E98" s="127" t="s">
+      <c r="E98" s="121" t="s">
         <v>85</v>
       </c>
-      <c r="F98" s="128" t="s">
+      <c r="F98" s="122" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="72"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A99" s="129"/>
-      <c r="B99" s="130"/>
-      <c r="C99" s="126" t="s">
+      <c r="A99" s="123"/>
+      <c r="B99" s="124"/>
+      <c r="C99" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="D99" s="127" t="s">
+      <c r="D99" s="121" t="s">
         <v>86</v>
       </c>
-      <c r="E99" s="127" t="s">
+      <c r="E99" s="121" t="s">
         <v>86</v>
       </c>
-      <c r="F99" s="128" t="s">
+      <c r="F99" s="122" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="72"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A100" s="131"/>
-      <c r="B100" s="132"/>
-      <c r="C100" s="126" t="s">
+      <c r="A100" s="125"/>
+      <c r="B100" s="126"/>
+      <c r="C100" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="D100" s="127" t="s">
+      <c r="D100" s="121" t="s">
         <v>87</v>
       </c>
-      <c r="E100" s="127" t="s">
+      <c r="E100" s="121" t="s">
         <v>87</v>
       </c>
-      <c r="F100" s="128" t="s">
+      <c r="F100" s="122" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="72"/>
@@ -3799,7 +3807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -4771,7 +4779,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="38"/>
-      <c r="B56" s="81" t="s">
+      <c r="B56" s="130" t="s">
         <v>59</v>
       </c>
       <c r="C56" s="5" t="s">
@@ -4790,7 +4798,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="38"/>
-      <c r="B57" s="82"/>
+      <c r="B57" s="131"/>
       <c r="C57" s="5" t="s">
         <v>60</v>
       </c>
@@ -4807,7 +4815,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="10"/>
-      <c r="B58" s="83"/>
+      <c r="B58" s="132"/>
       <c r="C58" s="5" t="s">
         <v>60</v>
       </c>

--- a/data/infrastructure/Supplementary table overview infra types.xlsx
+++ b/data/infrastructure/Supplementary table overview infra types.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\gmhcira\data\infrastructure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8B3293-1F57-44C7-91E3-B223F5C13EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF33ECD-3E8F-45CD-82DB-CC675E52393D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Infrastructure categorization" sheetId="1" r:id="rId1"/>
     <sheet name="Key-value &amp; reclassification 1" sheetId="3" r:id="rId2"/>
     <sheet name="Key-value &amp; reclassification" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -476,18 +487,9 @@
     <t>air</t>
   </si>
   <si>
-    <t>does it only extract aerodromes? Or everything aeroway?</t>
-  </si>
-  <si>
-    <t>&lt; check with Evelyn</t>
-  </si>
-  <si>
     <t>Check with Evelyn</t>
   </si>
   <si>
-    <t xml:space="preserve">Do we want to consider airports (=aerodromes) or specific elements of airport such as runways and terminals (such as done in the storyline pape/RECEIPT deliverables)? </t>
-  </si>
-  <si>
     <t>education</t>
   </si>
   <si>
@@ -533,15 +535,9 @@
     <t>&lt; add key value combination man_made x communications_tower? Or is this already included? Consider to adjust extracting code: delete telecom linestrings</t>
   </si>
   <si>
-    <t>water storage tank at altitude - reclassify? Check whether it's always elevated structures or not? If not, then it can be reclassified as storage tanks</t>
-  </si>
-  <si>
     <t>water treatment plant where water is treated to make it suitable for human consumption before being sent to the water network (drinking water)</t>
   </si>
   <si>
-    <t xml:space="preserve">Include this in risk assesement? </t>
-  </si>
-  <si>
     <t xml:space="preserve">Check whether I'd like to do something with the voltage </t>
   </si>
   <si>
@@ -576,13 +572,28 @@
   </si>
   <si>
     <t>Might be interesting to include light_rail, funicular, monorail (assume no damage), narrow_gauge, subway (look for vulnerability curves!), tram. Or just stick to national freight and passenger lines for now?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">terminal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do we want to consider airports (=aerodromes) or specific elements of airport such as runways and terminals (such as done in the storyline paper/RECEIPT deliverables)? </t>
+  </si>
+  <si>
+    <t>Add this to extraction code</t>
+  </si>
+  <si>
+    <t>Additional tags: 'location'=overground, underground, partially_underground. 'material'=main material the storage tank is made of</t>
+  </si>
+  <si>
+    <t>water storage tank at altitude - reclassify? Can be considered as an elevated water storage tank</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -645,6 +656,20 @@
       <u/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -844,7 +869,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -965,21 +990,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -998,7 +1008,24 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1280,10 +1307,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1313,7 +1340,7 @@
         <v>142</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>145</v>
@@ -1322,7 +1349,7 @@
         <v>146</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -1340,10 +1367,10 @@
         <v>5</v>
       </c>
       <c r="H2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I2" t="s">
         <v>171</v>
-      </c>
-      <c r="I2" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -1368,10 +1395,10 @@
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H4" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -1407,24 +1434,24 @@
         <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="14"/>
       <c r="B8" s="2"/>
       <c r="C8" s="80" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D8" s="75"/>
       <c r="E8" t="s">
         <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="J8" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -1438,7 +1465,7 @@
         <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -1453,16 +1480,16 @@
       </c>
       <c r="D10" s="75"/>
       <c r="E10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F10" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="G10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -1473,13 +1500,10 @@
       </c>
       <c r="D11" s="79"/>
       <c r="E11" t="s">
-        <v>161</v>
-      </c>
-      <c r="G11" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="I11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
@@ -1490,36 +1514,36 @@
       </c>
       <c r="D12" s="75"/>
       <c r="E12" t="s">
+        <v>158</v>
+      </c>
+      <c r="F12" t="s">
         <v>161</v>
       </c>
-      <c r="F12" t="s">
-        <v>164</v>
-      </c>
       <c r="G12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="12"/>
       <c r="B13" s="3"/>
       <c r="C13" s="78" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D13" s="77"/>
       <c r="E13" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I13" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -1530,19 +1554,16 @@
       </c>
       <c r="D14" s="75"/>
       <c r="E14" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F14" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G14" t="s">
-        <v>165</v>
-      </c>
-      <c r="H14" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="I14" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
@@ -1553,10 +1574,10 @@
       </c>
       <c r="D15" s="76"/>
       <c r="I15" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J15" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
@@ -1571,7 +1592,7 @@
       </c>
       <c r="D16" s="76"/>
       <c r="J16" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
@@ -1582,7 +1603,7 @@
       </c>
       <c r="D17" s="76"/>
       <c r="J17" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
@@ -1595,7 +1616,7 @@
       </c>
       <c r="D18" s="77"/>
       <c r="E18" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
@@ -1612,14 +1633,14 @@
       <c r="E19" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="133" t="s">
-        <v>180</v>
+      <c r="F19" t="s">
+        <v>175</v>
       </c>
       <c r="I19" t="s">
         <v>147</v>
       </c>
       <c r="J19" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
@@ -1726,298 +1747,314 @@
       <c r="E26" t="s">
         <v>148</v>
       </c>
-      <c r="F26" t="s">
-        <v>149</v>
-      </c>
-      <c r="G26" t="s">
-        <v>150</v>
-      </c>
       <c r="H26" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="10"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="120" t="s">
+        <v>178</v>
+      </c>
+      <c r="D27" s="75"/>
+      <c r="F27" s="119" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="10"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="120" t="s">
+        <v>139</v>
+      </c>
+      <c r="D28" s="75"/>
+      <c r="F28" s="119" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B29" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C29" s="15" t="s">
         <v>101</v>
-      </c>
-      <c r="D27" s="75"/>
-      <c r="E27" t="s">
-        <v>156</v>
-      </c>
-      <c r="F27" t="s">
-        <v>157</v>
-      </c>
-      <c r="G27" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" s="28"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="D28" s="75"/>
-      <c r="E28" t="s">
-        <v>156</v>
-      </c>
-      <c r="F28" t="s">
-        <v>157</v>
-      </c>
-      <c r="G28" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>91</v>
       </c>
       <c r="D29" s="75"/>
       <c r="E29" t="s">
-        <v>72</v>
+        <v>153</v>
       </c>
       <c r="F29" t="s">
-        <v>155</v>
+        <v>154</v>
+      </c>
+      <c r="G29" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" s="18"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20" t="s">
-        <v>68</v>
+      <c r="A30" s="28"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15" t="s">
+        <v>99</v>
       </c>
       <c r="D30" s="75"/>
       <c r="E30" t="s">
-        <v>72</v>
+        <v>153</v>
       </c>
       <c r="F30" t="s">
-        <v>155</v>
+        <v>154</v>
+      </c>
+      <c r="G30" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31" s="18"/>
-      <c r="B31" s="20"/>
+      <c r="A31" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>116</v>
+      </c>
       <c r="C31" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" s="75"/>
-      <c r="E31" t="s">
-        <v>72</v>
-      </c>
-      <c r="F31" t="s">
-        <v>155</v>
+        <v>91</v>
+      </c>
+      <c r="D31" s="77"/>
+      <c r="E31" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31" s="77" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="18"/>
       <c r="B32" s="20"/>
       <c r="C32" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" s="75"/>
-      <c r="E32" t="s">
-        <v>72</v>
-      </c>
-      <c r="F32" t="s">
-        <v>155</v>
+        <v>68</v>
+      </c>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" s="77" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="18"/>
       <c r="B33" s="20"/>
       <c r="C33" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D33" s="75"/>
-      <c r="E33" t="s">
-        <v>72</v>
-      </c>
-      <c r="F33" t="s">
-        <v>155</v>
+        <v>69</v>
+      </c>
+      <c r="D33" s="77"/>
+      <c r="E33" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" s="77" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="26"/>
+      <c r="A34" s="18"/>
       <c r="B34" s="20"/>
       <c r="C34" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D34" s="75"/>
-      <c r="E34" t="s">
-        <v>72</v>
-      </c>
-      <c r="F34" t="s">
-        <v>155</v>
+        <v>70</v>
+      </c>
+      <c r="D34" s="77"/>
+      <c r="E34" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" s="77" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="26"/>
+      <c r="A35" s="18"/>
       <c r="B35" s="20"/>
       <c r="C35" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D35" s="75"/>
-      <c r="E35" t="s">
-        <v>72</v>
-      </c>
-      <c r="F35" t="s">
-        <v>155</v>
+        <v>71</v>
+      </c>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="F35" s="77" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="18"/>
+      <c r="A36" s="26"/>
       <c r="B36" s="20"/>
       <c r="C36" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D36" s="75"/>
-      <c r="E36" t="s">
-        <v>72</v>
-      </c>
-      <c r="F36" t="s">
-        <v>155</v>
+        <v>75</v>
+      </c>
+      <c r="D36" s="77"/>
+      <c r="E36" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="F36" s="77" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="18"/>
+      <c r="A37" s="26"/>
       <c r="B37" s="20"/>
       <c r="C37" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="D37" s="75"/>
-      <c r="E37" t="s">
-        <v>72</v>
-      </c>
-      <c r="F37" t="s">
-        <v>155</v>
+        <v>76</v>
+      </c>
+      <c r="D37" s="77"/>
+      <c r="E37" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" s="77" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="18"/>
       <c r="B38" s="20"/>
       <c r="C38" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D38" s="75"/>
-      <c r="E38" t="s">
-        <v>72</v>
-      </c>
-      <c r="F38" t="s">
-        <v>155</v>
+        <v>77</v>
+      </c>
+      <c r="D38" s="77"/>
+      <c r="E38" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" s="77" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="18"/>
       <c r="B39" s="20"/>
       <c r="C39" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D39" s="75"/>
-      <c r="E39" t="s">
-        <v>72</v>
-      </c>
-      <c r="F39" t="s">
-        <v>155</v>
+        <v>78</v>
+      </c>
+      <c r="D39" s="77"/>
+      <c r="E39" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="F39" s="77" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="71"/>
+      <c r="A40" s="18"/>
       <c r="B40" s="20"/>
       <c r="C40" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" s="77"/>
+      <c r="E40" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="F40" s="77" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="18"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" s="77"/>
+      <c r="E41" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="F41" s="77" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="71"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="D40" s="75"/>
-      <c r="E40" t="s">
-        <v>72</v>
-      </c>
-      <c r="F40" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="21" t="s">
+      <c r="D42" s="77"/>
+      <c r="E42" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="F42" s="77" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="B41" s="22" t="s">
+      <c r="B43" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="C43" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="D41" s="75"/>
-      <c r="E41" t="s">
-        <v>153</v>
-      </c>
-      <c r="F41" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="24"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D42" s="75"/>
-      <c r="E42" t="s">
-        <v>153</v>
-      </c>
-      <c r="F42" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="24"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="D43" s="75"/>
-      <c r="E43" t="s">
-        <v>153</v>
-      </c>
-      <c r="F43" t="s">
-        <v>154</v>
+      <c r="D43" s="77"/>
+      <c r="E43" s="77" t="s">
+        <v>150</v>
+      </c>
+      <c r="F43" s="77" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="24"/>
       <c r="B44" s="22"/>
       <c r="C44" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="D44" s="75"/>
-      <c r="E44" t="s">
-        <v>153</v>
-      </c>
-      <c r="F44" t="s">
-        <v>154</v>
+        <v>84</v>
+      </c>
+      <c r="D44" s="77"/>
+      <c r="E44" s="77" t="s">
+        <v>150</v>
+      </c>
+      <c r="F44" s="77" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="36"/>
+      <c r="A45" s="24"/>
       <c r="B45" s="22"/>
       <c r="C45" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" s="77"/>
+      <c r="E45" s="77" t="s">
+        <v>150</v>
+      </c>
+      <c r="F45" s="77" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="24"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" s="77"/>
+      <c r="E46" s="77" t="s">
+        <v>150</v>
+      </c>
+      <c r="F46" s="77" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="36"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="D45" s="75"/>
-      <c r="E45" t="s">
-        <v>153</v>
-      </c>
-      <c r="F45" t="s">
-        <v>154</v>
+      <c r="D47" s="77"/>
+      <c r="E47" s="77" t="s">
+        <v>150</v>
+      </c>
+      <c r="F47" s="77" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2030,8 +2067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E2940CB-9910-40F3-B196-B478C6ED3C8D}">
   <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2334,16 +2371,16 @@
       <c r="B17" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="74" t="s">
+      <c r="C17" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="74" t="s">
+      <c r="D17" s="135" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="74" t="s">
+      <c r="E17" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="74" t="s">
+      <c r="F17" s="135" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="72"/>
@@ -2355,16 +2392,16 @@
       <c r="B18" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="101" t="s">
+      <c r="C18" s="118" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="102" t="s">
+      <c r="D18" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="102" t="s">
+      <c r="E18" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="102" t="s">
+      <c r="F18" s="29" t="s">
         <v>7</v>
       </c>
       <c r="G18" s="72"/>
@@ -2384,7 +2421,7 @@
       <c r="F19" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="133"/>
+      <c r="G19"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="103"/>
@@ -3002,16 +3039,16 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="103"/>
-      <c r="B56" s="127" t="s">
+      <c r="B56" s="112" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="102" t="s">
+      <c r="C56" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="D56" s="102" t="s">
+      <c r="D56" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="E56" s="102" t="s">
+      <c r="E56" s="29" t="s">
         <v>62</v>
       </c>
       <c r="F56" s="102" t="s">
@@ -3021,7 +3058,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="103"/>
-      <c r="B57" s="128"/>
+      <c r="B57" s="113"/>
       <c r="C57" s="102" t="s">
         <v>60</v>
       </c>
@@ -3038,7 +3075,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="105"/>
-      <c r="B58" s="129"/>
+      <c r="B58" s="114"/>
       <c r="C58" s="102" t="s">
         <v>60</v>
       </c>
@@ -3077,13 +3114,13 @@
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="110"/>
       <c r="B60" s="107"/>
-      <c r="C60" s="108" t="s">
+      <c r="C60" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="D60" s="109" t="s">
+      <c r="D60" s="134" t="s">
         <v>64</v>
       </c>
-      <c r="E60" s="109" t="s">
+      <c r="E60" s="134" t="s">
         <v>64</v>
       </c>
       <c r="F60" s="109" t="s">
@@ -3094,13 +3131,13 @@
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="110"/>
       <c r="B61" s="111"/>
-      <c r="C61" s="108" t="s">
+      <c r="C61" s="133" t="s">
         <v>65</v>
       </c>
-      <c r="D61" s="109" t="s">
+      <c r="D61" s="134" t="s">
         <v>96</v>
       </c>
-      <c r="E61" s="109" t="s">
+      <c r="E61" s="134" t="s">
         <v>98</v>
       </c>
       <c r="F61" s="109" t="s">
@@ -3109,672 +3146,672 @@
       <c r="G61" s="72"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" s="112" t="s">
+      <c r="A62" s="121" t="s">
         <v>112</v>
       </c>
-      <c r="B62" s="113" t="s">
+      <c r="B62" s="122" t="s">
         <v>116</v>
       </c>
-      <c r="C62" s="114" t="s">
+      <c r="C62" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="D62" s="115" t="s">
+      <c r="D62" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="E62" s="115" t="s">
+      <c r="E62" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="F62" s="115" t="s">
+      <c r="F62" s="27" t="s">
         <v>67</v>
       </c>
       <c r="G62" s="72"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A63" s="116"/>
-      <c r="B63" s="113"/>
-      <c r="C63" s="114" t="s">
+      <c r="A63" s="123"/>
+      <c r="B63" s="122"/>
+      <c r="C63" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="D63" s="115" t="s">
+      <c r="D63" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="E63" s="115" t="s">
+      <c r="E63" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="F63" s="115" t="s">
+      <c r="F63" s="27" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="72"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A64" s="116"/>
-      <c r="B64" s="113"/>
-      <c r="C64" s="114" t="s">
+      <c r="A64" s="123"/>
+      <c r="B64" s="122"/>
+      <c r="C64" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="D64" s="115" t="s">
+      <c r="D64" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="E64" s="115" t="s">
+      <c r="E64" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="F64" s="115" t="s">
+      <c r="F64" s="27" t="s">
         <v>67</v>
       </c>
       <c r="G64" s="72"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" s="116"/>
-      <c r="B65" s="113"/>
-      <c r="C65" s="114" t="s">
+      <c r="A65" s="123"/>
+      <c r="B65" s="122"/>
+      <c r="C65" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="D65" s="115" t="s">
+      <c r="D65" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="E65" s="115" t="s">
+      <c r="E65" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="F65" s="115" t="s">
+      <c r="F65" s="27" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="72"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" s="116"/>
-      <c r="B66" s="113"/>
-      <c r="C66" s="114" t="s">
+      <c r="A66" s="123"/>
+      <c r="B66" s="122"/>
+      <c r="C66" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="115" t="s">
+      <c r="D66" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="E66" s="115" t="s">
+      <c r="E66" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="F66" s="115" t="s">
+      <c r="F66" s="27" t="s">
         <v>67</v>
       </c>
       <c r="G66" s="72"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" s="117"/>
-      <c r="B67" s="113"/>
-      <c r="C67" s="114" t="s">
+      <c r="A67" s="124"/>
+      <c r="B67" s="122"/>
+      <c r="C67" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="D67" s="115" t="s">
+      <c r="D67" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="E67" s="115" t="s">
+      <c r="E67" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="F67" s="115" t="s">
+      <c r="F67" s="27" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="72"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" s="117"/>
-      <c r="B68" s="113"/>
-      <c r="C68" s="114" t="s">
+      <c r="A68" s="124"/>
+      <c r="B68" s="122"/>
+      <c r="C68" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="D68" s="115" t="s">
+      <c r="D68" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="E68" s="115" t="s">
+      <c r="E68" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="F68" s="115" t="s">
+      <c r="F68" s="27" t="s">
         <v>67</v>
       </c>
       <c r="G68" s="72"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A69" s="116"/>
-      <c r="B69" s="113"/>
-      <c r="C69" s="114" t="s">
+      <c r="A69" s="123"/>
+      <c r="B69" s="122"/>
+      <c r="C69" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="D69" s="115" t="s">
+      <c r="D69" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="E69" s="115" t="s">
+      <c r="E69" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="F69" s="115" t="s">
+      <c r="F69" s="27" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="72"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70" s="116"/>
-      <c r="B70" s="113"/>
-      <c r="C70" s="114" t="s">
+      <c r="A70" s="123"/>
+      <c r="B70" s="122"/>
+      <c r="C70" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="D70" s="115" t="s">
+      <c r="D70" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="E70" s="115" t="s">
+      <c r="E70" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="F70" s="115" t="s">
+      <c r="F70" s="27" t="s">
         <v>67</v>
       </c>
       <c r="G70" s="72"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A71" s="116"/>
-      <c r="B71" s="113"/>
-      <c r="C71" s="114" t="s">
+      <c r="A71" s="123"/>
+      <c r="B71" s="122"/>
+      <c r="C71" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="D71" s="115" t="s">
+      <c r="D71" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="E71" s="115" t="s">
+      <c r="E71" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="F71" s="115" t="s">
+      <c r="F71" s="27" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="72"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A72" s="116"/>
-      <c r="B72" s="113"/>
-      <c r="C72" s="114" t="s">
-        <v>72</v>
-      </c>
-      <c r="D72" s="115" t="s">
+      <c r="A72" s="123"/>
+      <c r="B72" s="122"/>
+      <c r="C72" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="D72" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="E72" s="115" t="s">
+      <c r="E72" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="F72" s="115" t="s">
+      <c r="F72" s="27" t="s">
         <v>67</v>
       </c>
       <c r="G72" s="72"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A73" s="116"/>
-      <c r="B73" s="113"/>
-      <c r="C73" s="114" t="s">
-        <v>72</v>
-      </c>
-      <c r="D73" s="115" t="s">
+      <c r="A73" s="123"/>
+      <c r="B73" s="122"/>
+      <c r="C73" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="D73" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="E73" s="115" t="s">
+      <c r="E73" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="F73" s="115" t="s">
+      <c r="F73" s="27" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="72"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" s="116"/>
-      <c r="B74" s="113"/>
-      <c r="C74" s="114" t="s">
-        <v>72</v>
-      </c>
-      <c r="D74" s="115" t="s">
+      <c r="A74" s="123"/>
+      <c r="B74" s="122"/>
+      <c r="C74" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="D74" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="E74" s="115" t="s">
+      <c r="E74" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="F74" s="115" t="s">
+      <c r="F74" s="27" t="s">
         <v>67</v>
       </c>
       <c r="G74" s="72"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A75" s="116"/>
-      <c r="B75" s="113"/>
-      <c r="C75" s="114" t="s">
-        <v>72</v>
-      </c>
-      <c r="D75" s="115" t="s">
+      <c r="A75" s="123"/>
+      <c r="B75" s="122"/>
+      <c r="C75" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="D75" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="E75" s="115" t="s">
+      <c r="E75" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="F75" s="115" t="s">
+      <c r="F75" s="27" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="72"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A76" s="116"/>
-      <c r="B76" s="113"/>
-      <c r="C76" s="114" t="s">
-        <v>72</v>
-      </c>
-      <c r="D76" s="115" t="s">
+      <c r="A76" s="123"/>
+      <c r="B76" s="122"/>
+      <c r="C76" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="D76" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="E76" s="115" t="s">
+      <c r="E76" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="F76" s="115" t="s">
+      <c r="F76" s="27" t="s">
         <v>67</v>
       </c>
       <c r="G76" s="72"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A77" s="116"/>
-      <c r="B77" s="113"/>
-      <c r="C77" s="114" t="s">
-        <v>72</v>
-      </c>
-      <c r="D77" s="115" t="s">
+      <c r="A77" s="123"/>
+      <c r="B77" s="122"/>
+      <c r="C77" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="D77" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="E77" s="115" t="s">
+      <c r="E77" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="F77" s="115" t="s">
+      <c r="F77" s="27" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="72"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" s="116"/>
-      <c r="B78" s="113"/>
-      <c r="C78" s="114" t="s">
-        <v>72</v>
-      </c>
-      <c r="D78" s="115" t="s">
+      <c r="A78" s="123"/>
+      <c r="B78" s="122"/>
+      <c r="C78" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="D78" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="E78" s="115" t="s">
+      <c r="E78" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="F78" s="115" t="s">
+      <c r="F78" s="27" t="s">
         <v>67</v>
       </c>
       <c r="G78" s="72"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" s="116"/>
-      <c r="B79" s="113"/>
-      <c r="C79" s="114" t="s">
-        <v>72</v>
-      </c>
-      <c r="D79" s="115" t="s">
+      <c r="A79" s="123"/>
+      <c r="B79" s="122"/>
+      <c r="C79" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="D79" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="E79" s="115" t="s">
+      <c r="E79" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="F79" s="115" t="s">
+      <c r="F79" s="27" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="72"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80" s="116"/>
-      <c r="B80" s="113"/>
-      <c r="C80" s="114" t="s">
-        <v>72</v>
-      </c>
-      <c r="D80" s="115" t="s">
+      <c r="A80" s="123"/>
+      <c r="B80" s="122"/>
+      <c r="C80" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="D80" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="E80" s="115" t="s">
+      <c r="E80" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="F80" s="115" t="s">
+      <c r="F80" s="27" t="s">
         <v>67</v>
       </c>
       <c r="G80" s="72"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" s="116"/>
-      <c r="B81" s="113"/>
-      <c r="C81" s="114" t="s">
-        <v>72</v>
-      </c>
-      <c r="D81" s="115" t="s">
+      <c r="A81" s="123"/>
+      <c r="B81" s="122"/>
+      <c r="C81" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="D81" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="E81" s="115" t="s">
+      <c r="E81" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="F81" s="115" t="s">
+      <c r="F81" s="27" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="72"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" s="116"/>
-      <c r="B82" s="113"/>
-      <c r="C82" s="114" t="s">
-        <v>72</v>
-      </c>
-      <c r="D82" s="115" t="s">
+      <c r="A82" s="123"/>
+      <c r="B82" s="122"/>
+      <c r="C82" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="D82" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="E82" s="115" t="s">
+      <c r="E82" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="F82" s="115" t="s">
+      <c r="F82" s="27" t="s">
         <v>67</v>
       </c>
       <c r="G82" s="72"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A83" s="116"/>
-      <c r="B83" s="113"/>
-      <c r="C83" s="114" t="s">
-        <v>72</v>
-      </c>
-      <c r="D83" s="115" t="s">
+      <c r="A83" s="123"/>
+      <c r="B83" s="122"/>
+      <c r="C83" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="D83" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="E83" s="115" t="s">
+      <c r="E83" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="F83" s="115" t="s">
+      <c r="F83" s="27" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="72"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A84" s="116"/>
-      <c r="B84" s="113"/>
-      <c r="C84" s="114" t="s">
-        <v>72</v>
-      </c>
-      <c r="D84" s="115" t="s">
+      <c r="A84" s="123"/>
+      <c r="B84" s="122"/>
+      <c r="C84" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="D84" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="E84" s="115" t="s">
+      <c r="E84" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="F84" s="115" t="s">
+      <c r="F84" s="27" t="s">
         <v>67</v>
       </c>
       <c r="G84" s="72"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A85" s="116"/>
-      <c r="B85" s="113"/>
-      <c r="C85" s="114" t="s">
-        <v>72</v>
-      </c>
-      <c r="D85" s="115" t="s">
+      <c r="A85" s="123"/>
+      <c r="B85" s="122"/>
+      <c r="C85" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="D85" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="E85" s="115" t="s">
+      <c r="E85" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="F85" s="115" t="s">
+      <c r="F85" s="27" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="72"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A86" s="116"/>
-      <c r="B86" s="113"/>
-      <c r="C86" s="114" t="s">
-        <v>72</v>
-      </c>
-      <c r="D86" s="115" t="s">
+      <c r="A86" s="123"/>
+      <c r="B86" s="122"/>
+      <c r="C86" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="D86" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="E86" s="115" t="s">
+      <c r="E86" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="F86" s="115" t="s">
+      <c r="F86" s="27" t="s">
         <v>67</v>
       </c>
       <c r="G86" s="72"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A87" s="116"/>
-      <c r="B87" s="113"/>
-      <c r="C87" s="114" t="s">
-        <v>72</v>
-      </c>
-      <c r="D87" s="115" t="s">
+      <c r="A87" s="123"/>
+      <c r="B87" s="122"/>
+      <c r="C87" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="D87" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="E87" s="115" t="s">
+      <c r="E87" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="F87" s="115" t="s">
+      <c r="F87" s="27" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="72"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A88" s="116"/>
-      <c r="B88" s="113"/>
-      <c r="C88" s="114" t="s">
-        <v>72</v>
-      </c>
-      <c r="D88" s="115" t="s">
+      <c r="A88" s="123"/>
+      <c r="B88" s="122"/>
+      <c r="C88" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="D88" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="E88" s="115" t="s">
+      <c r="E88" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="F88" s="115" t="s">
+      <c r="F88" s="27" t="s">
         <v>67</v>
       </c>
       <c r="G88" s="72"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A89" s="116"/>
-      <c r="B89" s="113"/>
-      <c r="C89" s="114" t="s">
-        <v>72</v>
-      </c>
-      <c r="D89" s="115" t="s">
+      <c r="A89" s="123"/>
+      <c r="B89" s="122"/>
+      <c r="C89" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="D89" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="E89" s="115" t="s">
+      <c r="E89" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="F89" s="115" t="s">
+      <c r="F89" s="27" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="72"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A90" s="116"/>
-      <c r="B90" s="113"/>
-      <c r="C90" s="114" t="s">
-        <v>72</v>
-      </c>
-      <c r="D90" s="115" t="s">
+      <c r="A90" s="123"/>
+      <c r="B90" s="122"/>
+      <c r="C90" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="D90" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="E90" s="115" t="s">
+      <c r="E90" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="F90" s="115" t="s">
+      <c r="F90" s="27" t="s">
         <v>67</v>
       </c>
       <c r="G90" s="72"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A91" s="116"/>
-      <c r="B91" s="113"/>
-      <c r="C91" s="114" t="s">
-        <v>72</v>
-      </c>
-      <c r="D91" s="115" t="s">
+      <c r="A91" s="123"/>
+      <c r="B91" s="122"/>
+      <c r="C91" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="D91" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="E91" s="115" t="s">
+      <c r="E91" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="F91" s="115" t="s">
+      <c r="F91" s="27" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="72"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A92" s="116"/>
-      <c r="B92" s="113"/>
-      <c r="C92" s="114" t="s">
-        <v>72</v>
-      </c>
-      <c r="D92" s="115" t="s">
+      <c r="A92" s="123"/>
+      <c r="B92" s="122"/>
+      <c r="C92" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="D92" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="E92" s="115" t="s">
+      <c r="E92" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="F92" s="115" t="s">
+      <c r="F92" s="27" t="s">
         <v>67</v>
       </c>
       <c r="G92" s="72"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A93" s="116"/>
-      <c r="B93" s="113"/>
-      <c r="C93" s="114" t="s">
-        <v>72</v>
-      </c>
-      <c r="D93" s="115" t="s">
+      <c r="A93" s="123"/>
+      <c r="B93" s="122"/>
+      <c r="C93" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="D93" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="E93" s="115" t="s">
+      <c r="E93" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="F93" s="115" t="s">
+      <c r="F93" s="27" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="72"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A94" s="116"/>
-      <c r="B94" s="113"/>
-      <c r="C94" s="114" t="s">
-        <v>72</v>
-      </c>
-      <c r="D94" s="115" t="s">
+      <c r="A94" s="123"/>
+      <c r="B94" s="122"/>
+      <c r="C94" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="D94" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="E94" s="115" t="s">
+      <c r="E94" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="F94" s="115" t="s">
+      <c r="F94" s="27" t="s">
         <v>67</v>
       </c>
       <c r="G94" s="72"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A95" s="116"/>
-      <c r="B95" s="113"/>
-      <c r="C95" s="114" t="s">
-        <v>72</v>
-      </c>
-      <c r="D95" s="115" t="s">
+      <c r="A95" s="123"/>
+      <c r="B95" s="122"/>
+      <c r="C95" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="D95" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="E95" s="115" t="s">
+      <c r="E95" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="F95" s="115" t="s">
+      <c r="F95" s="27" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="72"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A96" s="118" t="s">
+      <c r="A96" s="125" t="s">
         <v>82</v>
       </c>
-      <c r="B96" s="119" t="s">
+      <c r="B96" s="126" t="s">
         <v>82</v>
       </c>
-      <c r="C96" s="120" t="s">
+      <c r="C96" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="D96" s="121" t="s">
+      <c r="D96" s="128" t="s">
         <v>83</v>
       </c>
-      <c r="E96" s="121" t="s">
+      <c r="E96" s="128" t="s">
         <v>83</v>
       </c>
-      <c r="F96" s="122" t="s">
+      <c r="F96" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="72"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A97" s="123"/>
-      <c r="B97" s="124"/>
-      <c r="C97" s="120" t="s">
+      <c r="A97" s="129"/>
+      <c r="B97" s="130"/>
+      <c r="C97" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="D97" s="121" t="s">
+      <c r="D97" s="128" t="s">
         <v>84</v>
       </c>
-      <c r="E97" s="121" t="s">
+      <c r="E97" s="128" t="s">
         <v>84</v>
       </c>
-      <c r="F97" s="122" t="s">
+      <c r="F97" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="72"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A98" s="123"/>
-      <c r="B98" s="124"/>
-      <c r="C98" s="120" t="s">
+      <c r="A98" s="129"/>
+      <c r="B98" s="130"/>
+      <c r="C98" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="D98" s="121" t="s">
+      <c r="D98" s="128" t="s">
         <v>85</v>
       </c>
-      <c r="E98" s="121" t="s">
+      <c r="E98" s="128" t="s">
         <v>85</v>
       </c>
-      <c r="F98" s="122" t="s">
+      <c r="F98" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="72"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A99" s="123"/>
-      <c r="B99" s="124"/>
-      <c r="C99" s="120" t="s">
+      <c r="A99" s="129"/>
+      <c r="B99" s="130"/>
+      <c r="C99" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="D99" s="121" t="s">
+      <c r="D99" s="128" t="s">
         <v>86</v>
       </c>
-      <c r="E99" s="121" t="s">
+      <c r="E99" s="128" t="s">
         <v>86</v>
       </c>
-      <c r="F99" s="122" t="s">
+      <c r="F99" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="72"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A100" s="125"/>
-      <c r="B100" s="126"/>
-      <c r="C100" s="120" t="s">
+      <c r="A100" s="131"/>
+      <c r="B100" s="132"/>
+      <c r="C100" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="D100" s="121" t="s">
+      <c r="D100" s="128" t="s">
         <v>87</v>
       </c>
-      <c r="E100" s="121" t="s">
+      <c r="E100" s="128" t="s">
         <v>87</v>
       </c>
-      <c r="F100" s="122" t="s">
+      <c r="F100" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="72"/>
@@ -4779,7 +4816,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="38"/>
-      <c r="B56" s="130" t="s">
+      <c r="B56" s="115" t="s">
         <v>59</v>
       </c>
       <c r="C56" s="5" t="s">
@@ -4798,7 +4835,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="38"/>
-      <c r="B57" s="131"/>
+      <c r="B57" s="116"/>
       <c r="C57" s="5" t="s">
         <v>60</v>
       </c>
@@ -4815,7 +4852,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="10"/>
-      <c r="B58" s="132"/>
+      <c r="B58" s="117"/>
       <c r="C58" s="5" t="s">
         <v>60</v>
       </c>

--- a/data/infrastructure/Supplementary table overview infra types.xlsx
+++ b/data/infrastructure/Supplementary table overview infra types.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\gmhcira\data\infrastructure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF33ECD-3E8F-45CD-82DB-CC675E52393D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE0DE05-6855-49B3-AAD3-783A4EA7F609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Infrastructure categorization" sheetId="1" r:id="rId1"/>
-    <sheet name="Key-value &amp; reclassification 1" sheetId="3" r:id="rId2"/>
-    <sheet name="Key-value &amp; reclassification" sheetId="2" r:id="rId3"/>
+    <sheet name="Infrastructure categorizati 1" sheetId="4" r:id="rId1"/>
+    <sheet name="Infrastructure categorization" sheetId="1" r:id="rId2"/>
+    <sheet name="Key-value &amp; reclassification 1" sheetId="3" r:id="rId3"/>
+    <sheet name="Key-value &amp; reclassification" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="192">
   <si>
     <t>Key</t>
   </si>
@@ -544,12 +545,6 @@
     <t>portal</t>
   </si>
   <si>
-    <t>https://wiki.openstreetmap.org/wiki/Tag%3Apower%3Dportal</t>
-  </si>
-  <si>
-    <t>A tower type having two (or more) vertical structures connected by a horizontal cross-beam. All conductors are supported between the vertical structures (unlike the h-frame tower). This design is mostly used as termination tower at substations. It can also be used if a line intersects with other power lines.</t>
-  </si>
-  <si>
     <t>or is it better to also extract design type? (https://wiki.openstreetmap.org/wiki/Tag:power%3Dtower)</t>
   </si>
   <si>
@@ -565,15 +560,9 @@
     <t>Use voltage?</t>
   </si>
   <si>
-    <t>contains rail', tram, subway, narrow_gauge, light_rail, station, platform, stop, tram_stop, signal, switch</t>
-  </si>
-  <si>
     <t>Discuss with Elco</t>
   </si>
   <si>
-    <t>Might be interesting to include light_rail, funicular, monorail (assume no damage), narrow_gauge, subway (look for vulnerability curves!), tram. Or just stick to national freight and passenger lines for now?</t>
-  </si>
-  <si>
     <t xml:space="preserve">terminal </t>
   </si>
   <si>
@@ -587,6 +576,45 @@
   </si>
   <si>
     <t>water storage tank at altitude - reclassify? Can be considered as an elevated water storage tank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSM-flex contains rail', tram, subway, narrow_gauge, light_rail, station, platform, stop, tram_stop, signal, switch. Based on cost data and curves, decided to stick to the tags rail and narrow_gauge. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Might be interesting to include light_rail, funicular, monorail (assume no damage), narrow_gauge, subway (look for vulnerability curves!), tram. </t>
+  </si>
+  <si>
+    <t>building</t>
+  </si>
+  <si>
+    <t>Note: point data query does not work</t>
+  </si>
+  <si>
+    <t>tower + communication</t>
+  </si>
+  <si>
+    <t>mast + communication</t>
+  </si>
+  <si>
+    <t>storage tank</t>
+  </si>
+  <si>
+    <t>man_made + content</t>
+  </si>
+  <si>
+    <t>storage_tank + water</t>
+  </si>
+  <si>
+    <t>generator</t>
+  </si>
+  <si>
+    <t>Might be the case that polygons and points are extracted as well for these infrastructres. Add code to filter this</t>
+  </si>
+  <si>
+    <t>I have reclassified generator as a plant: https://wiki.openstreetmap.org/wiki/Key:generator:source --&gt; can specify the source type as well</t>
+  </si>
+  <si>
+    <t>I have included potrals as well. A tower type having two (or more) vertical structures connected by a horizontal cross-beam. All conductors are supported between the vertical structures (unlike the h-frame tower). This design is mostly used as termination tower at substations. It can also be used if a line intersects with other power lines. https://wiki.openstreetmap.org/wiki/Tag%3Apower%3Dportal</t>
   </si>
 </sst>
 </file>
@@ -653,14 +681,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -674,8 +694,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -727,12 +754,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -869,7 +890,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -953,50 +974,78 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1008,24 +1057,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1042,6 +1073,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>18041</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>135019</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>5959</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8935607-7E11-9C18-D154-626E178C4C4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7702550" y="754641"/>
+          <a:ext cx="6345319" cy="1645268"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1306,11 +1386,378 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE345391-B6D9-4F27-9229-00F11F114F62}">
+  <dimension ref="A1:C44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.453125" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="14"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="14"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="14"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="14"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="14"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="14"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="12"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="12"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="12"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="119" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="12"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="11"/>
+      <c r="B15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="10"/>
+      <c r="B17" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="10"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="10"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="10"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="10"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="10"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="10"/>
+      <c r="B23" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="10"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="88" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="10"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="88" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="28"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="18"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="18"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="18"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="18"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="26"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="26"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="18"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="18"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="18"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="18"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="71"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="24"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="24"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="24"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="36"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1349,7 +1796,7 @@
         <v>146</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -1362,7 +1809,7 @@
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="75"/>
+      <c r="D2" s="76"/>
       <c r="E2" t="s">
         <v>5</v>
       </c>
@@ -1370,7 +1817,7 @@
         <v>166</v>
       </c>
       <c r="I2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -1379,7 +1826,7 @@
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="75"/>
+      <c r="D3" s="76"/>
       <c r="E3" t="s">
         <v>5</v>
       </c>
@@ -1390,15 +1837,15 @@
       <c r="C4" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D4" s="75"/>
+      <c r="D4" s="76"/>
       <c r="E4" t="s">
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -1407,9 +1854,12 @@
       <c r="C5" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="75"/>
+      <c r="D5" s="76"/>
       <c r="E5" t="s">
         <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -1418,7 +1868,7 @@
       <c r="C6" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D6" s="75"/>
+      <c r="D6" s="76"/>
       <c r="E6" t="s">
         <v>5</v>
       </c>
@@ -1429,64 +1879,64 @@
       <c r="C7" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D7" s="75"/>
+      <c r="D7" s="76"/>
       <c r="E7" t="s">
         <v>5</v>
       </c>
+      <c r="F7" t="s">
+        <v>191</v>
+      </c>
       <c r="H7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="14"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="80" t="s">
-        <v>167</v>
-      </c>
-      <c r="D8" s="75"/>
+      <c r="C8" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="76"/>
       <c r="E8" t="s">
         <v>5</v>
       </c>
-      <c r="F8" t="s">
-        <v>169</v>
-      </c>
-      <c r="J8" t="s">
-        <v>168</v>
+      <c r="H8" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="14"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D9" s="75"/>
+      <c r="A9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="76"/>
       <c r="E9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" t="s">
-        <v>172</v>
+        <v>158</v>
+      </c>
+      <c r="F9" t="s">
+        <v>178</v>
+      </c>
+      <c r="G9" t="s">
+        <v>162</v>
+      </c>
+      <c r="I9" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="A10" s="12"/>
+      <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="75"/>
+        <v>17</v>
+      </c>
+      <c r="D10" s="78"/>
       <c r="E10" t="s">
         <v>158</v>
-      </c>
-      <c r="F10" t="s">
-        <v>182</v>
-      </c>
-      <c r="G10" t="s">
-        <v>162</v>
       </c>
       <c r="I10" t="s">
         <v>163</v>
@@ -1496,11 +1946,17 @@
       <c r="A11" s="12"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="79"/>
+        <v>19</v>
+      </c>
+      <c r="D11" s="76"/>
       <c r="E11" t="s">
         <v>158</v>
+      </c>
+      <c r="F11" t="s">
+        <v>161</v>
+      </c>
+      <c r="G11" t="s">
+        <v>162</v>
       </c>
       <c r="I11" t="s">
         <v>163</v>
@@ -1509,281 +1965,278 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="12"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="75"/>
+      <c r="C12" s="77" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12" s="76"/>
       <c r="E12" t="s">
         <v>158</v>
       </c>
       <c r="F12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G12" t="s">
         <v>162</v>
       </c>
       <c r="I12" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="12"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="78" t="s">
-        <v>159</v>
-      </c>
-      <c r="D13" s="77"/>
+      <c r="C13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="76"/>
       <c r="E13" t="s">
         <v>158</v>
       </c>
       <c r="F13" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="G13" t="s">
         <v>162</v>
       </c>
       <c r="I13" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="12"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="3" t="s">
-        <v>21</v>
+      <c r="C14" s="73" t="s">
+        <v>23</v>
       </c>
       <c r="D14" s="75"/>
-      <c r="E14" t="s">
-        <v>158</v>
-      </c>
-      <c r="F14" t="s">
-        <v>165</v>
-      </c>
-      <c r="G14" t="s">
-        <v>162</v>
-      </c>
       <c r="I14" t="s">
         <v>163</v>
       </c>
+      <c r="J14" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="12"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="76"/>
-      <c r="I15" t="s">
-        <v>163</v>
-      </c>
+      <c r="A15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="75"/>
       <c r="J15" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="74" t="s">
-        <v>26</v>
+      <c r="A16" s="11"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="D16" s="76"/>
       <c r="J16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="11"/>
-      <c r="B17" s="4"/>
+      <c r="B17" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="C17" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D17" s="76"/>
-      <c r="J17" t="s">
-        <v>155</v>
+      <c r="E17" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="11"/>
-      <c r="B18" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D18" s="77"/>
-      <c r="E18" t="s">
-        <v>157</v>
+      <c r="A18" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" t="s">
+        <v>179</v>
+      </c>
+      <c r="I18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J18" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="9" t="s">
-        <v>33</v>
-      </c>
+      <c r="A19" s="10"/>
       <c r="B19" s="5" t="s">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="75"/>
-      <c r="E19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" t="s">
-        <v>175</v>
-      </c>
-      <c r="I19" t="s">
-        <v>147</v>
-      </c>
-      <c r="J19" t="s">
-        <v>177</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="76" t="s">
+        <v>144</v>
+      </c>
+      <c r="G19" s="76"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="10"/>
-      <c r="B20" s="5" t="s">
-        <v>140</v>
-      </c>
+      <c r="B20" s="5"/>
       <c r="C20" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="F20" s="77" t="s">
+      <c r="F20" s="76" t="s">
         <v>144</v>
       </c>
-      <c r="G20" s="77"/>
+      <c r="G20" s="76"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="F21" s="77" t="s">
+      <c r="F21" s="76" t="s">
         <v>144</v>
       </c>
-      <c r="G21" s="77"/>
+      <c r="G21" s="76"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="10"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="77" t="s">
+      <c r="F22" s="76" t="s">
         <v>144</v>
       </c>
-      <c r="G22" s="77"/>
+      <c r="G22" s="76"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="10"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="F23" s="77" t="s">
+      <c r="F23" s="76" t="s">
         <v>144</v>
       </c>
-      <c r="G23" s="77"/>
+      <c r="G23" s="76"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="10"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="F24" s="77" t="s">
+      <c r="F24" s="76" t="s">
         <v>144</v>
       </c>
-      <c r="G24" s="77"/>
+      <c r="G24" s="76"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="10"/>
-      <c r="B25" s="5"/>
+      <c r="B25" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="C25" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77" t="s">
-        <v>56</v>
-      </c>
-      <c r="F25" s="77" t="s">
-        <v>144</v>
-      </c>
-      <c r="G25" s="77"/>
+        <v>107</v>
+      </c>
+      <c r="D25" s="76"/>
+      <c r="E25" t="s">
+        <v>148</v>
+      </c>
+      <c r="H25" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="10"/>
-      <c r="B26" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D26" s="75"/>
-      <c r="E26" t="s">
-        <v>148</v>
-      </c>
-      <c r="H26" t="s">
-        <v>179</v>
+      <c r="B26" s="39"/>
+      <c r="C26" s="88" t="s">
+        <v>174</v>
+      </c>
+      <c r="D26" s="76"/>
+      <c r="F26" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="10"/>
       <c r="B27" s="39"/>
-      <c r="C27" s="120" t="s">
-        <v>178</v>
-      </c>
-      <c r="D27" s="75"/>
-      <c r="F27" s="119" t="s">
-        <v>180</v>
+      <c r="C27" s="88" t="s">
+        <v>139</v>
+      </c>
+      <c r="D27" s="76"/>
+      <c r="F27" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" s="10"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="120" t="s">
-        <v>139</v>
-      </c>
-      <c r="D28" s="75"/>
-      <c r="F28" s="119" t="s">
-        <v>180</v>
+      <c r="A28" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" s="76"/>
+      <c r="E28" t="s">
+        <v>153</v>
+      </c>
+      <c r="F28" t="s">
+        <v>154</v>
+      </c>
+      <c r="G28" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>97</v>
-      </c>
+      <c r="A29" s="28"/>
+      <c r="B29" s="15"/>
       <c r="C29" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="D29" s="75"/>
+        <v>99</v>
+      </c>
+      <c r="D29" s="76"/>
       <c r="E29" t="s">
         <v>153</v>
       </c>
@@ -1795,37 +2248,34 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" s="28"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="D30" s="75"/>
-      <c r="E30" t="s">
-        <v>153</v>
-      </c>
-      <c r="F30" t="s">
-        <v>154</v>
-      </c>
-      <c r="G30" t="s">
-        <v>164</v>
+      <c r="A30" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" s="76" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>116</v>
-      </c>
+      <c r="A31" s="18"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="D31" s="77"/>
-      <c r="E31" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="F31" s="77" t="s">
+      <c r="F31" s="76" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1833,13 +2283,13 @@
       <c r="A32" s="18"/>
       <c r="B32" s="20"/>
       <c r="C32" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32" s="77"/>
-      <c r="E32" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="F32" s="77" t="s">
+      <c r="F32" s="76" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1847,13 +2297,13 @@
       <c r="A33" s="18"/>
       <c r="B33" s="20"/>
       <c r="C33" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" s="77"/>
-      <c r="E33" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="F33" s="77" t="s">
+      <c r="F33" s="76" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1861,27 +2311,27 @@
       <c r="A34" s="18"/>
       <c r="B34" s="20"/>
       <c r="C34" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34" s="77"/>
-      <c r="E34" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="F34" s="77" t="s">
+      <c r="F34" s="76" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="18"/>
+      <c r="A35" s="26"/>
       <c r="B35" s="20"/>
       <c r="C35" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="76"/>
+      <c r="E35" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="F35" s="77" t="s">
+      <c r="F35" s="76" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1889,27 +2339,27 @@
       <c r="A36" s="26"/>
       <c r="B36" s="20"/>
       <c r="C36" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D36" s="77"/>
-      <c r="E36" s="77" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="76"/>
+      <c r="E36" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="F36" s="77" t="s">
+      <c r="F36" s="76" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="26"/>
+      <c r="A37" s="18"/>
       <c r="B37" s="20"/>
       <c r="C37" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D37" s="77"/>
-      <c r="E37" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="76"/>
+      <c r="E37" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="F37" s="77" t="s">
+      <c r="F37" s="76" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1917,13 +2367,13 @@
       <c r="A38" s="18"/>
       <c r="B38" s="20"/>
       <c r="C38" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D38" s="77"/>
-      <c r="E38" s="77" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="76"/>
+      <c r="E38" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="F38" s="77" t="s">
+      <c r="F38" s="76" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1931,13 +2381,13 @@
       <c r="A39" s="18"/>
       <c r="B39" s="20"/>
       <c r="C39" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="D39" s="77"/>
-      <c r="E39" s="77" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="76"/>
+      <c r="E39" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="F39" s="77" t="s">
+      <c r="F39" s="76" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1945,59 +2395,59 @@
       <c r="A40" s="18"/>
       <c r="B40" s="20"/>
       <c r="C40" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D40" s="77"/>
-      <c r="E40" s="77" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" s="76"/>
+      <c r="E40" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="F40" s="77" t="s">
+      <c r="F40" s="76" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="18"/>
+      <c r="A41" s="71"/>
       <c r="B41" s="20"/>
       <c r="C41" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D41" s="77"/>
-      <c r="E41" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" s="76"/>
+      <c r="E41" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="F41" s="77" t="s">
+      <c r="F41" s="76" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="71"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D42" s="77"/>
-      <c r="E42" s="77" t="s">
-        <v>72</v>
-      </c>
-      <c r="F42" s="77" t="s">
-        <v>152</v>
+      <c r="A42" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" s="76"/>
+      <c r="E42" s="76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F42" s="76" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B43" s="22" t="s">
-        <v>82</v>
-      </c>
+      <c r="A43" s="24"/>
+      <c r="B43" s="22"/>
       <c r="C43" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="D43" s="77"/>
-      <c r="E43" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" s="76"/>
+      <c r="E43" s="76" t="s">
         <v>150</v>
       </c>
-      <c r="F43" s="77" t="s">
+      <c r="F43" s="76" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2005,13 +2455,13 @@
       <c r="A44" s="24"/>
       <c r="B44" s="22"/>
       <c r="C44" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D44" s="77"/>
-      <c r="E44" s="77" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" s="76"/>
+      <c r="E44" s="76" t="s">
         <v>150</v>
       </c>
-      <c r="F44" s="77" t="s">
+      <c r="F44" s="76" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2019,41 +2469,27 @@
       <c r="A45" s="24"/>
       <c r="B45" s="22"/>
       <c r="C45" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="D45" s="77"/>
-      <c r="E45" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="D45" s="76"/>
+      <c r="E45" s="76" t="s">
         <v>150</v>
       </c>
-      <c r="F45" s="77" t="s">
+      <c r="F45" s="76" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="24"/>
+      <c r="A46" s="36"/>
       <c r="B46" s="22"/>
       <c r="C46" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="D46" s="77"/>
-      <c r="E46" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="D46" s="76"/>
+      <c r="E46" s="76" t="s">
         <v>150</v>
       </c>
-      <c r="F46" s="77" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="36"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="D47" s="77"/>
-      <c r="E47" s="77" t="s">
-        <v>150</v>
-      </c>
-      <c r="F47" s="77" t="s">
+      <c r="F46" s="76" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2063,12 +2499,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E2940CB-9910-40F3-B196-B478C6ED3C8D}">
-  <dimension ref="A1:G106"/>
+  <dimension ref="A1:H139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="I3" sqref="H3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2078,10 +2514,9 @@
     <col min="4" max="4" width="21.54296875" customWidth="1"/>
     <col min="5" max="5" width="26.1796875" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="35" t="s">
         <v>2</v>
       </c>
@@ -2101,763 +2536,723 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="81" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="83" t="s">
+      <c r="B2" s="125"/>
+      <c r="C2" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="84" t="s">
+      <c r="D2" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="84" t="s">
+      <c r="E2" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="72"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="81"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="86" t="s">
+      <c r="F2" s="127" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="130" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="124"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="87" t="s">
+      <c r="D3" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="E3" s="87" t="s">
+      <c r="E3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="87" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="72"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="81"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="86" t="s">
+      <c r="F3" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="124"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="87" t="s">
+      <c r="D4" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="87" t="s">
+      <c r="E4" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="87" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="72"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="81"/>
-      <c r="B5" s="85"/>
-      <c r="C5" s="86" t="s">
+      <c r="F4" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="124"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="87" t="s">
+      <c r="D5" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="87" t="s">
+      <c r="E5" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="F5" s="87" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="72"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="81"/>
-      <c r="B6" s="85"/>
-      <c r="C6" s="86" t="s">
+      <c r="F5" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="124"/>
+      <c r="B6" s="128"/>
+      <c r="C6" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="87" t="s">
+      <c r="D6" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="E6" s="87" t="s">
+      <c r="E6" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="F6" s="87" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="72"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="81"/>
-      <c r="B7" s="85"/>
-      <c r="C7" s="86" t="s">
+      <c r="F6" s="131" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="79"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="87" t="s">
+      <c r="D7" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="79"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="129" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="F8" s="131" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="79"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="129" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="79"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="129" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="E7" s="87" t="s">
+      <c r="E10" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="F7" s="87" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="72"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="81"/>
-      <c r="B8" s="85"/>
-      <c r="C8" s="86" t="s">
+      <c r="F10" s="131" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="79"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="87" t="s">
+      <c r="D11" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="79"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="129" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="87" t="s">
+      <c r="E12" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="F8" s="87" t="s">
+      <c r="F12" s="131" t="s">
         <v>119</v>
       </c>
-      <c r="G8" s="72"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="81"/>
-      <c r="B9" s="84"/>
-      <c r="C9" s="86" t="s">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="79"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="87" t="s">
+      <c r="D13" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="79"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="129" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="E9" s="87" t="s">
+      <c r="E14" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="F9" s="87" t="s">
+      <c r="F14" s="131" t="s">
         <v>119</v>
       </c>
-      <c r="G9" s="72"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="88" t="s">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="79"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="129" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="79"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="129" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" s="131" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="79"/>
+      <c r="B17" s="132"/>
+      <c r="C17" s="129" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="89" t="s">
+      <c r="B18" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="90" t="s">
+      <c r="C18" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D18" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73" t="s">
+      <c r="E18" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="72"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="91"/>
-      <c r="B11" s="89"/>
-      <c r="C11" s="90" t="s">
+      <c r="F18" s="119" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="82"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="73" t="s">
+      <c r="D19" s="119" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="119" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="119" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="82"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="118" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="73" t="s">
+      <c r="E20" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="72"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="91"/>
-      <c r="B12" s="89"/>
-      <c r="C12" s="90" t="s">
+      <c r="F20" s="119" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="82"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="73" t="s">
+      <c r="D21" s="119" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="119" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="119" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="82"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="118" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="73" t="s">
+      <c r="E22" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="72"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="91"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="90" t="s">
+      <c r="F22" s="119" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="82"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="73" t="s">
+      <c r="D23" s="119" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="119" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="119" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="82"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="118" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="73" t="s">
+      <c r="E24" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="72"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="91"/>
-      <c r="B14" s="92"/>
-      <c r="C14" s="90" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="72"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="93" t="s">
+      <c r="F24" s="119" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="82"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="118" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="119" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="119" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="119" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="82"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="118" t="s">
+        <v>186</v>
+      </c>
+      <c r="D26" s="119" t="s">
+        <v>187</v>
+      </c>
+      <c r="E26" s="119" t="s">
+        <v>185</v>
+      </c>
+      <c r="F26" s="119" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="82"/>
+      <c r="B27" s="122"/>
+      <c r="C27" s="119" t="s">
+        <v>186</v>
+      </c>
+      <c r="D27" s="119" t="s">
+        <v>187</v>
+      </c>
+      <c r="E27" s="119" t="s">
+        <v>185</v>
+      </c>
+      <c r="F27" s="119" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="94" t="s">
+      <c r="B28" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="95" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="74" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="72"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="96"/>
-      <c r="B16" s="97"/>
-      <c r="C16" s="95" t="s">
+      <c r="C28" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="74" t="s">
+      <c r="D28" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="74" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="74" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="72"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="98"/>
-      <c r="B17" s="94" t="s">
+      <c r="E28" s="103" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" s="103" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="116"/>
+      <c r="B29" s="117"/>
+      <c r="C29" s="113" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="103" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="103" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" s="103" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="116"/>
+      <c r="B30" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="135" t="s">
+      <c r="C30" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="135" t="s">
+      <c r="D30" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="135" t="s">
+      <c r="E30" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="135" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="72"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="99" t="s">
+      <c r="F30" s="103" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="84"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="103" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="103" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="103" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="103" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="106" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="100" t="s">
+      <c r="B32" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="118" t="s">
+      <c r="C32" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D32" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="29" t="s">
+      <c r="E32" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="72"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="103"/>
-      <c r="B19" s="104"/>
-      <c r="C19" s="101" t="s">
+      <c r="F32" s="29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="85"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="102" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="102" t="s">
+      <c r="D33" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="102" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="103"/>
-      <c r="B20" s="104"/>
-      <c r="C20" s="101" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="102" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="102" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="102" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="72"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="103"/>
-      <c r="B21" s="104"/>
-      <c r="C21" s="101" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="102" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="102" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" s="102" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="72"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="103"/>
-      <c r="B22" s="104"/>
-      <c r="C22" s="101" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="102" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="102" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="102" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" s="72"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="103"/>
-      <c r="B23" s="104"/>
-      <c r="C23" s="101" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="102" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="102" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" s="102" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="72"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="103"/>
-      <c r="B24" s="104"/>
-      <c r="C24" s="101" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="102" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="102" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" s="102" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24" s="72"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="103"/>
-      <c r="B25" s="41" t="s">
+      <c r="F33" s="29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="85"/>
+      <c r="B34" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" s="72"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="103"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G26" s="72"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="103"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" s="72"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="103"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G28" s="72"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="103"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G29" s="72"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="103"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G30" s="72"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="103"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G31" s="72"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="103"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G32" s="72"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="103"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G33" s="72"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="103"/>
-      <c r="B34" s="42"/>
       <c r="C34" s="39" t="s">
         <v>44</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G34" s="72"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="103"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="85"/>
       <c r="B35" s="42"/>
       <c r="C35" s="39" t="s">
         <v>44</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G35" s="72"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="103"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="85"/>
       <c r="B36" s="42"/>
       <c r="C36" s="39" t="s">
         <v>44</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G36" s="72"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="103"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="85"/>
       <c r="B37" s="42"/>
       <c r="C37" s="39" t="s">
         <v>44</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G37" s="72"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="103"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="85"/>
       <c r="B38" s="42"/>
       <c r="C38" s="39" t="s">
         <v>44</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G38" s="72"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="103"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="85"/>
       <c r="B39" s="42"/>
       <c r="C39" s="39" t="s">
         <v>44</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>122</v>
+        <v>46</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G39" s="72"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="103"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="85"/>
       <c r="B40" s="42"/>
       <c r="C40" s="39" t="s">
         <v>44</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>122</v>
+        <v>46</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G40" s="72"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="103"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="85"/>
       <c r="B41" s="42"/>
       <c r="C41" s="39" t="s">
         <v>44</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G41" s="72"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="103"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="85"/>
       <c r="B42" s="42"/>
       <c r="C42" s="39" t="s">
         <v>44</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G42" s="72"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="103"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="85"/>
       <c r="B43" s="42"/>
       <c r="C43" s="39" t="s">
         <v>44</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>127</v>
+        <v>53</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G43" s="72"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="103"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="85"/>
       <c r="B44" s="42"/>
       <c r="C44" s="39" t="s">
         <v>44</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G44" s="72"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="103"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="85"/>
       <c r="B45" s="42"/>
       <c r="C45" s="39" t="s">
         <v>44</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>122</v>
@@ -2865,16 +3260,15 @@
       <c r="F45" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G45" s="72"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="103"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="85"/>
       <c r="B46" s="42"/>
       <c r="C46" s="39" t="s">
         <v>44</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>129</v>
+        <v>56</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>122</v>
@@ -2882,16 +3276,15 @@
       <c r="F46" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G46" s="72"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" s="103"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="85"/>
       <c r="B47" s="42"/>
       <c r="C47" s="39" t="s">
         <v>44</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>130</v>
+        <v>57</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>122</v>
@@ -2899,16 +3292,15 @@
       <c r="F47" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G47" s="72"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="103"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="85"/>
       <c r="B48" s="42"/>
       <c r="C48" s="39" t="s">
         <v>44</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>131</v>
+        <v>58</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>122</v>
@@ -2916,16 +3308,15 @@
       <c r="F48" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G48" s="72"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" s="103"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="85"/>
       <c r="B49" s="42"/>
       <c r="C49" s="39" t="s">
         <v>44</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>122</v>
@@ -2933,16 +3324,15 @@
       <c r="F49" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G49" s="72"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" s="103"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="85"/>
       <c r="B50" s="42"/>
       <c r="C50" s="39" t="s">
         <v>44</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>122</v>
@@ -2950,16 +3340,15 @@
       <c r="F50" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G50" s="72"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" s="103"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="85"/>
       <c r="B51" s="42"/>
       <c r="C51" s="39" t="s">
         <v>44</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>122</v>
@@ -2967,16 +3356,15 @@
       <c r="F51" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G51" s="72"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" s="103"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="85"/>
       <c r="B52" s="42"/>
       <c r="C52" s="39" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>122</v>
@@ -2984,16 +3372,15 @@
       <c r="F52" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G52" s="72"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53" s="103"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="85"/>
       <c r="B53" s="42"/>
       <c r="C53" s="39" t="s">
         <v>44</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>122</v>
@@ -3001,16 +3388,15 @@
       <c r="F53" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G53" s="72"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" s="103"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="85"/>
       <c r="B54" s="42"/>
       <c r="C54" s="39" t="s">
         <v>44</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>137</v>
+        <v>39</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>122</v>
@@ -3018,16 +3404,15 @@
       <c r="F54" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G54" s="72"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" s="103"/>
-      <c r="B55" s="40"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="85"/>
+      <c r="B55" s="42"/>
       <c r="C55" s="39" t="s">
         <v>44</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>122</v>
@@ -3035,812 +3420,1301 @@
       <c r="F55" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G55" s="72"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" s="103"/>
-      <c r="B56" s="112" t="s">
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="85"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="85"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="85"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="85"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="85"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="85"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="85"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="85"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" s="85"/>
+      <c r="B64" s="40"/>
+      <c r="C64" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A65" s="85"/>
+      <c r="B65" s="136" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="29" t="s">
+      <c r="C65" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="D56" s="29" t="s">
+      <c r="D65" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="E56" s="29" t="s">
+      <c r="E65" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="F56" s="102" t="s">
-        <v>10</v>
-      </c>
-      <c r="G56" s="72"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57" s="103"/>
-      <c r="B57" s="113"/>
-      <c r="C57" s="102" t="s">
+      <c r="F65" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H65" s="107" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A66" s="85"/>
+      <c r="B66" s="137"/>
+      <c r="C66" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="D57" s="102" t="s">
+      <c r="D66" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="E57" s="102" t="s">
+      <c r="E66" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="F57" s="102" t="s">
-        <v>10</v>
-      </c>
-      <c r="G57" s="72"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" s="105"/>
-      <c r="B58" s="114"/>
-      <c r="C58" s="102" t="s">
+      <c r="F66" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H66" s="107" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A67" s="87"/>
+      <c r="B67" s="138"/>
+      <c r="C67" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="D58" s="102" t="s">
+      <c r="D67" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="E58" s="102" t="s">
+      <c r="E67" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="F58" s="102" t="s">
-        <v>7</v>
-      </c>
-      <c r="G58" s="72"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" s="106" t="s">
+      <c r="F67" s="29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A68" s="108" t="s">
         <v>95</v>
       </c>
-      <c r="B59" s="107" t="s">
+      <c r="B68" s="109" t="s">
         <v>97</v>
       </c>
-      <c r="C59" s="108" t="s">
+      <c r="C68" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="D59" s="109" t="s">
+      <c r="D68" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="E59" s="109" t="s">
+      <c r="E68" s="102" t="s">
         <v>98</v>
       </c>
-      <c r="F59" s="109" t="s">
+      <c r="F68" s="102" t="s">
         <v>67</v>
       </c>
-      <c r="G59" s="72"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60" s="110"/>
-      <c r="B60" s="107"/>
-      <c r="C60" s="133" t="s">
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A69" s="110"/>
+      <c r="B69" s="109"/>
+      <c r="C69" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="D60" s="134" t="s">
+      <c r="D69" s="102" t="s">
+        <v>63</v>
+      </c>
+      <c r="E69" s="102" t="s">
+        <v>98</v>
+      </c>
+      <c r="F69" s="133" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A70" s="110"/>
+      <c r="B70" s="109"/>
+      <c r="C70" s="101" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="102" t="s">
         <v>64</v>
       </c>
-      <c r="E60" s="134" t="s">
+      <c r="E70" s="102" t="s">
         <v>64</v>
       </c>
-      <c r="F60" s="109" t="s">
+      <c r="F70" s="102" t="s">
         <v>67</v>
       </c>
-      <c r="G60" s="72"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61" s="110"/>
-      <c r="B61" s="111"/>
-      <c r="C61" s="133" t="s">
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A71" s="110"/>
+      <c r="B71" s="109"/>
+      <c r="C71" s="101" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" s="102" t="s">
+        <v>64</v>
+      </c>
+      <c r="E71" s="102" t="s">
+        <v>64</v>
+      </c>
+      <c r="F71" s="133" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A72" s="111"/>
+      <c r="B72" s="109"/>
+      <c r="C72" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="D61" s="134" t="s">
-        <v>96</v>
-      </c>
-      <c r="E61" s="134" t="s">
+      <c r="D72" s="102" t="s">
+        <v>184</v>
+      </c>
+      <c r="E72" s="102" t="s">
+        <v>64</v>
+      </c>
+      <c r="F72" s="102" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A73" s="111"/>
+      <c r="B73" s="109"/>
+      <c r="C73" s="101" t="s">
+        <v>65</v>
+      </c>
+      <c r="D73" s="102" t="s">
+        <v>184</v>
+      </c>
+      <c r="E73" s="102" t="s">
+        <v>64</v>
+      </c>
+      <c r="F73" s="133" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A74" s="111"/>
+      <c r="B74" s="109"/>
+      <c r="C74" s="101" t="s">
+        <v>65</v>
+      </c>
+      <c r="D74" s="102" t="s">
+        <v>183</v>
+      </c>
+      <c r="E74" s="102" t="s">
         <v>98</v>
       </c>
-      <c r="F61" s="109" t="s">
+      <c r="F74" s="102" t="s">
         <v>67</v>
       </c>
-      <c r="G61" s="72"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" s="121" t="s">
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A75" s="111"/>
+      <c r="B75" s="112"/>
+      <c r="C75" s="101" t="s">
+        <v>65</v>
+      </c>
+      <c r="D75" s="102" t="s">
+        <v>183</v>
+      </c>
+      <c r="E75" s="102" t="s">
+        <v>98</v>
+      </c>
+      <c r="F75" s="133" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A76" s="89" t="s">
         <v>112</v>
       </c>
-      <c r="B62" s="122" t="s">
+      <c r="B76" s="90" t="s">
         <v>116</v>
       </c>
-      <c r="C62" s="62" t="s">
+      <c r="C76" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="D62" s="27" t="s">
+      <c r="D76" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="E62" s="27" t="s">
+      <c r="E76" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="F62" s="27" t="s">
+      <c r="F76" s="134" t="s">
         <v>67</v>
       </c>
-      <c r="G62" s="72"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A63" s="123"/>
-      <c r="B63" s="122"/>
-      <c r="C63" s="62" t="s">
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A77" s="91"/>
+      <c r="B77" s="90"/>
+      <c r="C77" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="D63" s="27" t="s">
+      <c r="D77" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="E63" s="27" t="s">
+      <c r="E77" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="F63" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="G63" s="72"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A64" s="123"/>
-      <c r="B64" s="122"/>
-      <c r="C64" s="62" t="s">
+      <c r="F77" s="27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A78" s="91"/>
+      <c r="B78" s="90"/>
+      <c r="C78" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="D64" s="27" t="s">
+      <c r="D78" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="E64" s="27" t="s">
+      <c r="E78" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="F64" s="27" t="s">
+      <c r="F78" s="134" t="s">
         <v>67</v>
       </c>
-      <c r="G64" s="72"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" s="123"/>
-      <c r="B65" s="122"/>
-      <c r="C65" s="62" t="s">
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A79" s="91"/>
+      <c r="B79" s="90"/>
+      <c r="C79" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="D65" s="27" t="s">
+      <c r="D79" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="E65" s="27" t="s">
+      <c r="E79" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="F65" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="G65" s="72"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" s="123"/>
-      <c r="B66" s="122"/>
-      <c r="C66" s="62" t="s">
+      <c r="F79" s="27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A80" s="91"/>
+      <c r="B80" s="90"/>
+      <c r="C80" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="27" t="s">
+      <c r="D80" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="E66" s="27" t="s">
+      <c r="E80" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="F66" s="27" t="s">
+      <c r="F80" s="134" t="s">
         <v>67</v>
       </c>
-      <c r="G66" s="72"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" s="124"/>
-      <c r="B67" s="122"/>
-      <c r="C67" s="62" t="s">
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" s="92"/>
+      <c r="B81" s="90"/>
+      <c r="C81" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="D67" s="27" t="s">
+      <c r="D81" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="E67" s="27" t="s">
+      <c r="E81" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="F67" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="G67" s="72"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" s="124"/>
-      <c r="B68" s="122"/>
-      <c r="C68" s="62" t="s">
+      <c r="F81" s="27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" s="92"/>
+      <c r="B82" s="90"/>
+      <c r="C82" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="D68" s="27" t="s">
+      <c r="D82" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="E68" s="27" t="s">
+      <c r="E82" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="F68" s="27" t="s">
+      <c r="F82" s="134" t="s">
         <v>67</v>
       </c>
-      <c r="G68" s="72"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A69" s="123"/>
-      <c r="B69" s="122"/>
-      <c r="C69" s="62" t="s">
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" s="91"/>
+      <c r="B83" s="90"/>
+      <c r="C83" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="D69" s="27" t="s">
+      <c r="D83" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="E69" s="27" t="s">
+      <c r="E83" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="F69" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="G69" s="72"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70" s="123"/>
-      <c r="B70" s="122"/>
-      <c r="C70" s="62" t="s">
+      <c r="F83" s="27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" s="91"/>
+      <c r="B84" s="90"/>
+      <c r="C84" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="D70" s="27" t="s">
+      <c r="D84" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="E70" s="27" t="s">
+      <c r="E84" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="F70" s="27" t="s">
+      <c r="F84" s="134" t="s">
         <v>67</v>
       </c>
-      <c r="G70" s="72"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A71" s="123"/>
-      <c r="B71" s="122"/>
-      <c r="C71" s="62" t="s">
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" s="91"/>
+      <c r="B85" s="90"/>
+      <c r="C85" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="D71" s="27" t="s">
+      <c r="D85" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="E71" s="27" t="s">
+      <c r="E85" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="F71" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="G71" s="72"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A72" s="123"/>
-      <c r="B72" s="122"/>
-      <c r="C72" s="62" t="s">
-        <v>72</v>
-      </c>
-      <c r="D72" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="E72" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="F72" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="G72" s="72"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A73" s="123"/>
-      <c r="B73" s="122"/>
-      <c r="C73" s="62" t="s">
-        <v>72</v>
-      </c>
-      <c r="D73" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="E73" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="F73" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="G73" s="72"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" s="123"/>
-      <c r="B74" s="122"/>
-      <c r="C74" s="62" t="s">
-        <v>72</v>
-      </c>
-      <c r="D74" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="E74" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="F74" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="G74" s="72"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A75" s="123"/>
-      <c r="B75" s="122"/>
-      <c r="C75" s="62" t="s">
-        <v>72</v>
-      </c>
-      <c r="D75" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="E75" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="F75" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="G75" s="72"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A76" s="123"/>
-      <c r="B76" s="122"/>
-      <c r="C76" s="62" t="s">
-        <v>72</v>
-      </c>
-      <c r="D76" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E76" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="F76" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="G76" s="72"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A77" s="123"/>
-      <c r="B77" s="122"/>
-      <c r="C77" s="62" t="s">
-        <v>72</v>
-      </c>
-      <c r="D77" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E77" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="F77" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="G77" s="72"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" s="123"/>
-      <c r="B78" s="122"/>
-      <c r="C78" s="62" t="s">
-        <v>72</v>
-      </c>
-      <c r="D78" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="E78" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="F78" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="G78" s="72"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" s="123"/>
-      <c r="B79" s="122"/>
-      <c r="C79" s="62" t="s">
-        <v>72</v>
-      </c>
-      <c r="D79" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="E79" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="F79" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="G79" s="72"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80" s="123"/>
-      <c r="B80" s="122"/>
-      <c r="C80" s="62" t="s">
-        <v>72</v>
-      </c>
-      <c r="D80" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="E80" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="F80" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="G80" s="72"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" s="123"/>
-      <c r="B81" s="122"/>
-      <c r="C81" s="62" t="s">
-        <v>72</v>
-      </c>
-      <c r="D81" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="E81" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="F81" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="G81" s="72"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" s="123"/>
-      <c r="B82" s="122"/>
-      <c r="C82" s="62" t="s">
-        <v>72</v>
-      </c>
-      <c r="D82" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="E82" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="F82" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="G82" s="72"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A83" s="123"/>
-      <c r="B83" s="122"/>
-      <c r="C83" s="62" t="s">
-        <v>72</v>
-      </c>
-      <c r="D83" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="E83" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="F83" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="G83" s="72"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A84" s="123"/>
-      <c r="B84" s="122"/>
-      <c r="C84" s="62" t="s">
-        <v>72</v>
-      </c>
-      <c r="D84" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="E84" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="F84" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="G84" s="72"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A85" s="123"/>
-      <c r="B85" s="122"/>
-      <c r="C85" s="62" t="s">
-        <v>72</v>
-      </c>
-      <c r="D85" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="E85" s="27" t="s">
-        <v>76</v>
-      </c>
       <c r="F85" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="G85" s="72"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A86" s="123"/>
-      <c r="B86" s="122"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" s="91"/>
+      <c r="B86" s="90"/>
       <c r="C86" s="62" t="s">
         <v>72</v>
       </c>
       <c r="D86" s="27" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E86" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="F86" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="F86" s="134" t="s">
         <v>67</v>
       </c>
-      <c r="G86" s="72"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A87" s="123"/>
-      <c r="B87" s="122"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" s="91"/>
+      <c r="B87" s="90"/>
       <c r="C87" s="62" t="s">
         <v>72</v>
       </c>
       <c r="D87" s="27" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E87" s="27" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F87" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="G87" s="72"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A88" s="123"/>
-      <c r="B88" s="122"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" s="91"/>
+      <c r="B88" s="90"/>
       <c r="C88" s="62" t="s">
         <v>72</v>
       </c>
       <c r="D88" s="27" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E88" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="F88" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="F88" s="134" t="s">
         <v>67</v>
       </c>
-      <c r="G88" s="72"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A89" s="123"/>
-      <c r="B89" s="122"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" s="91"/>
+      <c r="B89" s="90"/>
       <c r="C89" s="62" t="s">
         <v>72</v>
       </c>
       <c r="D89" s="27" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E89" s="27" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F89" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="G89" s="72"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A90" s="123"/>
-      <c r="B90" s="122"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" s="91"/>
+      <c r="B90" s="90"/>
       <c r="C90" s="62" t="s">
         <v>72</v>
       </c>
       <c r="D90" s="27" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E90" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="F90" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="F90" s="134" t="s">
         <v>67</v>
       </c>
-      <c r="G90" s="72"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A91" s="123"/>
-      <c r="B91" s="122"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" s="91"/>
+      <c r="B91" s="90"/>
       <c r="C91" s="62" t="s">
         <v>72</v>
       </c>
       <c r="D91" s="27" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E91" s="27" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F91" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="G91" s="72"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A92" s="123"/>
-      <c r="B92" s="122"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92" s="91"/>
+      <c r="B92" s="90"/>
       <c r="C92" s="62" t="s">
         <v>72</v>
       </c>
       <c r="D92" s="27" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="E92" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="F92" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="F92" s="134" t="s">
         <v>67</v>
       </c>
-      <c r="G92" s="72"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A93" s="123"/>
-      <c r="B93" s="122"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93" s="91"/>
+      <c r="B93" s="90"/>
       <c r="C93" s="62" t="s">
         <v>72</v>
       </c>
       <c r="D93" s="27" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="E93" s="27" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="F93" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="G93" s="72"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A94" s="123"/>
-      <c r="B94" s="122"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94" s="91"/>
+      <c r="B94" s="90"/>
       <c r="C94" s="62" t="s">
         <v>72</v>
       </c>
       <c r="D94" s="27" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E94" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="F94" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="F94" s="134" t="s">
         <v>67</v>
       </c>
-      <c r="G94" s="72"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A95" s="123"/>
-      <c r="B95" s="122"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95" s="91"/>
+      <c r="B95" s="90"/>
       <c r="C95" s="62" t="s">
         <v>72</v>
       </c>
       <c r="D95" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="E95" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="F95" s="27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96" s="91"/>
+      <c r="B96" s="90"/>
+      <c r="C96" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="D96" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="E96" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="F96" s="134" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A97" s="91"/>
+      <c r="B97" s="90"/>
+      <c r="C97" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="D97" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="E97" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="F97" s="27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A98" s="91"/>
+      <c r="B98" s="90"/>
+      <c r="C98" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="D98" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="E98" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="F98" s="134" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A99" s="91"/>
+      <c r="B99" s="90"/>
+      <c r="C99" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="D99" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="E99" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="F99" s="27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A100" s="91"/>
+      <c r="B100" s="90"/>
+      <c r="C100" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="D100" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="E100" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="F100" s="134" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A101" s="91"/>
+      <c r="B101" s="90"/>
+      <c r="C101" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="D101" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="E101" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="F101" s="27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A102" s="91"/>
+      <c r="B102" s="90"/>
+      <c r="C102" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="D102" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="E102" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="F102" s="134" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A103" s="91"/>
+      <c r="B103" s="90"/>
+      <c r="C103" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="D103" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="E103" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="F103" s="27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A104" s="91"/>
+      <c r="B104" s="90"/>
+      <c r="C104" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="D104" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E104" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F104" s="134" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A105" s="91"/>
+      <c r="B105" s="90"/>
+      <c r="C105" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="D105" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E105" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F105" s="27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A106" s="91"/>
+      <c r="B106" s="90"/>
+      <c r="C106" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="D106" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="E106" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="F106" s="134" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A107" s="91"/>
+      <c r="B107" s="90"/>
+      <c r="C107" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="D107" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="E107" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="F107" s="27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A108" s="91"/>
+      <c r="B108" s="90"/>
+      <c r="C108" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="D108" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="E95" s="27" t="s">
+      <c r="E108" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="F95" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="G95" s="72"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A96" s="125" t="s">
+      <c r="F108" s="134" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A109" s="91"/>
+      <c r="B109" s="90"/>
+      <c r="C109" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="D109" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="E109" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="F109" s="27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A110" s="91"/>
+      <c r="B110" s="90"/>
+      <c r="C110" s="62" t="s">
+        <v>181</v>
+      </c>
+      <c r="D110" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E110" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="F110" s="134" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A111" s="91"/>
+      <c r="B111" s="90"/>
+      <c r="C111" s="62" t="s">
+        <v>181</v>
+      </c>
+      <c r="D111" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E111" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="F111" s="27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A112" s="91"/>
+      <c r="B112" s="90"/>
+      <c r="C112" s="62" t="s">
+        <v>181</v>
+      </c>
+      <c r="D112" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="E112" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="F112" s="134" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A113" s="91"/>
+      <c r="B113" s="90"/>
+      <c r="C113" s="62" t="s">
+        <v>181</v>
+      </c>
+      <c r="D113" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="E113" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="F113" s="27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A114" s="93" t="s">
         <v>82</v>
       </c>
-      <c r="B96" s="126" t="s">
+      <c r="B114" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="C96" s="127" t="s">
+      <c r="C114" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="D96" s="128" t="s">
+      <c r="D114" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="E96" s="128" t="s">
+      <c r="E114" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="F96" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="G96" s="72"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A97" s="129"/>
-      <c r="B97" s="130"/>
-      <c r="C97" s="127" t="s">
+      <c r="F114" s="135" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A115" s="105"/>
+      <c r="B115" s="98"/>
+      <c r="C115" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="D97" s="128" t="s">
+      <c r="D115" s="96" t="s">
+        <v>83</v>
+      </c>
+      <c r="E115" s="96" t="s">
+        <v>83</v>
+      </c>
+      <c r="F115" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A116" s="97"/>
+      <c r="B116" s="98"/>
+      <c r="C116" s="95" t="s">
+        <v>27</v>
+      </c>
+      <c r="D116" s="96" t="s">
         <v>84</v>
       </c>
-      <c r="E97" s="128" t="s">
+      <c r="E116" s="96" t="s">
         <v>84</v>
       </c>
-      <c r="F97" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="G97" s="72"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A98" s="129"/>
-      <c r="B98" s="130"/>
-      <c r="C98" s="127" t="s">
+      <c r="F116" s="135" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A117" s="97"/>
+      <c r="B117" s="98"/>
+      <c r="C117" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="D98" s="128" t="s">
+      <c r="D117" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="E117" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="F117" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A118" s="97"/>
+      <c r="B118" s="98"/>
+      <c r="C118" s="95" t="s">
+        <v>27</v>
+      </c>
+      <c r="D118" s="96" t="s">
         <v>85</v>
       </c>
-      <c r="E98" s="128" t="s">
+      <c r="E118" s="96" t="s">
         <v>85</v>
       </c>
-      <c r="F98" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="G98" s="72"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A99" s="129"/>
-      <c r="B99" s="130"/>
-      <c r="C99" s="127" t="s">
+      <c r="F118" s="135" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A119" s="97"/>
+      <c r="B119" s="98"/>
+      <c r="C119" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="D99" s="128" t="s">
+      <c r="D119" s="96" t="s">
+        <v>85</v>
+      </c>
+      <c r="E119" s="96" t="s">
+        <v>85</v>
+      </c>
+      <c r="F119" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A120" s="97"/>
+      <c r="B120" s="98"/>
+      <c r="C120" s="95" t="s">
+        <v>27</v>
+      </c>
+      <c r="D120" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="E99" s="128" t="s">
+      <c r="E120" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="F99" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="G99" s="72"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A100" s="131"/>
-      <c r="B100" s="132"/>
-      <c r="C100" s="127" t="s">
+      <c r="F120" s="135" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A121" s="97"/>
+      <c r="B121" s="98"/>
+      <c r="C121" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="D100" s="128" t="s">
+      <c r="D121" s="96" t="s">
+        <v>86</v>
+      </c>
+      <c r="E121" s="96" t="s">
+        <v>86</v>
+      </c>
+      <c r="F121" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A122" s="97"/>
+      <c r="B122" s="98"/>
+      <c r="C122" s="95" t="s">
+        <v>27</v>
+      </c>
+      <c r="D122" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="E100" s="128" t="s">
+      <c r="E122" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="F100" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="G100" s="72"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
+      <c r="F122" s="135" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A123" s="97"/>
+      <c r="B123" s="98"/>
+      <c r="C123" s="95" t="s">
+        <v>27</v>
+      </c>
+      <c r="D123" s="96" t="s">
+        <v>87</v>
+      </c>
+      <c r="E123" s="96" t="s">
+        <v>87</v>
+      </c>
+      <c r="F123" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A124" s="97"/>
+      <c r="B124" s="98"/>
+      <c r="C124" s="95" t="s">
+        <v>181</v>
+      </c>
+      <c r="D124" s="96" t="s">
+        <v>83</v>
+      </c>
+      <c r="E124" s="96" t="s">
+        <v>83</v>
+      </c>
+      <c r="F124" s="135" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A125" s="97"/>
+      <c r="B125" s="98"/>
+      <c r="C125" s="95" t="s">
+        <v>181</v>
+      </c>
+      <c r="D125" s="96" t="s">
+        <v>83</v>
+      </c>
+      <c r="E125" s="96" t="s">
+        <v>83</v>
+      </c>
+      <c r="F125" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A126" s="97"/>
+      <c r="B126" s="98"/>
+      <c r="C126" s="95" t="s">
+        <v>181</v>
+      </c>
+      <c r="D126" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="E126" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="F126" s="135" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A127" s="97"/>
+      <c r="B127" s="98"/>
+      <c r="C127" s="95" t="s">
+        <v>181</v>
+      </c>
+      <c r="D127" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="E127" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="F127" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A128" s="97"/>
+      <c r="B128" s="98"/>
+      <c r="C128" s="95" t="s">
+        <v>181</v>
+      </c>
+      <c r="D128" s="96" t="s">
+        <v>85</v>
+      </c>
+      <c r="E128" s="96" t="s">
+        <v>85</v>
+      </c>
+      <c r="F128" s="135" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A129" s="97"/>
+      <c r="B129" s="98"/>
+      <c r="C129" s="95" t="s">
+        <v>181</v>
+      </c>
+      <c r="D129" s="96" t="s">
+        <v>85</v>
+      </c>
+      <c r="E129" s="96" t="s">
+        <v>85</v>
+      </c>
+      <c r="F129" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A130" s="97"/>
+      <c r="B130" s="98"/>
+      <c r="C130" s="95" t="s">
+        <v>181</v>
+      </c>
+      <c r="D130" s="96" t="s">
+        <v>86</v>
+      </c>
+      <c r="E130" s="96" t="s">
+        <v>86</v>
+      </c>
+      <c r="F130" s="135" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A131" s="97"/>
+      <c r="B131" s="98"/>
+      <c r="C131" s="95" t="s">
+        <v>181</v>
+      </c>
+      <c r="D131" s="96" t="s">
+        <v>86</v>
+      </c>
+      <c r="E131" s="96" t="s">
+        <v>86</v>
+      </c>
+      <c r="F131" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A132" s="97"/>
+      <c r="B132" s="98"/>
+      <c r="C132" s="95" t="s">
+        <v>181</v>
+      </c>
+      <c r="D132" s="96" t="s">
+        <v>87</v>
+      </c>
+      <c r="E132" s="96" t="s">
+        <v>87</v>
+      </c>
+      <c r="F132" s="135" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A133" s="99"/>
+      <c r="B133" s="100"/>
+      <c r="C133" s="95" t="s">
+        <v>181</v>
+      </c>
+      <c r="D133" s="96" t="s">
+        <v>87</v>
+      </c>
+      <c r="E133" s="96" t="s">
+        <v>87</v>
+      </c>
+      <c r="F133" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A106" s="33" t="s">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A139" s="33" t="s">
         <v>113</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="B65:B67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G106"/>
   <sheetViews>
@@ -4816,7 +5690,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="38"/>
-      <c r="B56" s="115" t="s">
+      <c r="B56" s="139" t="s">
         <v>59</v>
       </c>
       <c r="C56" s="5" t="s">
@@ -4835,7 +5709,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="38"/>
-      <c r="B57" s="116"/>
+      <c r="B57" s="140"/>
       <c r="C57" s="5" t="s">
         <v>60</v>
       </c>
@@ -4852,7 +5726,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="10"/>
-      <c r="B58" s="117"/>
+      <c r="B58" s="141"/>
       <c r="C58" s="5" t="s">
         <v>60</v>
       </c>

--- a/data/infrastructure/Supplementary table overview infra types.xlsx
+++ b/data/infrastructure/Supplementary table overview infra types.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\gmhcira\data\infrastructure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE0DE05-6855-49B3-AAD3-783A4EA7F609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE10C25-0369-41FA-829C-DEF69731F9EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Infrastructure categorizati 1" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="197">
   <si>
     <t>Key</t>
   </si>
@@ -143,9 +143,6 @@
     <t>Transportation</t>
   </si>
   <si>
-    <t>Railway</t>
-  </si>
-  <si>
     <t>railway</t>
   </si>
   <si>
@@ -218,18 +215,12 @@
     <t>living_street</t>
   </si>
   <si>
-    <t>Airports</t>
-  </si>
-  <si>
     <t>aeroway</t>
   </si>
   <si>
     <t>aerodome</t>
   </si>
   <si>
-    <t>airports</t>
-  </si>
-  <si>
     <t>communications_tower</t>
   </si>
   <si>
@@ -323,9 +314,6 @@
     <t>service</t>
   </si>
   <si>
-    <t>Railways</t>
-  </si>
-  <si>
     <t>Telecommunication</t>
   </si>
   <si>
@@ -615,6 +603,33 @@
   </si>
   <si>
     <t>I have included potrals as well. A tower type having two (or more) vertical structures connected by a horizontal cross-beam. All conductors are supported between the vertical structures (unlike the h-frame tower). This design is mostly used as termination tower at substations. It can also be used if a line intersects with other power lines. https://wiki.openstreetmap.org/wiki/Tag%3Apower%3Dportal</t>
+  </si>
+  <si>
+    <t>Checked assumptions file, asset-osm and database match, run and check output files</t>
+  </si>
+  <si>
+    <t>Rail</t>
+  </si>
+  <si>
+    <t>Air</t>
+  </si>
+  <si>
+    <t>distribution line</t>
+  </si>
+  <si>
+    <t>transmission line</t>
+  </si>
+  <si>
+    <t>wastewater treatment plant</t>
+  </si>
+  <si>
+    <t>Pay attention: risk estimates are absurd. Implement function to divide construction costs over area and then perform risk assessment. I think this is the issue. See _check file in results</t>
+  </si>
+  <si>
+    <t>Datatype***</t>
+  </si>
+  <si>
+    <t>***Multiple datatypes are available for certain infrastructures. After extracting, we transform the spatial data for a certain infrastructure to one preference datatype. The non-preference datatype is provided in italics. For example, point and polygon data are available for buildings, we extract them both, check for duplicates and transform points to polygons</t>
   </si>
 </sst>
 </file>
@@ -890,7 +905,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1039,6 +1054,8 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1079,16 +1096,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>933450</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>18041</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>94241</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>135019</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>5959</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>68344</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85334</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1111,8 +1128,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7702550" y="754641"/>
-          <a:ext cx="6345319" cy="1645268"/>
+          <a:off x="8543925" y="1237241"/>
+          <a:ext cx="6297694" cy="1702418"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1387,10 +1404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE345391-B6D9-4F27-9229-00F11F114F62}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A3" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1400,71 +1417,83 @@
     <col min="3" max="3" width="26.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D2" s="76"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="14"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+      <c r="D3" s="76"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="14"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+      <c r="D4" s="76"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="14"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+      <c r="D5" s="76"/>
+      <c r="E5" s="75"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="14"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+      <c r="D6" s="76"/>
+      <c r="E6" s="75"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="14"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="D7" s="76"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="14"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="D8" s="76"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
@@ -1474,36 +1503,43 @@
       <c r="C9" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D9" s="76"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="12"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D10" s="76"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="12"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D11" s="76"/>
+      <c r="E11" s="75"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="12"/>
       <c r="B12" s="3"/>
       <c r="C12" s="119" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+        <v>155</v>
+      </c>
+      <c r="D12" s="76"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="12"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="D13" s="76"/>
+      <c r="E13" s="75"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>24</v>
       </c>
@@ -1511,240 +1547,275 @@
         <v>25</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+      <c r="D14" s="76"/>
+      <c r="E14" s="75"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="11"/>
       <c r="B15" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+        <v>193</v>
+      </c>
+      <c r="D15" s="76"/>
+      <c r="E15" s="75" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>94</v>
+        <v>189</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+      <c r="D16" s="76"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="10"/>
       <c r="B17" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+      <c r="D17" s="76"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="10"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+      <c r="D18" s="76"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="10"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+      <c r="D19" s="76"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="10"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+      <c r="D20" s="76"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+      <c r="D21" s="76"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="10"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+      <c r="D22" s="76"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="10"/>
       <c r="B23" s="5" t="s">
-        <v>59</v>
+        <v>190</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+      <c r="D23" s="76"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="10"/>
       <c r="B24" s="39"/>
       <c r="C24" s="88" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+      <c r="D24" s="76"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="10"/>
       <c r="B25" s="39"/>
       <c r="C25" s="88" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+        <v>135</v>
+      </c>
+      <c r="D25" s="76"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="16" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B26" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C26" s="15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D26" s="76"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="28"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+      <c r="D27" s="76"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="17" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+      <c r="D28" s="76"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="18"/>
       <c r="B29" s="20"/>
       <c r="C29" s="20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+      <c r="D29" s="76"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="18"/>
       <c r="B30" s="20"/>
       <c r="C30" s="20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+      <c r="D30" s="76"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="18"/>
       <c r="B31" s="20"/>
       <c r="C31" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+      <c r="D31" s="76"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="18"/>
       <c r="B32" s="20"/>
       <c r="C32" s="20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+      <c r="D32" s="76"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="26"/>
       <c r="B33" s="20"/>
       <c r="C33" s="20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+      <c r="D33" s="76"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="26"/>
       <c r="B34" s="20"/>
       <c r="C34" s="20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+      <c r="D34" s="76"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="18"/>
       <c r="B35" s="20"/>
       <c r="C35" s="20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+      <c r="D35" s="76"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="18"/>
       <c r="B36" s="20"/>
       <c r="C36" s="20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+      <c r="D36" s="76"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="18"/>
       <c r="B37" s="20"/>
       <c r="C37" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+      <c r="D37" s="76"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="18"/>
       <c r="B38" s="20"/>
       <c r="C38" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="D38" s="76"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="71"/>
       <c r="B39" s="20"/>
       <c r="C39" s="20" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+      <c r="D39" s="76"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="21" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+      <c r="D40" s="76"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="24"/>
       <c r="B41" s="22"/>
       <c r="C41" s="23" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+      <c r="D41" s="76"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="24"/>
       <c r="B42" s="22"/>
       <c r="C42" s="23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+      <c r="D42" s="76"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="24"/>
       <c r="B43" s="22"/>
       <c r="C43" s="23" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+      <c r="D43" s="76"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="36"/>
       <c r="B44" s="22"/>
       <c r="C44" s="23" t="s">
-        <v>87</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D44" s="76"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1756,8 +1827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView zoomScale="73" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1772,31 +1843,31 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -1804,7 +1875,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
@@ -1814,10 +1885,10 @@
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="I2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -1835,38 +1906,38 @@
       <c r="A4" s="14"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D4" s="76"/>
       <c r="E4" t="s">
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="14"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D5" s="76"/>
       <c r="E5" t="s">
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="14"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D6" s="76"/>
       <c r="E6" t="s">
@@ -1877,31 +1948,31 @@
       <c r="A7" s="14"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D7" s="76"/>
       <c r="E7" t="s">
         <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="14"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D8" s="76"/>
       <c r="E8" t="s">
         <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -1916,16 +1987,16 @@
       </c>
       <c r="D9" s="76"/>
       <c r="E9" t="s">
+        <v>154</v>
+      </c>
+      <c r="F9" t="s">
+        <v>174</v>
+      </c>
+      <c r="G9" t="s">
         <v>158</v>
       </c>
-      <c r="F9" t="s">
-        <v>178</v>
-      </c>
-      <c r="G9" t="s">
-        <v>162</v>
-      </c>
       <c r="I9" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -1936,10 +2007,10 @@
       </c>
       <c r="D10" s="78"/>
       <c r="E10" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I10" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -1950,36 +2021,36 @@
       </c>
       <c r="D11" s="76"/>
       <c r="E11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F11" t="s">
+        <v>157</v>
+      </c>
+      <c r="G11" t="s">
         <v>158</v>
       </c>
-      <c r="F11" t="s">
-        <v>161</v>
-      </c>
-      <c r="G11" t="s">
-        <v>162</v>
-      </c>
       <c r="I11" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="12"/>
       <c r="B12" s="3"/>
       <c r="C12" s="77" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D12" s="76"/>
       <c r="E12" t="s">
+        <v>154</v>
+      </c>
+      <c r="F12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G12" t="s">
         <v>158</v>
       </c>
-      <c r="F12" t="s">
-        <v>160</v>
-      </c>
-      <c r="G12" t="s">
-        <v>162</v>
-      </c>
       <c r="I12" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
@@ -1990,16 +2061,16 @@
       </c>
       <c r="D13" s="76"/>
       <c r="E13" t="s">
+        <v>154</v>
+      </c>
+      <c r="F13" t="s">
+        <v>161</v>
+      </c>
+      <c r="G13" t="s">
         <v>158</v>
       </c>
-      <c r="F13" t="s">
-        <v>165</v>
-      </c>
-      <c r="G13" t="s">
-        <v>162</v>
-      </c>
       <c r="I13" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -2010,10 +2081,10 @@
       </c>
       <c r="D14" s="75"/>
       <c r="I14" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J14" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
@@ -2028,18 +2099,18 @@
       </c>
       <c r="D15" s="75"/>
       <c r="J15" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="11"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D16" s="76"/>
       <c r="J16" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
@@ -2048,11 +2119,11 @@
         <v>30</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D17" s="76"/>
       <c r="E17" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
@@ -2060,39 +2131,39 @@
         <v>33</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>94</v>
+        <v>189</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" s="76"/>
       <c r="E18" s="76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F18" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I18" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="J18" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="10"/>
       <c r="B19" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="76"/>
       <c r="E19" s="76" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F19" s="76" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G19" s="76"/>
     </row>
@@ -2100,14 +2171,14 @@
       <c r="A20" s="10"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D20" s="76"/>
       <c r="E20" s="76" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F20" s="76" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G20" s="76"/>
     </row>
@@ -2115,14 +2186,14 @@
       <c r="A21" s="10"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D21" s="76"/>
       <c r="E21" s="76" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F21" s="76" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G21" s="76"/>
     </row>
@@ -2130,14 +2201,14 @@
       <c r="A22" s="10"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D22" s="76"/>
       <c r="E22" s="76" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F22" s="76" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G22" s="76"/>
     </row>
@@ -2145,14 +2216,14 @@
       <c r="A23" s="10"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D23" s="76"/>
       <c r="E23" s="76" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F23" s="76" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G23" s="76"/>
     </row>
@@ -2160,337 +2231,337 @@
       <c r="A24" s="10"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D24" s="76"/>
       <c r="E24" s="76" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F24" s="76" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G24" s="76"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="10"/>
       <c r="B25" s="5" t="s">
-        <v>59</v>
+        <v>190</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D25" s="76"/>
       <c r="E25" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H25" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="10"/>
       <c r="B26" s="39"/>
       <c r="C26" s="88" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D26" s="76"/>
       <c r="F26" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="10"/>
       <c r="B27" s="39"/>
       <c r="C27" s="88" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D27" s="76"/>
       <c r="F27" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="16" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B28" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="15" t="s">
         <v>97</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>101</v>
       </c>
       <c r="D28" s="76"/>
       <c r="E28" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F28" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G28" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="28"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D29" s="76"/>
       <c r="E29" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F29" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G29" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="17" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D30" s="76"/>
       <c r="E30" s="76" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F30" s="76" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="18"/>
       <c r="B31" s="20"/>
       <c r="C31" s="20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D31" s="76"/>
       <c r="E31" s="76" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F31" s="76" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="18"/>
       <c r="B32" s="20"/>
       <c r="C32" s="20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D32" s="76"/>
       <c r="E32" s="76" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F32" s="76" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="18"/>
       <c r="B33" s="20"/>
       <c r="C33" s="20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D33" s="76"/>
       <c r="E33" s="76" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F33" s="76" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="18"/>
       <c r="B34" s="20"/>
       <c r="C34" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D34" s="76"/>
       <c r="E34" s="76" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F34" s="76" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="26"/>
       <c r="B35" s="20"/>
       <c r="C35" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D35" s="76"/>
       <c r="E35" s="76" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F35" s="76" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="26"/>
       <c r="B36" s="20"/>
       <c r="C36" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D36" s="76"/>
       <c r="E36" s="76" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F36" s="76" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="18"/>
       <c r="B37" s="20"/>
       <c r="C37" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D37" s="76"/>
       <c r="E37" s="76" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F37" s="76" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="18"/>
       <c r="B38" s="20"/>
       <c r="C38" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D38" s="76"/>
       <c r="E38" s="76" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F38" s="76" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="18"/>
       <c r="B39" s="20"/>
       <c r="C39" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D39" s="76"/>
       <c r="E39" s="76" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F39" s="76" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="18"/>
       <c r="B40" s="20"/>
       <c r="C40" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D40" s="76"/>
       <c r="E40" s="76" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F40" s="76" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="71"/>
       <c r="B41" s="20"/>
       <c r="C41" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D41" s="76"/>
       <c r="E41" s="76" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F41" s="76" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="21" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D42" s="76"/>
       <c r="E42" s="76" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F42" s="76" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="24"/>
       <c r="B43" s="22"/>
       <c r="C43" s="23" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D43" s="76"/>
       <c r="E43" s="76" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F43" s="76" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="24"/>
       <c r="B44" s="22"/>
       <c r="C44" s="23" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D44" s="76"/>
       <c r="E44" s="76" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F44" s="76" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="24"/>
       <c r="B45" s="22"/>
       <c r="C45" s="23" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D45" s="76"/>
       <c r="E45" s="76" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F45" s="76" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="36"/>
       <c r="B46" s="22"/>
       <c r="C46" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D46" s="76"/>
       <c r="E46" s="76" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F46" s="76" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -2501,10 +2572,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E2940CB-9910-40F3-B196-B478C6ED3C8D}">
-  <dimension ref="A1:H139"/>
+  <dimension ref="A1:H140"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="H3:I3"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2530,10 +2601,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>105</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -2554,7 +2625,7 @@
         <v>7</v>
       </c>
       <c r="H2" s="130" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -2564,7 +2635,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E3" s="25" t="s">
         <v>6</v>
@@ -2583,7 +2654,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>8</v>
+        <v>192</v>
       </c>
       <c r="F4" s="25" t="s">
         <v>7</v>
@@ -2599,7 +2670,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>110</v>
+        <v>191</v>
       </c>
       <c r="F5" s="25" t="s">
         <v>7</v>
@@ -2612,13 +2683,13 @@
         <v>5</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F6" s="131" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -2628,10 +2699,10 @@
         <v>5</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F7" s="25" t="s">
         <v>10</v>
@@ -2644,13 +2715,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>188</v>
+        <v>104</v>
       </c>
       <c r="F8" s="131" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -2660,10 +2731,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>188</v>
+        <v>104</v>
       </c>
       <c r="F9" s="25" t="s">
         <v>10</v>
@@ -2676,13 +2747,13 @@
         <v>5</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F10" s="131" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
@@ -2692,10 +2763,10 @@
         <v>5</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F11" s="25" t="s">
         <v>10</v>
@@ -2708,13 +2779,13 @@
         <v>5</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F12" s="131" t="s">
-        <v>119</v>
+        <v>113</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -2724,12 +2795,12 @@
         <v>5</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F13" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="F13" s="131" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2740,13 +2811,13 @@
         <v>5</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="F14" s="131" t="s">
-        <v>119</v>
+        <v>114</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
@@ -2756,12 +2827,12 @@
         <v>5</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="F15" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="F15" s="131" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2772,28 +2843,28 @@
         <v>5</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F16" s="131" t="s">
-        <v>119</v>
+        <v>113</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="79"/>
       <c r="B17" s="132"/>
-      <c r="C17" s="129" t="s">
+      <c r="C17" s="25" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F17" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="131" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2814,7 +2885,7 @@
         <v>15</v>
       </c>
       <c r="F18" s="119" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -2829,7 +2900,7 @@
       <c r="E19" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="119" t="s">
+      <c r="F19" s="137" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2846,7 +2917,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="119" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -2861,7 +2932,7 @@
       <c r="E21" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="119" t="s">
+      <c r="F21" s="137" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2877,8 +2948,8 @@
       <c r="E22" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="119" t="s">
-        <v>119</v>
+      <c r="F22" s="137" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
@@ -2907,10 +2978,10 @@
         <v>20</v>
       </c>
       <c r="E24" s="119" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="119" t="s">
-        <v>119</v>
+        <v>32</v>
+      </c>
+      <c r="F24" s="137" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
@@ -2923,7 +2994,7 @@
         <v>20</v>
       </c>
       <c r="E25" s="119" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F25" s="119" t="s">
         <v>10</v>
@@ -2933,31 +3004,31 @@
       <c r="A26" s="82"/>
       <c r="B26" s="81"/>
       <c r="C26" s="118" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D26" s="119" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E26" s="119" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F26" s="119" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="82"/>
       <c r="B27" s="122"/>
       <c r="C27" s="119" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D27" s="119" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E27" s="119" t="s">
-        <v>185</v>
-      </c>
-      <c r="F27" s="119" t="s">
+        <v>181</v>
+      </c>
+      <c r="F27" s="137" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2975,10 +3046,10 @@
         <v>28</v>
       </c>
       <c r="E28" s="103" t="s">
-        <v>103</v>
-      </c>
-      <c r="F28" s="103" t="s">
-        <v>119</v>
+        <v>99</v>
+      </c>
+      <c r="F28" s="136" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
@@ -2991,7 +3062,7 @@
         <v>28</v>
       </c>
       <c r="E29" s="103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F29" s="103" t="s">
         <v>10</v>
@@ -3009,10 +3080,10 @@
         <v>31</v>
       </c>
       <c r="E30" s="103" t="s">
-        <v>32</v>
-      </c>
-      <c r="F30" s="103" t="s">
-        <v>119</v>
+        <v>193</v>
+      </c>
+      <c r="F30" s="136" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
@@ -3025,7 +3096,7 @@
         <v>31</v>
       </c>
       <c r="E31" s="103" t="s">
-        <v>32</v>
+        <v>193</v>
       </c>
       <c r="F31" s="103" t="s">
         <v>10</v>
@@ -3036,16 +3107,16 @@
         <v>33</v>
       </c>
       <c r="B32" s="104" t="s">
+        <v>189</v>
+      </c>
+      <c r="C32" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="88" t="s">
+      <c r="D32" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="29" t="s">
-        <v>36</v>
-      </c>
       <c r="E32" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F32" s="29" t="s">
         <v>7</v>
@@ -3055,13 +3126,13 @@
       <c r="A33" s="85"/>
       <c r="B33" s="86"/>
       <c r="C33" s="88" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E33" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F33" s="29" t="s">
         <v>7</v>
@@ -3070,16 +3141,16 @@
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="85"/>
       <c r="B34" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="39" t="s">
+      <c r="D34" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="E34" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>7</v>
@@ -3089,13 +3160,13 @@
       <c r="A35" s="85"/>
       <c r="B35" s="42"/>
       <c r="C35" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>7</v>
@@ -3105,13 +3176,13 @@
       <c r="A36" s="85"/>
       <c r="B36" s="42"/>
       <c r="C36" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E36" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>7</v>
@@ -3121,13 +3192,13 @@
       <c r="A37" s="85"/>
       <c r="B37" s="42"/>
       <c r="C37" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>7</v>
@@ -3137,13 +3208,13 @@
       <c r="A38" s="85"/>
       <c r="B38" s="42"/>
       <c r="C38" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>7</v>
@@ -3153,13 +3224,13 @@
       <c r="A39" s="85"/>
       <c r="B39" s="42"/>
       <c r="C39" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>7</v>
@@ -3169,13 +3240,13 @@
       <c r="A40" s="85"/>
       <c r="B40" s="42"/>
       <c r="C40" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>7</v>
@@ -3185,13 +3256,13 @@
       <c r="A41" s="85"/>
       <c r="B41" s="42"/>
       <c r="C41" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>7</v>
@@ -3201,13 +3272,13 @@
       <c r="A42" s="85"/>
       <c r="B42" s="42"/>
       <c r="C42" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>7</v>
@@ -3217,13 +3288,13 @@
       <c r="A43" s="85"/>
       <c r="B43" s="42"/>
       <c r="C43" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>7</v>
@@ -3233,13 +3304,13 @@
       <c r="A44" s="85"/>
       <c r="B44" s="42"/>
       <c r="C44" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>7</v>
@@ -3249,13 +3320,13 @@
       <c r="A45" s="85"/>
       <c r="B45" s="42"/>
       <c r="C45" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>7</v>
@@ -3265,13 +3336,13 @@
       <c r="A46" s="85"/>
       <c r="B46" s="42"/>
       <c r="C46" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>7</v>
@@ -3281,13 +3352,13 @@
       <c r="A47" s="85"/>
       <c r="B47" s="42"/>
       <c r="C47" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>7</v>
@@ -3297,13 +3368,13 @@
       <c r="A48" s="85"/>
       <c r="B48" s="42"/>
       <c r="C48" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>7</v>
@@ -3313,13 +3384,13 @@
       <c r="A49" s="85"/>
       <c r="B49" s="42"/>
       <c r="C49" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>7</v>
@@ -3329,13 +3400,13 @@
       <c r="A50" s="85"/>
       <c r="B50" s="42"/>
       <c r="C50" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>7</v>
@@ -3345,13 +3416,13 @@
       <c r="A51" s="85"/>
       <c r="B51" s="42"/>
       <c r="C51" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>7</v>
@@ -3361,13 +3432,13 @@
       <c r="A52" s="85"/>
       <c r="B52" s="42"/>
       <c r="C52" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>7</v>
@@ -3377,13 +3448,13 @@
       <c r="A53" s="85"/>
       <c r="B53" s="42"/>
       <c r="C53" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>7</v>
@@ -3393,13 +3464,13 @@
       <c r="A54" s="85"/>
       <c r="B54" s="42"/>
       <c r="C54" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>7</v>
@@ -3409,13 +3480,13 @@
       <c r="A55" s="85"/>
       <c r="B55" s="42"/>
       <c r="C55" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>7</v>
@@ -3425,13 +3496,13 @@
       <c r="A56" s="85"/>
       <c r="B56" s="42"/>
       <c r="C56" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>7</v>
@@ -3441,13 +3512,13 @@
       <c r="A57" s="85"/>
       <c r="B57" s="42"/>
       <c r="C57" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>7</v>
@@ -3457,13 +3528,13 @@
       <c r="A58" s="85"/>
       <c r="B58" s="42"/>
       <c r="C58" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>7</v>
@@ -3473,13 +3544,13 @@
       <c r="A59" s="85"/>
       <c r="B59" s="42"/>
       <c r="C59" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>7</v>
@@ -3489,13 +3560,13 @@
       <c r="A60" s="85"/>
       <c r="B60" s="42"/>
       <c r="C60" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>7</v>
@@ -3505,13 +3576,13 @@
       <c r="A61" s="85"/>
       <c r="B61" s="42"/>
       <c r="C61" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>7</v>
@@ -3521,13 +3592,13 @@
       <c r="A62" s="85"/>
       <c r="B62" s="42"/>
       <c r="C62" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>7</v>
@@ -3537,13 +3608,13 @@
       <c r="A63" s="85"/>
       <c r="B63" s="42"/>
       <c r="C63" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>7</v>
@@ -3553,13 +3624,13 @@
       <c r="A64" s="85"/>
       <c r="B64" s="40"/>
       <c r="C64" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>7</v>
@@ -3567,55 +3638,55 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="85"/>
-      <c r="B65" s="136" t="s">
+      <c r="B65" s="138" t="s">
+        <v>190</v>
+      </c>
+      <c r="C65" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D65" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="C65" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D65" s="29" t="s">
-        <v>61</v>
-      </c>
       <c r="E65" s="29" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="F65" s="29" t="s">
         <v>10</v>
       </c>
       <c r="H65" s="107" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="85"/>
-      <c r="B66" s="137"/>
+      <c r="B66" s="139"/>
       <c r="C66" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D66" s="29" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E66" s="29" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F66" s="29" t="s">
         <v>10</v>
       </c>
       <c r="H66" s="107" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="87"/>
-      <c r="B67" s="138"/>
+      <c r="B67" s="140"/>
       <c r="C67" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D67" s="29" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E67" s="29" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F67" s="29" t="s">
         <v>7</v>
@@ -3623,22 +3694,22 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="108" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B68" s="109" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C68" s="101" t="s">
         <v>11</v>
       </c>
       <c r="D68" s="102" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E68" s="102" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F68" s="102" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
@@ -3648,10 +3719,10 @@
         <v>11</v>
       </c>
       <c r="D69" s="102" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E69" s="102" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F69" s="133" t="s">
         <v>10</v>
@@ -3664,13 +3735,13 @@
         <v>11</v>
       </c>
       <c r="D70" s="102" t="s">
+        <v>61</v>
+      </c>
+      <c r="E70" s="102" t="s">
+        <v>61</v>
+      </c>
+      <c r="F70" s="102" t="s">
         <v>64</v>
-      </c>
-      <c r="E70" s="102" t="s">
-        <v>64</v>
-      </c>
-      <c r="F70" s="102" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
@@ -3680,10 +3751,10 @@
         <v>11</v>
       </c>
       <c r="D71" s="102" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E71" s="102" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F71" s="133" t="s">
         <v>10</v>
@@ -3693,29 +3764,29 @@
       <c r="A72" s="111"/>
       <c r="B72" s="109"/>
       <c r="C72" s="101" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D72" s="102" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E72" s="102" t="s">
+        <v>61</v>
+      </c>
+      <c r="F72" s="102" t="s">
         <v>64</v>
-      </c>
-      <c r="F72" s="102" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="111"/>
       <c r="B73" s="109"/>
       <c r="C73" s="101" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D73" s="102" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E73" s="102" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F73" s="133" t="s">
         <v>10</v>
@@ -3725,29 +3796,29 @@
       <c r="A74" s="111"/>
       <c r="B74" s="109"/>
       <c r="C74" s="101" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D74" s="102" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E74" s="102" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F74" s="102" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="111"/>
       <c r="B75" s="112"/>
       <c r="C75" s="101" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D75" s="102" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E75" s="102" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F75" s="133" t="s">
         <v>10</v>
@@ -3755,22 +3826,22 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="89" t="s">
+        <v>108</v>
+      </c>
+      <c r="B76" s="90" t="s">
         <v>112</v>
-      </c>
-      <c r="B76" s="90" t="s">
-        <v>116</v>
       </c>
       <c r="C76" s="62" t="s">
         <v>27</v>
       </c>
       <c r="D76" s="27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E76" s="27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F76" s="134" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
@@ -3780,10 +3851,10 @@
         <v>27</v>
       </c>
       <c r="D77" s="27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E77" s="27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F77" s="27" t="s">
         <v>10</v>
@@ -3796,13 +3867,13 @@
         <v>27</v>
       </c>
       <c r="D78" s="27" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E78" s="27" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F78" s="134" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.35">
@@ -3812,10 +3883,10 @@
         <v>27</v>
       </c>
       <c r="D79" s="27" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E79" s="27" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F79" s="27" t="s">
         <v>10</v>
@@ -3828,13 +3899,13 @@
         <v>27</v>
       </c>
       <c r="D80" s="27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E80" s="27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F80" s="134" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
@@ -3844,10 +3915,10 @@
         <v>27</v>
       </c>
       <c r="D81" s="27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E81" s="27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F81" s="27" t="s">
         <v>10</v>
@@ -3860,13 +3931,13 @@
         <v>27</v>
       </c>
       <c r="D82" s="27" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E82" s="27" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F82" s="134" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
@@ -3876,10 +3947,10 @@
         <v>27</v>
       </c>
       <c r="D83" s="27" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E83" s="27" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F83" s="27" t="s">
         <v>10</v>
@@ -3892,13 +3963,13 @@
         <v>27</v>
       </c>
       <c r="D84" s="27" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E84" s="27" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F84" s="134" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
@@ -3908,10 +3979,10 @@
         <v>27</v>
       </c>
       <c r="D85" s="27" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E85" s="27" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F85" s="27" t="s">
         <v>10</v>
@@ -3921,29 +3992,29 @@
       <c r="A86" s="91"/>
       <c r="B86" s="90"/>
       <c r="C86" s="62" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D86" s="27" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E86" s="27" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F86" s="134" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="91"/>
       <c r="B87" s="90"/>
       <c r="C87" s="62" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D87" s="27" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E87" s="27" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F87" s="27" t="s">
         <v>10</v>
@@ -3953,29 +4024,29 @@
       <c r="A88" s="91"/>
       <c r="B88" s="90"/>
       <c r="C88" s="62" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D88" s="27" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E88" s="27" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F88" s="134" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="91"/>
       <c r="B89" s="90"/>
       <c r="C89" s="62" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D89" s="27" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E89" s="27" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F89" s="27" t="s">
         <v>10</v>
@@ -3985,29 +4056,29 @@
       <c r="A90" s="91"/>
       <c r="B90" s="90"/>
       <c r="C90" s="62" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D90" s="27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E90" s="27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F90" s="134" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="91"/>
       <c r="B91" s="90"/>
       <c r="C91" s="62" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D91" s="27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E91" s="27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F91" s="27" t="s">
         <v>10</v>
@@ -4017,29 +4088,29 @@
       <c r="A92" s="91"/>
       <c r="B92" s="90"/>
       <c r="C92" s="62" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D92" s="27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E92" s="27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F92" s="134" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="91"/>
       <c r="B93" s="90"/>
       <c r="C93" s="62" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D93" s="27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E93" s="27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F93" s="27" t="s">
         <v>10</v>
@@ -4049,29 +4120,29 @@
       <c r="A94" s="91"/>
       <c r="B94" s="90"/>
       <c r="C94" s="62" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D94" s="27" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E94" s="27" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F94" s="134" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="91"/>
       <c r="B95" s="90"/>
       <c r="C95" s="62" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D95" s="27" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E95" s="27" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F95" s="27" t="s">
         <v>10</v>
@@ -4081,29 +4152,29 @@
       <c r="A96" s="91"/>
       <c r="B96" s="90"/>
       <c r="C96" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="D96" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="D96" s="27" t="s">
-        <v>75</v>
-      </c>
       <c r="E96" s="27" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F96" s="134" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="91"/>
       <c r="B97" s="90"/>
       <c r="C97" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="D97" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="D97" s="27" t="s">
-        <v>75</v>
-      </c>
       <c r="E97" s="27" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F97" s="27" t="s">
         <v>10</v>
@@ -4113,29 +4184,29 @@
       <c r="A98" s="91"/>
       <c r="B98" s="90"/>
       <c r="C98" s="62" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D98" s="27" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E98" s="27" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F98" s="134" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="91"/>
       <c r="B99" s="90"/>
       <c r="C99" s="62" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D99" s="27" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E99" s="27" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F99" s="27" t="s">
         <v>10</v>
@@ -4145,29 +4216,29 @@
       <c r="A100" s="91"/>
       <c r="B100" s="90"/>
       <c r="C100" s="62" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D100" s="27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E100" s="27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F100" s="134" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="91"/>
       <c r="B101" s="90"/>
       <c r="C101" s="62" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D101" s="27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E101" s="27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F101" s="27" t="s">
         <v>10</v>
@@ -4177,29 +4248,29 @@
       <c r="A102" s="91"/>
       <c r="B102" s="90"/>
       <c r="C102" s="62" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D102" s="27" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E102" s="27" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F102" s="134" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="91"/>
       <c r="B103" s="90"/>
       <c r="C103" s="62" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D103" s="27" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E103" s="27" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F103" s="27" t="s">
         <v>10</v>
@@ -4209,29 +4280,29 @@
       <c r="A104" s="91"/>
       <c r="B104" s="90"/>
       <c r="C104" s="62" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D104" s="27" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E104" s="27" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F104" s="134" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="91"/>
       <c r="B105" s="90"/>
       <c r="C105" s="62" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D105" s="27" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E105" s="27" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F105" s="27" t="s">
         <v>10</v>
@@ -4241,29 +4312,29 @@
       <c r="A106" s="91"/>
       <c r="B106" s="90"/>
       <c r="C106" s="62" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D106" s="27" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E106" s="27" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F106" s="134" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="91"/>
       <c r="B107" s="90"/>
       <c r="C107" s="62" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D107" s="27" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E107" s="27" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F107" s="27" t="s">
         <v>10</v>
@@ -4273,29 +4344,29 @@
       <c r="A108" s="91"/>
       <c r="B108" s="90"/>
       <c r="C108" s="62" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D108" s="27" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E108" s="27" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F108" s="134" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="91"/>
       <c r="B109" s="90"/>
       <c r="C109" s="62" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D109" s="27" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E109" s="27" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F109" s="27" t="s">
         <v>10</v>
@@ -4305,29 +4376,29 @@
       <c r="A110" s="91"/>
       <c r="B110" s="90"/>
       <c r="C110" s="62" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D110" s="27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E110" s="27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F110" s="134" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="91"/>
       <c r="B111" s="90"/>
       <c r="C111" s="62" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D111" s="27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E111" s="27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F111" s="27" t="s">
         <v>10</v>
@@ -4337,29 +4408,29 @@
       <c r="A112" s="91"/>
       <c r="B112" s="90"/>
       <c r="C112" s="62" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D112" s="27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E112" s="27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F112" s="134" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="91"/>
       <c r="B113" s="90"/>
       <c r="C113" s="62" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D113" s="27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E113" s="27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F113" s="27" t="s">
         <v>10</v>
@@ -4367,22 +4438,22 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="93" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B114" s="94" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C114" s="95" t="s">
         <v>27</v>
       </c>
       <c r="D114" s="96" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E114" s="96" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F114" s="135" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
@@ -4392,10 +4463,10 @@
         <v>27</v>
       </c>
       <c r="D115" s="96" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E115" s="96" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F115" s="31" t="s">
         <v>10</v>
@@ -4408,13 +4479,13 @@
         <v>27</v>
       </c>
       <c r="D116" s="96" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E116" s="96" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F116" s="135" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
@@ -4424,10 +4495,10 @@
         <v>27</v>
       </c>
       <c r="D117" s="96" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E117" s="96" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F117" s="31" t="s">
         <v>10</v>
@@ -4440,13 +4511,13 @@
         <v>27</v>
       </c>
       <c r="D118" s="96" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E118" s="96" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F118" s="135" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
@@ -4456,10 +4527,10 @@
         <v>27</v>
       </c>
       <c r="D119" s="96" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E119" s="96" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F119" s="31" t="s">
         <v>10</v>
@@ -4472,13 +4543,13 @@
         <v>27</v>
       </c>
       <c r="D120" s="96" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E120" s="96" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F120" s="135" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.35">
@@ -4488,10 +4559,10 @@
         <v>27</v>
       </c>
       <c r="D121" s="96" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E121" s="96" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F121" s="31" t="s">
         <v>10</v>
@@ -4504,13 +4575,13 @@
         <v>27</v>
       </c>
       <c r="D122" s="96" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E122" s="96" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F122" s="135" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
@@ -4520,10 +4591,10 @@
         <v>27</v>
       </c>
       <c r="D123" s="96" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E123" s="96" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F123" s="31" t="s">
         <v>10</v>
@@ -4533,29 +4604,29 @@
       <c r="A124" s="97"/>
       <c r="B124" s="98"/>
       <c r="C124" s="95" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D124" s="96" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E124" s="96" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F124" s="135" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="97"/>
       <c r="B125" s="98"/>
       <c r="C125" s="95" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D125" s="96" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E125" s="96" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F125" s="31" t="s">
         <v>10</v>
@@ -4565,29 +4636,29 @@
       <c r="A126" s="97"/>
       <c r="B126" s="98"/>
       <c r="C126" s="95" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D126" s="96" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E126" s="96" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F126" s="135" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="97"/>
       <c r="B127" s="98"/>
       <c r="C127" s="95" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D127" s="96" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E127" s="96" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F127" s="31" t="s">
         <v>10</v>
@@ -4597,29 +4668,29 @@
       <c r="A128" s="97"/>
       <c r="B128" s="98"/>
       <c r="C128" s="95" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D128" s="96" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E128" s="96" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F128" s="135" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="97"/>
       <c r="B129" s="98"/>
       <c r="C129" s="95" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D129" s="96" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E129" s="96" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F129" s="31" t="s">
         <v>10</v>
@@ -4629,29 +4700,29 @@
       <c r="A130" s="97"/>
       <c r="B130" s="98"/>
       <c r="C130" s="95" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D130" s="96" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E130" s="96" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F130" s="135" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="97"/>
       <c r="B131" s="98"/>
       <c r="C131" s="95" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D131" s="96" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E131" s="96" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F131" s="31" t="s">
         <v>10</v>
@@ -4661,29 +4732,29 @@
       <c r="A132" s="97"/>
       <c r="B132" s="98"/>
       <c r="C132" s="95" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D132" s="96" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E132" s="96" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F132" s="135" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="99"/>
       <c r="B133" s="100"/>
       <c r="C133" s="95" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D133" s="96" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E133" s="96" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F133" s="31" t="s">
         <v>10</v>
@@ -4691,17 +4762,22 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="33" t="s">
-        <v>113</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -4718,8 +4794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView zoomScale="58" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4746,10 +4822,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -4778,7 +4854,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -4815,7 +4891,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F5" s="25" t="s">
         <v>7</v>
@@ -4829,10 +4905,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F6" s="25" t="s">
         <v>10</v>
@@ -4846,10 +4922,10 @@
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F7" s="25" t="s">
         <v>10</v>
@@ -4863,13 +4939,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G8" s="72"/>
     </row>
@@ -4880,13 +4956,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G9" s="72"/>
     </row>
@@ -5041,16 +5117,16 @@
         <v>33</v>
       </c>
       <c r="B18" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="C18" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="D18" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="E18" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>7</v>
@@ -5061,13 +5137,13 @@
       <c r="A19" s="38"/>
       <c r="B19" s="42"/>
       <c r="C19" s="39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>7</v>
@@ -5078,13 +5154,13 @@
       <c r="A20" s="38"/>
       <c r="B20" s="42"/>
       <c r="C20" s="39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>7</v>
@@ -5095,13 +5171,13 @@
       <c r="A21" s="38"/>
       <c r="B21" s="42"/>
       <c r="C21" s="39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>7</v>
@@ -5112,13 +5188,13 @@
       <c r="A22" s="38"/>
       <c r="B22" s="42"/>
       <c r="C22" s="39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>7</v>
@@ -5129,13 +5205,13 @@
       <c r="A23" s="38"/>
       <c r="B23" s="42"/>
       <c r="C23" s="39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>7</v>
@@ -5146,13 +5222,13 @@
       <c r="A24" s="38"/>
       <c r="B24" s="42"/>
       <c r="C24" s="39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>7</v>
@@ -5162,16 +5238,16 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="38"/>
       <c r="B25" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="39" t="s">
+      <c r="D25" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="E25" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>7</v>
@@ -5182,13 +5258,13 @@
       <c r="A26" s="38"/>
       <c r="B26" s="42"/>
       <c r="C26" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>7</v>
@@ -5199,13 +5275,13 @@
       <c r="A27" s="38"/>
       <c r="B27" s="42"/>
       <c r="C27" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>7</v>
@@ -5216,13 +5292,13 @@
       <c r="A28" s="38"/>
       <c r="B28" s="42"/>
       <c r="C28" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>7</v>
@@ -5233,13 +5309,13 @@
       <c r="A29" s="38"/>
       <c r="B29" s="42"/>
       <c r="C29" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>7</v>
@@ -5250,13 +5326,13 @@
       <c r="A30" s="38"/>
       <c r="B30" s="42"/>
       <c r="C30" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>7</v>
@@ -5267,13 +5343,13 @@
       <c r="A31" s="38"/>
       <c r="B31" s="42"/>
       <c r="C31" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>7</v>
@@ -5284,13 +5360,13 @@
       <c r="A32" s="38"/>
       <c r="B32" s="42"/>
       <c r="C32" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>7</v>
@@ -5301,13 +5377,13 @@
       <c r="A33" s="38"/>
       <c r="B33" s="42"/>
       <c r="C33" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>7</v>
@@ -5318,13 +5394,13 @@
       <c r="A34" s="38"/>
       <c r="B34" s="42"/>
       <c r="C34" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>7</v>
@@ -5335,13 +5411,13 @@
       <c r="A35" s="38"/>
       <c r="B35" s="42"/>
       <c r="C35" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>7</v>
@@ -5352,13 +5428,13 @@
       <c r="A36" s="38"/>
       <c r="B36" s="42"/>
       <c r="C36" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>7</v>
@@ -5369,13 +5445,13 @@
       <c r="A37" s="38"/>
       <c r="B37" s="42"/>
       <c r="C37" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>7</v>
@@ -5386,13 +5462,13 @@
       <c r="A38" s="38"/>
       <c r="B38" s="42"/>
       <c r="C38" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>7</v>
@@ -5403,13 +5479,13 @@
       <c r="A39" s="38"/>
       <c r="B39" s="42"/>
       <c r="C39" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>7</v>
@@ -5420,13 +5496,13 @@
       <c r="A40" s="38"/>
       <c r="B40" s="42"/>
       <c r="C40" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>7</v>
@@ -5437,13 +5513,13 @@
       <c r="A41" s="38"/>
       <c r="B41" s="42"/>
       <c r="C41" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>7</v>
@@ -5454,13 +5530,13 @@
       <c r="A42" s="38"/>
       <c r="B42" s="42"/>
       <c r="C42" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>7</v>
@@ -5471,13 +5547,13 @@
       <c r="A43" s="38"/>
       <c r="B43" s="42"/>
       <c r="C43" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>7</v>
@@ -5488,13 +5564,13 @@
       <c r="A44" s="38"/>
       <c r="B44" s="42"/>
       <c r="C44" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>7</v>
@@ -5505,13 +5581,13 @@
       <c r="A45" s="38"/>
       <c r="B45" s="42"/>
       <c r="C45" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>7</v>
@@ -5522,13 +5598,13 @@
       <c r="A46" s="38"/>
       <c r="B46" s="42"/>
       <c r="C46" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>7</v>
@@ -5539,13 +5615,13 @@
       <c r="A47" s="38"/>
       <c r="B47" s="42"/>
       <c r="C47" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>7</v>
@@ -5556,13 +5632,13 @@
       <c r="A48" s="38"/>
       <c r="B48" s="42"/>
       <c r="C48" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>7</v>
@@ -5573,13 +5649,13 @@
       <c r="A49" s="38"/>
       <c r="B49" s="42"/>
       <c r="C49" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>7</v>
@@ -5590,13 +5666,13 @@
       <c r="A50" s="38"/>
       <c r="B50" s="42"/>
       <c r="C50" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>7</v>
@@ -5607,13 +5683,13 @@
       <c r="A51" s="38"/>
       <c r="B51" s="42"/>
       <c r="C51" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>7</v>
@@ -5624,13 +5700,13 @@
       <c r="A52" s="38"/>
       <c r="B52" s="42"/>
       <c r="C52" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>7</v>
@@ -5641,13 +5717,13 @@
       <c r="A53" s="38"/>
       <c r="B53" s="42"/>
       <c r="C53" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>7</v>
@@ -5658,13 +5734,13 @@
       <c r="A54" s="38"/>
       <c r="B54" s="42"/>
       <c r="C54" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>7</v>
@@ -5675,13 +5751,13 @@
       <c r="A55" s="38"/>
       <c r="B55" s="40"/>
       <c r="C55" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>7</v>
@@ -5690,17 +5766,17 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="38"/>
-      <c r="B56" s="139" t="s">
+      <c r="B56" s="141" t="s">
+        <v>190</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D56" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D56" s="29" t="s">
-        <v>61</v>
-      </c>
       <c r="E56" s="5" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>10</v>
@@ -5709,15 +5785,15 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="38"/>
-      <c r="B57" s="140"/>
+      <c r="B57" s="142"/>
       <c r="C57" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D57" s="29" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>10</v>
@@ -5726,15 +5802,15 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="10"/>
-      <c r="B58" s="141"/>
+      <c r="B58" s="143"/>
       <c r="C58" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D58" s="29" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>7</v>
@@ -5743,22 +5819,22 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="67" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B59" s="69" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C59" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G59" s="72"/>
     </row>
@@ -5769,13 +5845,13 @@
         <v>11</v>
       </c>
       <c r="D60" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F60" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="G60" s="72"/>
     </row>
@@ -5783,37 +5859,37 @@
       <c r="A61" s="68"/>
       <c r="B61" s="70"/>
       <c r="C61" s="15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G61" s="72"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="B62" s="18" t="s">
         <v>112</v>
-      </c>
-      <c r="B62" s="18" t="s">
-        <v>116</v>
       </c>
       <c r="C62" s="20" t="s">
         <v>27</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F62" s="27" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G62" s="72"/>
     </row>
@@ -5824,10 +5900,10 @@
         <v>27</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E63" s="19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F63" s="27" t="s">
         <v>10</v>
@@ -5841,13 +5917,13 @@
         <v>27</v>
       </c>
       <c r="D64" s="19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E64" s="19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F64" s="27" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G64" s="72"/>
     </row>
@@ -5858,10 +5934,10 @@
         <v>27</v>
       </c>
       <c r="D65" s="19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F65" s="27" t="s">
         <v>10</v>
@@ -5875,13 +5951,13 @@
         <v>27</v>
       </c>
       <c r="D66" s="19" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E66" s="19" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F66" s="27" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G66" s="72"/>
     </row>
@@ -5892,10 +5968,10 @@
         <v>27</v>
       </c>
       <c r="D67" s="19" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E67" s="19" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F67" s="27" t="s">
         <v>10</v>
@@ -5909,13 +5985,13 @@
         <v>27</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E68" s="19" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F68" s="27" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G68" s="72"/>
     </row>
@@ -5926,10 +6002,10 @@
         <v>27</v>
       </c>
       <c r="D69" s="19" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E69" s="19" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F69" s="27" t="s">
         <v>10</v>
@@ -5943,13 +6019,13 @@
         <v>27</v>
       </c>
       <c r="D70" s="19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E70" s="19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F70" s="27" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G70" s="72"/>
     </row>
@@ -5960,10 +6036,10 @@
         <v>27</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E71" s="19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F71" s="27" t="s">
         <v>10</v>
@@ -5974,16 +6050,16 @@
       <c r="A72" s="60"/>
       <c r="B72" s="18"/>
       <c r="C72" s="62" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D72" s="27" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E72" s="27" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F72" s="27" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G72" s="72"/>
     </row>
@@ -5991,13 +6067,13 @@
       <c r="A73" s="60"/>
       <c r="B73" s="18"/>
       <c r="C73" s="62" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D73" s="27" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E73" s="27" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F73" s="27" t="s">
         <v>10</v>
@@ -6008,16 +6084,16 @@
       <c r="A74" s="60"/>
       <c r="B74" s="18"/>
       <c r="C74" s="62" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D74" s="27" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E74" s="27" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F74" s="27" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G74" s="72"/>
     </row>
@@ -6025,13 +6101,13 @@
       <c r="A75" s="60"/>
       <c r="B75" s="18"/>
       <c r="C75" s="62" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D75" s="27" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E75" s="27" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F75" s="27" t="s">
         <v>10</v>
@@ -6042,16 +6118,16 @@
       <c r="A76" s="60"/>
       <c r="B76" s="18"/>
       <c r="C76" s="62" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D76" s="27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E76" s="27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F76" s="27" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G76" s="72"/>
     </row>
@@ -6059,13 +6135,13 @@
       <c r="A77" s="60"/>
       <c r="B77" s="18"/>
       <c r="C77" s="62" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D77" s="27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E77" s="27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F77" s="27" t="s">
         <v>10</v>
@@ -6076,16 +6152,16 @@
       <c r="A78" s="60"/>
       <c r="B78" s="18"/>
       <c r="C78" s="62" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D78" s="27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E78" s="27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F78" s="27" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G78" s="72"/>
     </row>
@@ -6093,13 +6169,13 @@
       <c r="A79" s="60"/>
       <c r="B79" s="18"/>
       <c r="C79" s="62" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D79" s="27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E79" s="27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F79" s="27" t="s">
         <v>10</v>
@@ -6110,16 +6186,16 @@
       <c r="A80" s="60"/>
       <c r="B80" s="18"/>
       <c r="C80" s="62" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D80" s="27" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E80" s="27" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F80" s="27" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G80" s="72"/>
     </row>
@@ -6127,13 +6203,13 @@
       <c r="A81" s="60"/>
       <c r="B81" s="18"/>
       <c r="C81" s="62" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D81" s="27" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E81" s="27" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F81" s="27" t="s">
         <v>10</v>
@@ -6144,16 +6220,16 @@
       <c r="A82" s="60"/>
       <c r="B82" s="18"/>
       <c r="C82" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="D82" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="D82" s="27" t="s">
-        <v>75</v>
-      </c>
       <c r="E82" s="27" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F82" s="27" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G82" s="72"/>
     </row>
@@ -6161,13 +6237,13 @@
       <c r="A83" s="60"/>
       <c r="B83" s="18"/>
       <c r="C83" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="D83" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="27" t="s">
-        <v>75</v>
-      </c>
       <c r="E83" s="27" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F83" s="27" t="s">
         <v>10</v>
@@ -6178,16 +6254,16 @@
       <c r="A84" s="60"/>
       <c r="B84" s="18"/>
       <c r="C84" s="62" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D84" s="27" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E84" s="27" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F84" s="27" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G84" s="72"/>
     </row>
@@ -6195,13 +6271,13 @@
       <c r="A85" s="60"/>
       <c r="B85" s="18"/>
       <c r="C85" s="62" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D85" s="27" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E85" s="27" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F85" s="27" t="s">
         <v>10</v>
@@ -6212,16 +6288,16 @@
       <c r="A86" s="60"/>
       <c r="B86" s="18"/>
       <c r="C86" s="62" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D86" s="27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E86" s="27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F86" s="27" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G86" s="72"/>
     </row>
@@ -6229,13 +6305,13 @@
       <c r="A87" s="60"/>
       <c r="B87" s="18"/>
       <c r="C87" s="62" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D87" s="27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E87" s="27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F87" s="27" t="s">
         <v>10</v>
@@ -6246,16 +6322,16 @@
       <c r="A88" s="60"/>
       <c r="B88" s="18"/>
       <c r="C88" s="62" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D88" s="27" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E88" s="27" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F88" s="27" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G88" s="72"/>
     </row>
@@ -6263,13 +6339,13 @@
       <c r="A89" s="60"/>
       <c r="B89" s="18"/>
       <c r="C89" s="62" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D89" s="27" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E89" s="27" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F89" s="27" t="s">
         <v>10</v>
@@ -6280,16 +6356,16 @@
       <c r="A90" s="60"/>
       <c r="B90" s="18"/>
       <c r="C90" s="62" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D90" s="27" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E90" s="27" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F90" s="27" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G90" s="72"/>
     </row>
@@ -6297,13 +6373,13 @@
       <c r="A91" s="60"/>
       <c r="B91" s="18"/>
       <c r="C91" s="62" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D91" s="27" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E91" s="27" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F91" s="27" t="s">
         <v>10</v>
@@ -6314,16 +6390,16 @@
       <c r="A92" s="60"/>
       <c r="B92" s="18"/>
       <c r="C92" s="62" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D92" s="27" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E92" s="27" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F92" s="27" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G92" s="72"/>
     </row>
@@ -6331,13 +6407,13 @@
       <c r="A93" s="60"/>
       <c r="B93" s="18"/>
       <c r="C93" s="62" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D93" s="27" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E93" s="27" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F93" s="27" t="s">
         <v>10</v>
@@ -6348,16 +6424,16 @@
       <c r="A94" s="60"/>
       <c r="B94" s="18"/>
       <c r="C94" s="62" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D94" s="27" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E94" s="27" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F94" s="27" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G94" s="72"/>
     </row>
@@ -6365,13 +6441,13 @@
       <c r="A95" s="60"/>
       <c r="B95" s="18"/>
       <c r="C95" s="62" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D95" s="27" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E95" s="27" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F95" s="27" t="s">
         <v>10</v>
@@ -6380,19 +6456,19 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="63" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B96" s="66" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C96" s="22" t="s">
         <v>27</v>
       </c>
       <c r="D96" s="23" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E96" s="23" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F96" s="30" t="s">
         <v>10</v>
@@ -6406,10 +6482,10 @@
         <v>27</v>
       </c>
       <c r="D97" s="23" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E97" s="23" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F97" s="31" t="s">
         <v>10</v>
@@ -6423,10 +6499,10 @@
         <v>27</v>
       </c>
       <c r="D98" s="23" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E98" s="23" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F98" s="31" t="s">
         <v>10</v>
@@ -6440,10 +6516,10 @@
         <v>27</v>
       </c>
       <c r="D99" s="23" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E99" s="23" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F99" s="31" t="s">
         <v>10</v>
@@ -6457,10 +6533,10 @@
         <v>27</v>
       </c>
       <c r="D100" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E100" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F100" s="31" t="s">
         <v>10</v>
@@ -6469,17 +6545,17 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" s="33" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
